--- a/BackTest/2020-01-14 BackTest BTT.xlsx
+++ b/BackTest/2020-01-14 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M161"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1471.5</v>
       </c>
       <c r="G2" t="n">
+        <v>0.3638133333333332</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.3611083333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>413782.4094</v>
       </c>
       <c r="G3" t="n">
+        <v>0.3645666666666665</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.3612366666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>40000</v>
       </c>
       <c r="G4" t="n">
+        <v>0.3653199999999999</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.361305</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1027558.2038</v>
       </c>
       <c r="G5" t="n">
+        <v>0.3656199999999999</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.361325</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1812154.0465</v>
       </c>
       <c r="G6" t="n">
+        <v>0.3651533333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.3612616666666666</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>829510.1865</v>
       </c>
       <c r="G7" t="n">
+        <v>0.3645933333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.3611833333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>4243057.7797</v>
       </c>
       <c r="G8" t="n">
+        <v>0.3640266666666666</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.3611</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>95403.77899999999</v>
       </c>
       <c r="G9" t="n">
+        <v>0.3634599999999999</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.3610183333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>192346.3875</v>
       </c>
       <c r="G10" t="n">
+        <v>0.3628933333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.3610100000000001</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>667868.8117</v>
       </c>
       <c r="G11" t="n">
+        <v>0.3623533333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.3609783333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>138504.1552</v>
       </c>
       <c r="G12" t="n">
+        <v>0.3621466666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.3609916666666668</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1471.5</v>
       </c>
       <c r="G13" t="n">
+        <v>0.36192</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.3609866666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>2601885.7111</v>
       </c>
       <c r="G14" t="n">
+        <v>0.36164</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.3609766666666668</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>12000</v>
       </c>
       <c r="G15" t="n">
+        <v>0.3613533333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.3609516666666668</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>6200</v>
       </c>
       <c r="G16" t="n">
+        <v>0.3610666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.3609033333333335</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>4387398.8939</v>
       </c>
       <c r="G17" t="n">
+        <v>0.36088</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.3609016666666668</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>1412</v>
       </c>
       <c r="G18" t="n">
+        <v>0.3604266666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.3609416666666668</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>9061808.064622531</v>
       </c>
       <c r="G19" t="n">
+        <v>0.35984</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.3609450000000001</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1358806.4828</v>
       </c>
       <c r="G20" t="n">
+        <v>0.3597133333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.36095</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>680366.564</v>
       </c>
       <c r="G21" t="n">
+        <v>0.3596533333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.3609516666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>196363.012</v>
       </c>
       <c r="G22" t="n">
+        <v>0.3596466666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.360955</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>2385566.4921</v>
       </c>
       <c r="G23" t="n">
+        <v>0.35964</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.3609566666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>216685.3583</v>
       </c>
       <c r="G24" t="n">
+        <v>0.3596466666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.3609616666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>1266504.2426</v>
       </c>
       <c r="G25" t="n">
+        <v>0.3596599999999999</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.3609716666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>984977.1268</v>
       </c>
       <c r="G26" t="n">
+        <v>0.3598399999999999</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.360995</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>89964.4111</v>
       </c>
       <c r="G27" t="n">
+        <v>0.3598399999999999</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.3610183333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>6613124.1622</v>
       </c>
       <c r="G28" t="n">
+        <v>0.3599666666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.3610350000000001</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>9362.257799999999</v>
       </c>
       <c r="G29" t="n">
+        <v>0.3600866666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.361045</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>2136398.4312</v>
       </c>
       <c r="G30" t="n">
+        <v>0.3602333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.36106</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>8814.07</v>
       </c>
       <c r="G31" t="n">
+        <v>0.3603933333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.3610783333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>27693.1598</v>
       </c>
       <c r="G32" t="n">
+        <v>0.3604866666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.3611116666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>27685.4929</v>
       </c>
       <c r="G33" t="n">
+        <v>0.3604333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.3611466666666666</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>31437.7307</v>
       </c>
       <c r="G34" t="n">
+        <v>0.3604666666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>0.3611699999999999</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>37640.155</v>
       </c>
       <c r="G35" t="n">
+        <v>0.3604666666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>0.3611866666666665</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>38078.6478</v>
       </c>
       <c r="G36" t="n">
+        <v>0.3604733333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>0.3611933333333332</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>145000</v>
       </c>
       <c r="G37" t="n">
+        <v>0.3604733333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>0.3611999999999999</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>276699.02912621</v>
       </c>
       <c r="G38" t="n">
+        <v>0.3605133333333334</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.3612266666666665</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>1500</v>
       </c>
       <c r="G39" t="n">
+        <v>0.36044</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.3612166666666665</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>800921.6226999999</v>
       </c>
       <c r="G40" t="n">
+        <v>0.3602933333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>0.3611899999999998</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>6501810.5049</v>
       </c>
       <c r="G41" t="n">
+        <v>0.3600933333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.3611633333333331</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>1408245.6592</v>
       </c>
       <c r="G42" t="n">
+        <v>0.3598933333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>0.3611483333333332</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>1030084.8866</v>
       </c>
       <c r="G43" t="n">
+        <v>0.3597066666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>0.3611183333333332</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>790289.4398000001</v>
       </c>
       <c r="G44" t="n">
+        <v>0.3595466666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>0.3610883333333332</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>2467891.1525</v>
       </c>
       <c r="G45" t="n">
+        <v>0.3593666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>0.3610583333333332</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>127195.1428</v>
       </c>
       <c r="G46" t="n">
+        <v>0.3591333333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>0.3610183333333332</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>1500</v>
       </c>
       <c r="G47" t="n">
+        <v>0.3588266666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.3610016666666665</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>1653812.7615</v>
       </c>
       <c r="G48" t="n">
+        <v>0.3583866666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>0.3609533333333331</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>623761286.62</v>
       </c>
       <c r="G49" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.3609066666666665</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>5485227.2606</v>
       </c>
       <c r="G50" t="n">
+        <v>0.3573133333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.3607783333333331</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>1834763.9094</v>
       </c>
       <c r="G51" t="n">
+        <v>0.3563533333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>0.3604083333333331</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>678958</v>
       </c>
       <c r="G52" t="n">
+        <v>0.3555666666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>0.3600699999999997</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>5074216</v>
       </c>
       <c r="G53" t="n">
+        <v>0.3552266666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>0.3598516666666664</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>2378062.2217</v>
       </c>
       <c r="G54" t="n">
+        <v>0.3545933333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.3595349999999997</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>373345.14</v>
       </c>
       <c r="G55" t="n">
+        <v>0.3540266666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>0.359218333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>11153.0887</v>
       </c>
       <c r="G56" t="n">
+        <v>0.3534933333333334</v>
+      </c>
+      <c r="H56" t="n">
         <v>0.3589449999999997</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>2015198.9998</v>
       </c>
       <c r="G57" t="n">
+        <v>0.3529266666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>0.3587016666666664</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>1560497.9998</v>
       </c>
       <c r="G58" t="n">
+        <v>0.3523733333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>0.3584916666666663</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>3733992.3523</v>
       </c>
       <c r="G59" t="n">
+        <v>0.3518533333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>0.3582816666666663</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>1496991.6026</v>
       </c>
       <c r="G60" t="n">
+        <v>0.3513333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.3580716666666663</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>4813900.3132</v>
       </c>
       <c r="G61" t="n">
+        <v>0.3508533333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.3578616666666664</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>1627123.1507</v>
       </c>
       <c r="G62" t="n">
+        <v>0.35024</v>
+      </c>
+      <c r="H62" t="n">
         <v>0.357608333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>28450529.3809</v>
       </c>
       <c r="G63" t="n">
+        <v>0.3497733333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>0.3572549999999997</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>1036664.7042</v>
       </c>
       <c r="G64" t="n">
+        <v>0.3492999999999999</v>
+      </c>
+      <c r="H64" t="n">
         <v>0.3569016666666663</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>3000000</v>
       </c>
       <c r="G65" t="n">
+        <v>0.3491533333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>0.3566616666666664</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>1420265.24</v>
       </c>
       <c r="G66" t="n">
+        <v>0.3492466666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>0.3564316666666664</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>5942382.9225</v>
       </c>
       <c r="G67" t="n">
+        <v>0.3491666666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>0.356213333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>4121088.1097</v>
       </c>
       <c r="G68" t="n">
+        <v>0.3486066666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>0.3559966666666664</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>6361380.8397</v>
       </c>
       <c r="G69" t="n">
+        <v>0.3484399999999999</v>
+      </c>
+      <c r="H69" t="n">
         <v>0.3557799999999998</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>8939812.758199999</v>
       </c>
       <c r="G70" t="n">
+        <v>0.3482733333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>0.3555633333333332</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>3106193</v>
       </c>
       <c r="G71" t="n">
+        <v>0.3480733333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>0.3553749999999998</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>747979.67898229</v>
       </c>
       <c r="G72" t="n">
+        <v>0.3482</v>
+      </c>
+      <c r="H72" t="n">
         <v>0.3552149999999999</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>230211.9753</v>
       </c>
       <c r="G73" t="n">
+        <v>0.3480333333333334</v>
+      </c>
+      <c r="H73" t="n">
         <v>0.3550199999999999</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>1124389.6449</v>
       </c>
       <c r="G74" t="n">
+        <v>0.3478333333333334</v>
+      </c>
+      <c r="H74" t="n">
         <v>0.3548299999999999</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>4892010.6526</v>
       </c>
       <c r="G75" t="n">
+        <v>0.3479666666666668</v>
+      </c>
+      <c r="H75" t="n">
         <v>0.354725</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>1854960.4944</v>
       </c>
       <c r="G76" t="n">
+        <v>0.3477000000000002</v>
+      </c>
+      <c r="H76" t="n">
         <v>0.3545199999999999</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>15042055.3768</v>
       </c>
       <c r="G77" t="n">
+        <v>0.3476666666666668</v>
+      </c>
+      <c r="H77" t="n">
         <v>0.3543049999999999</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>1884726.1494</v>
       </c>
       <c r="G78" t="n">
+        <v>0.3478400000000002</v>
+      </c>
+      <c r="H78" t="n">
         <v>0.3541083333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>2910.959</v>
       </c>
       <c r="G79" t="n">
+        <v>0.3477200000000001</v>
+      </c>
+      <c r="H79" t="n">
         <v>0.3538716666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>276875.6725</v>
       </c>
       <c r="G80" t="n">
+        <v>0.3478266666666668</v>
+      </c>
+      <c r="H80" t="n">
         <v>0.35369</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>154196.9575</v>
       </c>
       <c r="G81" t="n">
+        <v>0.3479866666666668</v>
+      </c>
+      <c r="H81" t="n">
         <v>0.353515</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>177885.1468</v>
       </c>
       <c r="G82" t="n">
+        <v>0.3481400000000002</v>
+      </c>
+      <c r="H82" t="n">
         <v>0.3533366666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>443011.3736</v>
       </c>
       <c r="G83" t="n">
+        <v>0.3482933333333335</v>
+      </c>
+      <c r="H83" t="n">
         <v>0.35316</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>664519.9197</v>
       </c>
       <c r="G84" t="n">
+        <v>0.3484466666666668</v>
+      </c>
+      <c r="H84" t="n">
         <v>0.35298</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>25083.0131</v>
       </c>
       <c r="G85" t="n">
+        <v>0.3484200000000002</v>
+      </c>
+      <c r="H85" t="n">
         <v>0.3527533333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>291380.4161</v>
       </c>
       <c r="G86" t="n">
+        <v>0.3485133333333336</v>
+      </c>
+      <c r="H86" t="n">
         <v>0.3525433333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>93742.52469999999</v>
       </c>
       <c r="G87" t="n">
+        <v>0.3483000000000003</v>
+      </c>
+      <c r="H87" t="n">
         <v>0.35233</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>1474955.9329</v>
       </c>
       <c r="G88" t="n">
+        <v>0.3483800000000004</v>
+      </c>
+      <c r="H88" t="n">
         <v>0.3521233333333332</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>552948.9510999999</v>
       </c>
       <c r="G89" t="n">
+        <v>0.348466666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>0.3519249999999999</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>276474.4755</v>
       </c>
       <c r="G90" t="n">
+        <v>0.3482200000000004</v>
+      </c>
+      <c r="H90" t="n">
         <v>0.3517216666666665</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>276160.216</v>
       </c>
       <c r="G91" t="n">
+        <v>0.3484000000000004</v>
+      </c>
+      <c r="H91" t="n">
         <v>0.3515216666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>408573.8428</v>
       </c>
       <c r="G92" t="n">
+        <v>0.3483800000000004</v>
+      </c>
+      <c r="H92" t="n">
         <v>0.3512783333333332</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>11982.3364</v>
       </c>
       <c r="G93" t="n">
+        <v>0.3483000000000003</v>
+      </c>
+      <c r="H93" t="n">
         <v>0.3510749999999999</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>1416514.446</v>
       </c>
       <c r="G94" t="n">
+        <v>0.348606666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>0.3509066666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>1328177.1028</v>
       </c>
       <c r="G95" t="n">
+        <v>0.348686666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>0.3507449999999999</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>1439359.0011</v>
       </c>
       <c r="G96" t="n">
+        <v>0.3487533333333336</v>
+      </c>
+      <c r="H96" t="n">
         <v>0.3505849999999999</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>0.0001</v>
       </c>
       <c r="G97" t="n">
+        <v>0.3488266666666669</v>
+      </c>
+      <c r="H97" t="n">
         <v>0.3504249999999999</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>28360.74872376</v>
       </c>
       <c r="G98" t="n">
+        <v>0.3490466666666669</v>
+      </c>
+      <c r="H98" t="n">
         <v>0.3502933333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>234109.9066</v>
       </c>
       <c r="G99" t="n">
+        <v>0.3492800000000002</v>
+      </c>
+      <c r="H99" t="n">
         <v>0.3501899999999999</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>262167.8877</v>
       </c>
       <c r="G100" t="n">
+        <v>0.3496933333333336</v>
+      </c>
+      <c r="H100" t="n">
         <v>0.3501033333333332</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>2387107</v>
       </c>
       <c r="G101" t="n">
+        <v>0.3499266666666669</v>
+      </c>
+      <c r="H101" t="n">
         <v>0.3500016666666665</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>5451.1717</v>
       </c>
       <c r="G102" t="n">
+        <v>0.3501600000000002</v>
+      </c>
+      <c r="H102" t="n">
         <v>0.3498966666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>394809.1163</v>
       </c>
       <c r="G103" t="n">
+        <v>0.3506000000000002</v>
+      </c>
+      <c r="H103" t="n">
         <v>0.3498466666666665</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>1207673.3758</v>
       </c>
       <c r="G104" t="n">
+        <v>0.3510133333333335</v>
+      </c>
+      <c r="H104" t="n">
         <v>0.3497916666666666</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>303033.9755</v>
       </c>
       <c r="G105" t="n">
+        <v>0.3514266666666668</v>
+      </c>
+      <c r="H105" t="n">
         <v>0.3497366666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>1154904.1414</v>
       </c>
       <c r="G106" t="n">
+        <v>0.3516533333333335</v>
+      </c>
+      <c r="H106" t="n">
         <v>0.3496516666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>19500</v>
       </c>
       <c r="G107" t="n">
+        <v>0.3519933333333335</v>
+      </c>
+      <c r="H107" t="n">
         <v>0.3495699999999999</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>2695125.6303</v>
       </c>
       <c r="G108" t="n">
+        <v>0.3519866666666669</v>
+      </c>
+      <c r="H108" t="n">
         <v>0.3494749999999999</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>242516.6264</v>
       </c>
       <c r="G109" t="n">
+        <v>0.3519200000000003</v>
+      </c>
+      <c r="H109" t="n">
         <v>0.3493866666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>215981.5447</v>
       </c>
       <c r="G110" t="n">
+        <v>0.3518733333333336</v>
+      </c>
+      <c r="H110" t="n">
         <v>0.3493849999999999</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>2827</v>
       </c>
       <c r="G111" t="n">
+        <v>0.3525000000000003</v>
+      </c>
+      <c r="H111" t="n">
         <v>0.3496216666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>231654.4569</v>
       </c>
       <c r="G112" t="n">
+        <v>0.3524533333333337</v>
+      </c>
+      <c r="H112" t="n">
         <v>0.3496466666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>3062.361</v>
       </c>
       <c r="G113" t="n">
+        <v>0.3520400000000004</v>
+      </c>
+      <c r="H113" t="n">
         <v>0.3494966666666665</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>13532442.0799</v>
       </c>
       <c r="G114" t="n">
+        <v>0.3515200000000004</v>
+      </c>
+      <c r="H114" t="n">
         <v>0.3494216666666665</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>10293063.8673</v>
       </c>
       <c r="G115" t="n">
+        <v>0.350666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>0.3492633333333332</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>2992804.8403</v>
       </c>
       <c r="G116" t="n">
+        <v>0.3498733333333337</v>
+      </c>
+      <c r="H116" t="n">
         <v>0.3490966666666665</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>10000</v>
       </c>
       <c r="G117" t="n">
+        <v>0.3493333333333337</v>
+      </c>
+      <c r="H117" t="n">
         <v>0.3489983333333332</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>1593015.8779</v>
       </c>
       <c r="G118" t="n">
+        <v>0.3485133333333337</v>
+      </c>
+      <c r="H118" t="n">
         <v>0.3488816666666665</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,25 @@
         <v>77362.6844</v>
       </c>
       <c r="G119" t="n">
+        <v>0.3477000000000004</v>
+      </c>
+      <c r="H119" t="n">
         <v>0.3487533333333332</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4941,29 @@
         <v>224914.9522</v>
       </c>
       <c r="G120" t="n">
+        <v>0.3468866666666671</v>
+      </c>
+      <c r="H120" t="n">
         <v>0.3486249999999999</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4987,29 @@
         <v>267353.3603</v>
       </c>
       <c r="G121" t="n">
+        <v>0.3461400000000003</v>
+      </c>
+      <c r="H121" t="n">
         <v>0.3484733333333332</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,22 +5033,29 @@
         <v>7503077.3718</v>
       </c>
       <c r="G122" t="n">
+        <v>0.3458200000000003</v>
+      </c>
+      <c r="H122" t="n">
         <v>0.3484649999999999</v>
       </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>0.3409</v>
+        <v>0</v>
       </c>
       <c r="K122" t="n">
         <v>0.3409</v>
       </c>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4687,24 +5079,27 @@
         <v>5621.6942</v>
       </c>
       <c r="G123" t="n">
+        <v>0.346206666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>0.3485833333333332</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>0.3409</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M123" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4728,24 +5123,27 @@
         <v>6286.8837</v>
       </c>
       <c r="G124" t="n">
+        <v>0.3460600000000003</v>
+      </c>
+      <c r="H124" t="n">
         <v>0.3485766666666666</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>0.3409</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M124" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4769,18 +5167,27 @@
         <v>39639.5284</v>
       </c>
       <c r="G125" t="n">
+        <v>0.3458800000000002</v>
+      </c>
+      <c r="H125" t="n">
         <v>0.3485666666666666</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,18 +5211,27 @@
         <v>1944.9572</v>
       </c>
       <c r="G126" t="n">
+        <v>0.3450466666666669</v>
+      </c>
+      <c r="H126" t="n">
         <v>0.3485716666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4839,18 +5255,27 @@
         <v>46603.7253</v>
       </c>
       <c r="G127" t="n">
+        <v>0.3448666666666669</v>
+      </c>
+      <c r="H127" t="n">
         <v>0.3485716666666666</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,18 +5299,27 @@
         <v>4894892.4026</v>
       </c>
       <c r="G128" t="n">
+        <v>0.3448933333333336</v>
+      </c>
+      <c r="H128" t="n">
         <v>0.3485683333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4909,18 +5343,27 @@
         <v>48283.485</v>
       </c>
       <c r="G129" t="n">
+        <v>0.3450200000000002</v>
+      </c>
+      <c r="H129" t="n">
         <v>0.3485666666666666</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,18 +5387,27 @@
         <v>4540.8875</v>
       </c>
       <c r="G130" t="n">
+        <v>0.3456200000000003</v>
+      </c>
+      <c r="H130" t="n">
         <v>0.3486</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,18 +5431,27 @@
         <v>1675.5579</v>
       </c>
       <c r="G131" t="n">
+        <v>0.346226666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>0.3486349999999999</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,18 +5475,27 @@
         <v>1411.6319</v>
       </c>
       <c r="G132" t="n">
+        <v>0.3468200000000002</v>
+      </c>
+      <c r="H132" t="n">
         <v>0.3486533333333332</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5049,18 +5519,27 @@
         <v>1418.4398</v>
       </c>
       <c r="G133" t="n">
+        <v>0.3475466666666669</v>
+      </c>
+      <c r="H133" t="n">
         <v>0.3487599999999998</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,18 +5563,27 @@
         <v>1416.4306</v>
       </c>
       <c r="G134" t="n">
+        <v>0.3482600000000002</v>
+      </c>
+      <c r="H134" t="n">
         <v>0.3488599999999999</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,18 +5607,27 @@
         <v>2821060.9242</v>
       </c>
       <c r="G135" t="n">
+        <v>0.3489733333333335</v>
+      </c>
+      <c r="H135" t="n">
         <v>0.3488766666666666</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,18 +5651,27 @@
         <v>2441.4346</v>
       </c>
       <c r="G136" t="n">
+        <v>0.3498066666666669</v>
+      </c>
+      <c r="H136" t="n">
         <v>0.3489999999999999</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,18 +5695,27 @@
         <v>1408.4508</v>
       </c>
       <c r="G137" t="n">
+        <v>0.3502800000000003</v>
+      </c>
+      <c r="H137" t="n">
         <v>0.3491183333333332</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,18 +5739,27 @@
         <v>1413.2279</v>
       </c>
       <c r="G138" t="n">
+        <v>0.3502200000000002</v>
+      </c>
+      <c r="H138" t="n">
         <v>0.3491783333333332</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,18 +5783,27 @@
         <v>107475.92067988</v>
       </c>
       <c r="G139" t="n">
+        <v>0.3506066666666668</v>
+      </c>
+      <c r="H139" t="n">
         <v>0.3492983333333332</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,18 +5827,27 @@
         <v>98558.5675</v>
       </c>
       <c r="G140" t="n">
+        <v>0.3510066666666668</v>
+      </c>
+      <c r="H140" t="n">
         <v>0.3493616666666666</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5329,18 +5871,27 @@
         <v>1578137.1074</v>
       </c>
       <c r="G141" t="n">
+        <v>0.3513866666666668</v>
+      </c>
+      <c r="H141" t="n">
         <v>0.3494216666666666</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5364,18 +5915,27 @@
         <v>228557.5672</v>
       </c>
       <c r="G142" t="n">
+        <v>0.3517866666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>0.3494833333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5399,18 +5959,27 @@
         <v>2561226.1347</v>
       </c>
       <c r="G143" t="n">
+        <v>0.3522000000000001</v>
+      </c>
+      <c r="H143" t="n">
         <v>0.349545</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,18 +6003,27 @@
         <v>1365664.445</v>
       </c>
       <c r="G144" t="n">
+        <v>0.3526066666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>0.3496066666666667</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5469,18 +6047,27 @@
         <v>1358806.4828</v>
       </c>
       <c r="G145" t="n">
+        <v>0.3527000000000001</v>
+      </c>
+      <c r="H145" t="n">
         <v>0.34967</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,18 +6091,27 @@
         <v>2039141.0225</v>
       </c>
       <c r="G146" t="n">
+        <v>0.35278</v>
+      </c>
+      <c r="H146" t="n">
         <v>0.3497016666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5539,18 +6135,27 @@
         <v>567871.8626</v>
       </c>
       <c r="G147" t="n">
+        <v>0.3526333333333334</v>
+      </c>
+      <c r="H147" t="n">
         <v>0.3497366666666668</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5574,18 +6179,27 @@
         <v>737881.3073</v>
       </c>
       <c r="G148" t="n">
+        <v>0.3524266666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>0.3497716666666668</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5609,18 +6223,27 @@
         <v>175000</v>
       </c>
       <c r="G149" t="n">
+        <v>0.3524266666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>0.3498500000000002</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,18 +6267,27 @@
         <v>6294.4285</v>
       </c>
       <c r="G150" t="n">
+        <v>0.3522666666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>0.3498883333333335</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5679,18 +6311,27 @@
         <v>660818.99</v>
       </c>
       <c r="G151" t="n">
+        <v>0.3522933333333334</v>
+      </c>
+      <c r="H151" t="n">
         <v>0.3499733333333335</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5714,18 +6355,27 @@
         <v>1106854.1922</v>
       </c>
       <c r="G152" t="n">
+        <v>0.3523</v>
+      </c>
+      <c r="H152" t="n">
         <v>0.3500983333333335</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5749,18 +6399,27 @@
         <v>288568.4517</v>
       </c>
       <c r="G153" t="n">
+        <v>0.3523133333333334</v>
+      </c>
+      <c r="H153" t="n">
         <v>0.3501816666666668</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5784,18 +6443,27 @@
         <v>155679.88</v>
       </c>
       <c r="G154" t="n">
+        <v>0.3523933333333334</v>
+      </c>
+      <c r="H154" t="n">
         <v>0.3502450000000001</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5819,18 +6487,27 @@
         <v>3140.0629</v>
       </c>
       <c r="G155" t="n">
+        <v>0.3522400000000001</v>
+      </c>
+      <c r="H155" t="n">
         <v>0.3502500000000001</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,18 +6531,27 @@
         <v>1426.1267</v>
       </c>
       <c r="G156" t="n">
+        <v>0.3520800000000001</v>
+      </c>
+      <c r="H156" t="n">
         <v>0.3502533333333335</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5889,18 +6575,27 @@
         <v>1421.6662</v>
       </c>
       <c r="G157" t="n">
+        <v>0.3519933333333334</v>
+      </c>
+      <c r="H157" t="n">
         <v>0.3502750000000001</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5924,18 +6619,27 @@
         <v>8825.6875</v>
       </c>
       <c r="G158" t="n">
+        <v>0.3520733333333334</v>
+      </c>
+      <c r="H158" t="n">
         <v>0.3503016666666668</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5959,18 +6663,27 @@
         <v>11630.7733</v>
       </c>
       <c r="G159" t="n">
+        <v>0.3521600000000001</v>
+      </c>
+      <c r="H159" t="n">
         <v>0.3503266666666668</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5994,18 +6707,27 @@
         <v>288568.4517</v>
       </c>
       <c r="G160" t="n">
+        <v>0.3524200000000002</v>
+      </c>
+      <c r="H160" t="n">
         <v>0.3503516666666668</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6029,18 +6751,467 @@
         <v>3833655.83440416</v>
       </c>
       <c r="G161" t="n">
+        <v>0.3527400000000002</v>
+      </c>
+      <c r="H161" t="n">
         <v>0.3504050000000001</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.3573</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.3573</v>
+      </c>
+      <c r="F162" t="n">
+        <v>8707975.193695839</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.3532133333333335</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.3505000000000001</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="F163" t="n">
+        <v>144757.4443</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.3536866666666669</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.3505433333333334</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="F164" t="n">
+        <v>296274.6274</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.3541400000000002</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.3506316666666667</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="F165" t="n">
+        <v>4.16e-06</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.3545933333333336</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.3506799999999999</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3406876.8481</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.3548333333333336</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.3507683333333332</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.3599</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.3599</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2834.1206</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.3549733333333336</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.3508433333333333</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.3562</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.3562</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.3562</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.3562</v>
+      </c>
+      <c r="F168" t="n">
+        <v>733356.9579</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.3551200000000003</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.3509649999999999</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="F169" t="n">
+        <v>30210.6508</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.3552466666666669</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.3510766666666666</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2100177.216</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.3556066666666669</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.3511833333333333</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="F171" t="n">
+        <v>320702.9999</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.3559733333333336</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.3511216666666667</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-14 BackTest BTT.xlsx
+++ b/BackTest/2020-01-14 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M200"/>
+  <dimension ref="A1:N158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3591</v>
+        <v>0.3601</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3591</v>
+        <v>0.3583</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3591</v>
+        <v>0.3601</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3591</v>
+        <v>0.3583</v>
       </c>
       <c r="F2" t="n">
-        <v>333274</v>
+        <v>12000</v>
       </c>
       <c r="G2" t="n">
-        <v>-39962128.2854</v>
+        <v>-35080951.5903</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3591</v>
+        <v>0.3583</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3591</v>
+        <v>0.3583</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3591</v>
+        <v>0.3583</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3591</v>
+        <v>0.3583</v>
       </c>
       <c r="F3" t="n">
-        <v>3429168.9857</v>
+        <v>6200</v>
       </c>
       <c r="G3" t="n">
-        <v>-39962128.2854</v>
+        <v>-35080951.5903</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3591</v>
+        <v>0.3597</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3591</v>
+        <v>0.3597</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3591</v>
+        <v>0.3597</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3591</v>
+        <v>0.3597</v>
       </c>
       <c r="F4" t="n">
-        <v>3424691.77</v>
+        <v>4387398.8939</v>
       </c>
       <c r="G4" t="n">
-        <v>-39962128.2854</v>
+        <v>-30693552.6964</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3591</v>
+        <v>0.362</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3596</v>
+        <v>0.362</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3596</v>
+        <v>0.362</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3591</v>
+        <v>0.362</v>
       </c>
       <c r="F5" t="n">
-        <v>752612</v>
+        <v>1412</v>
       </c>
       <c r="G5" t="n">
-        <v>-39209516.2854</v>
+        <v>-30692140.6964</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3596</v>
+        <v>0.3619</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3596</v>
+        <v>0.36</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3596</v>
+        <v>0.3656</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3596</v>
+        <v>0.36</v>
       </c>
       <c r="F6" t="n">
-        <v>1531061.5234</v>
+        <v>9061808.064622531</v>
       </c>
       <c r="G6" t="n">
-        <v>-39209516.2854</v>
+        <v>-39753948.76102253</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3596</v>
+        <v>0.3601</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3589</v>
+        <v>0.3601</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3596</v>
+        <v>0.3601</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3589</v>
+        <v>0.3601</v>
       </c>
       <c r="F7" t="n">
-        <v>591761.9362</v>
+        <v>1358806.4828</v>
       </c>
       <c r="G7" t="n">
-        <v>-39801278.2216</v>
+        <v>-38395142.27822253</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3596</v>
+        <v>0.3599</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3596</v>
+        <v>0.3599</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3596</v>
+        <v>0.3599</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3596</v>
+        <v>0.3599</v>
       </c>
       <c r="F8" t="n">
-        <v>113255</v>
+        <v>680366.564</v>
       </c>
       <c r="G8" t="n">
-        <v>-39688023.2216</v>
+        <v>-39075508.84222253</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3596</v>
+        <v>0.36</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3596</v>
+        <v>0.36</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3596</v>
+        <v>0.36</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3596</v>
+        <v>0.36</v>
       </c>
       <c r="F9" t="n">
-        <v>333666.9445</v>
+        <v>196363.012</v>
       </c>
       <c r="G9" t="n">
-        <v>-39688023.2216</v>
+        <v>-38879145.83022253</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3596</v>
+        <v>0.36</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3596</v>
+        <v>0.3599</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3596</v>
+        <v>0.36</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3596</v>
+        <v>0.3599</v>
       </c>
       <c r="F10" t="n">
-        <v>355441.703</v>
+        <v>2385566.4921</v>
       </c>
       <c r="G10" t="n">
-        <v>-39688023.2216</v>
+        <v>-41264712.32232253</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3589</v>
+        <v>0.3601</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3589</v>
+        <v>0.3601</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3589</v>
+        <v>0.3601</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3589</v>
+        <v>0.3601</v>
       </c>
       <c r="F11" t="n">
-        <v>940093.0645</v>
+        <v>216685.3583</v>
       </c>
       <c r="G11" t="n">
-        <v>-40628116.2861</v>
+        <v>-41048026.96402253</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3596</v>
+        <v>0.3591</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3596</v>
+        <v>0.3602</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3596</v>
+        <v>0.3602</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3596</v>
+        <v>0.3588</v>
       </c>
       <c r="F12" t="n">
-        <v>34393</v>
+        <v>1266504.2426</v>
       </c>
       <c r="G12" t="n">
-        <v>-40593723.2861</v>
+        <v>-39781522.72142253</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3596</v>
+        <v>0.3602</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3596</v>
+        <v>0.361</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3596</v>
+        <v>0.361</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3596</v>
+        <v>0.3602</v>
       </c>
       <c r="F13" t="n">
-        <v>462757.3793</v>
+        <v>984977.1268</v>
       </c>
       <c r="G13" t="n">
-        <v>-40593723.2861</v>
+        <v>-38796545.59462253</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3596</v>
+        <v>0.361</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3596</v>
+        <v>0.361</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3596</v>
+        <v>0.361</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3596</v>
+        <v>0.361</v>
       </c>
       <c r="F14" t="n">
-        <v>790121</v>
+        <v>89964.4111</v>
       </c>
       <c r="G14" t="n">
-        <v>-40593723.2861</v>
+        <v>-38796545.59462253</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3596</v>
+        <v>0.361</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3596</v>
+        <v>0.3606</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3596</v>
+        <v>0.361</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3596</v>
+        <v>0.3606</v>
       </c>
       <c r="F15" t="n">
-        <v>492693</v>
+        <v>6613124.1622</v>
       </c>
       <c r="G15" t="n">
-        <v>-40593723.2861</v>
+        <v>-45409669.75682253</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3575</v>
+        <v>0.3602</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3575</v>
+        <v>0.3602</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3575</v>
+        <v>0.3602</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3575</v>
+        <v>0.3602</v>
       </c>
       <c r="F16" t="n">
-        <v>2371890.5079</v>
+        <v>9362.257799999999</v>
       </c>
       <c r="G16" t="n">
-        <v>-42965613.794</v>
+        <v>-45419032.01462252</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.358</v>
+        <v>0.3604</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3575</v>
+        <v>0.3605</v>
       </c>
       <c r="D17" t="n">
-        <v>0.358</v>
+        <v>0.3605</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3575</v>
+        <v>0.3604</v>
       </c>
       <c r="F17" t="n">
-        <v>444540.2911</v>
+        <v>2136398.4312</v>
       </c>
       <c r="G17" t="n">
-        <v>-42965613.794</v>
+        <v>-43282633.58342253</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,153 +1007,137 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3575</v>
+        <v>0.3607</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3575</v>
+        <v>0.3607</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3575</v>
+        <v>0.3607</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3575</v>
+        <v>0.3607</v>
       </c>
       <c r="F18" t="n">
-        <v>278443.7735</v>
+        <v>8814.07</v>
       </c>
       <c r="G18" t="n">
-        <v>-42965613.794</v>
+        <v>-43273819.51342253</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.3575</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3575</v>
+        <v>0.3611</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3575</v>
+        <v>0.3611</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3575</v>
+        <v>0.3611</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3575</v>
+        <v>0.3611</v>
       </c>
       <c r="F19" t="n">
-        <v>483329.5607</v>
+        <v>27693.1598</v>
       </c>
       <c r="G19" t="n">
-        <v>-42965613.794</v>
+        <v>-43246126.35362253</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3596</v>
+        <v>0.3612</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3678</v>
+        <v>0.3612</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3678</v>
+        <v>0.3612</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3596</v>
+        <v>0.3612</v>
       </c>
       <c r="F20" t="n">
-        <v>9682430</v>
+        <v>27685.4929</v>
       </c>
       <c r="G20" t="n">
-        <v>-33283183.794</v>
+        <v>-43218440.86072253</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3681</v>
+        <v>0.3605</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3685</v>
+        <v>0.3605</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3685</v>
+        <v>0.3605</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3681</v>
+        <v>0.3605</v>
       </c>
       <c r="F21" t="n">
-        <v>4894892.4026</v>
+        <v>31437.7307</v>
       </c>
       <c r="G21" t="n">
-        <v>-28388291.3914</v>
+        <v>-43249878.59142253</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1147,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3685</v>
+        <v>0.3601</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3685</v>
+        <v>0.3601</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3685</v>
+        <v>0.3601</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3685</v>
+        <v>0.3601</v>
       </c>
       <c r="F22" t="n">
-        <v>829510.1865</v>
+        <v>37640.155</v>
       </c>
       <c r="G22" t="n">
-        <v>-28388291.3914</v>
+        <v>-43287518.74642253</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3685</v>
+        <v>0.36</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3685</v>
+        <v>0.36</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3685</v>
+        <v>0.36</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3685</v>
+        <v>0.36</v>
       </c>
       <c r="F23" t="n">
-        <v>4100</v>
+        <v>38078.6478</v>
       </c>
       <c r="G23" t="n">
-        <v>-28388291.3914</v>
+        <v>-43325597.39422253</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1217,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3685</v>
+        <v>0.36</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3685</v>
+        <v>0.36</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3685</v>
+        <v>0.36</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3685</v>
+        <v>0.36</v>
       </c>
       <c r="F24" t="n">
-        <v>701172.8983999999</v>
+        <v>145000</v>
       </c>
       <c r="G24" t="n">
-        <v>-28388291.3914</v>
+        <v>-43325597.39422253</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1252,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3664</v>
+        <v>0.3605</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3664</v>
+        <v>0.3605</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3664</v>
+        <v>0.3605</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3664</v>
+        <v>0.3605</v>
       </c>
       <c r="F25" t="n">
-        <v>1390</v>
+        <v>276699.02912621</v>
       </c>
       <c r="G25" t="n">
-        <v>-28389681.3914</v>
+        <v>-43048898.36509632</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1287,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3641</v>
+        <v>0.359</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3641</v>
+        <v>0.359</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3641</v>
+        <v>0.359</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3641</v>
+        <v>0.359</v>
       </c>
       <c r="F26" t="n">
-        <v>2710</v>
+        <v>1500</v>
       </c>
       <c r="G26" t="n">
-        <v>-28392391.3914</v>
+        <v>-43050398.36509632</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1322,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.369</v>
+        <v>0.358</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3621</v>
+        <v>0.358</v>
       </c>
       <c r="D27" t="n">
-        <v>0.369</v>
+        <v>0.358</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3621</v>
+        <v>0.358</v>
       </c>
       <c r="F27" t="n">
-        <v>5723</v>
+        <v>800921.6226999999</v>
       </c>
       <c r="G27" t="n">
-        <v>-28398114.3914</v>
+        <v>-43851319.98779631</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1357,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3626</v>
+        <v>0.358</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3626</v>
+        <v>0.358</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3626</v>
+        <v>0.358</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3626</v>
+        <v>0.358</v>
       </c>
       <c r="F28" t="n">
-        <v>3961853.9758</v>
+        <v>6501810.5049</v>
       </c>
       <c r="G28" t="n">
-        <v>-24436260.4156</v>
+        <v>-43851319.98779631</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1392,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3626</v>
+        <v>0.358</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3626</v>
+        <v>0.358</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3626</v>
+        <v>0.358</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3626</v>
+        <v>0.358</v>
       </c>
       <c r="F29" t="n">
-        <v>6888</v>
+        <v>1408245.6592</v>
       </c>
       <c r="G29" t="n">
-        <v>-24436260.4156</v>
+        <v>-43851319.98779631</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1427,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3626</v>
+        <v>0.358</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3626</v>
+        <v>0.3578</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3626</v>
+        <v>0.358</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3626</v>
+        <v>0.3578</v>
       </c>
       <c r="F30" t="n">
-        <v>12898.1346</v>
+        <v>1030084.8866</v>
       </c>
       <c r="G30" t="n">
-        <v>-24436260.4156</v>
+        <v>-44881404.87439632</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1462,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3625</v>
+        <v>0.3578</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3625</v>
+        <v>0.3578</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3625</v>
+        <v>0.3578</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3625</v>
+        <v>0.3578</v>
       </c>
       <c r="F31" t="n">
-        <v>1471.5</v>
+        <v>790289.4398000001</v>
       </c>
       <c r="G31" t="n">
-        <v>-24437731.9156</v>
+        <v>-44881404.87439632</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1497,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3688</v>
+        <v>0.3578</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3688</v>
+        <v>0.3578</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3688</v>
+        <v>0.3578</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3688</v>
+        <v>0.3578</v>
       </c>
       <c r="F32" t="n">
-        <v>413782.4094</v>
+        <v>2467891.1525</v>
       </c>
       <c r="G32" t="n">
-        <v>-24023949.5062</v>
+        <v>-44881404.87439632</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1532,1148 +1547,1373 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3688</v>
+        <v>0.3576</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3688</v>
+        <v>0.3572</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3688</v>
+        <v>0.3576</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3688</v>
+        <v>0.3572</v>
       </c>
       <c r="F33" t="n">
-        <v>40000</v>
+        <v>127195.1428</v>
       </c>
       <c r="G33" t="n">
-        <v>-24023949.5062</v>
+        <v>-45008600.01719632</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3578</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.362</v>
+        <v>0.3565</v>
       </c>
       <c r="C34" t="n">
-        <v>0.362</v>
+        <v>0.3565</v>
       </c>
       <c r="D34" t="n">
-        <v>0.362</v>
+        <v>0.3565</v>
       </c>
       <c r="E34" t="n">
-        <v>0.362</v>
+        <v>0.3565</v>
       </c>
       <c r="F34" t="n">
-        <v>1027558.2038</v>
+        <v>1500</v>
       </c>
       <c r="G34" t="n">
-        <v>-25051507.71</v>
+        <v>-45010100.01719632</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.3572</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.362</v>
+        <v>0.3554</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3608</v>
+        <v>0.3546</v>
       </c>
       <c r="D35" t="n">
-        <v>0.362</v>
+        <v>0.3554</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3608</v>
+        <v>0.3546</v>
       </c>
       <c r="F35" t="n">
-        <v>1812154.0465</v>
+        <v>1653812.7615</v>
       </c>
       <c r="G35" t="n">
-        <v>-26863661.7565</v>
+        <v>-46663912.77869632</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0.3565</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3601</v>
+        <v>0.3555</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3601</v>
+        <v>0.3547</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3601</v>
+        <v>0.3555</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3601</v>
+        <v>0.3502</v>
       </c>
       <c r="F36" t="n">
-        <v>829510.1865</v>
+        <v>623761286.62</v>
       </c>
       <c r="G36" t="n">
-        <v>-27693171.943</v>
+        <v>577097373.8413037</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0.3546</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3603</v>
+        <v>0.35</v>
       </c>
       <c r="C37" t="n">
-        <v>0.36</v>
+        <v>0.3498</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3603</v>
+        <v>0.35</v>
       </c>
       <c r="E37" t="n">
-        <v>0.36</v>
+        <v>0.3498</v>
       </c>
       <c r="F37" t="n">
-        <v>4243057.7797</v>
+        <v>5485227.2606</v>
       </c>
       <c r="G37" t="n">
-        <v>-31936229.7227</v>
+        <v>571612146.5807037</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0.3547</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.36</v>
+        <v>0.3498</v>
       </c>
       <c r="C38" t="n">
-        <v>0.36</v>
+        <v>0.3456</v>
       </c>
       <c r="D38" t="n">
-        <v>0.36</v>
+        <v>0.3498</v>
       </c>
       <c r="E38" t="n">
-        <v>0.36</v>
+        <v>0.3456</v>
       </c>
       <c r="F38" t="n">
-        <v>95403.77899999999</v>
+        <v>1834763.9094</v>
       </c>
       <c r="G38" t="n">
-        <v>-31936229.7227</v>
+        <v>569777382.6713037</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0.3498</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.36</v>
+        <v>0.3482</v>
       </c>
       <c r="C39" t="n">
-        <v>0.36</v>
+        <v>0.3482</v>
       </c>
       <c r="D39" t="n">
-        <v>0.36</v>
+        <v>0.3482</v>
       </c>
       <c r="E39" t="n">
-        <v>0.36</v>
+        <v>0.3482</v>
       </c>
       <c r="F39" t="n">
-        <v>192346.3875</v>
+        <v>678958</v>
       </c>
       <c r="G39" t="n">
-        <v>-31936229.7227</v>
+        <v>570456340.6713037</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0.3456</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.36</v>
+        <v>0.3481</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3583</v>
+        <v>0.3554</v>
       </c>
       <c r="D40" t="n">
-        <v>0.36</v>
+        <v>0.3555</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3583</v>
+        <v>0.3469</v>
       </c>
       <c r="F40" t="n">
-        <v>667868.8117</v>
+        <v>5074216</v>
       </c>
       <c r="G40" t="n">
-        <v>-32604098.5344</v>
+        <v>575530556.6713037</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0.3482</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.361</v>
+        <v>0.35</v>
       </c>
       <c r="C41" t="n">
-        <v>0.361</v>
+        <v>0.3495</v>
       </c>
       <c r="D41" t="n">
-        <v>0.361</v>
+        <v>0.35</v>
       </c>
       <c r="E41" t="n">
-        <v>0.361</v>
+        <v>0.3495</v>
       </c>
       <c r="F41" t="n">
-        <v>138504.1552</v>
+        <v>2378062.2217</v>
       </c>
       <c r="G41" t="n">
-        <v>-32465594.3792</v>
+        <v>573152494.4496038</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0.3554</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.3587</v>
+        <v>0.3495</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3587</v>
+        <v>0.3495</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3587</v>
+        <v>0.3495</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3587</v>
+        <v>0.3495</v>
       </c>
       <c r="F42" t="n">
-        <v>1471.5</v>
+        <v>373345.14</v>
       </c>
       <c r="G42" t="n">
-        <v>-32467065.8792</v>
+        <v>573152494.4496038</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.3495</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3584</v>
+        <v>0.35</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3584</v>
+        <v>0.35</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3584</v>
+        <v>0.35</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3584</v>
+        <v>0.35</v>
       </c>
       <c r="F43" t="n">
-        <v>2601885.7111</v>
+        <v>11153.0887</v>
       </c>
       <c r="G43" t="n">
-        <v>-35068951.5903</v>
+        <v>573163647.5383039</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.3495</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3601</v>
+        <v>0.3495</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3583</v>
+        <v>0.3495</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3601</v>
+        <v>0.3495</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3583</v>
+        <v>0.3495</v>
       </c>
       <c r="F44" t="n">
-        <v>12000</v>
+        <v>2015198.9998</v>
       </c>
       <c r="G44" t="n">
-        <v>-35080951.5903</v>
+        <v>571148448.5385039</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0.35</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3583</v>
+        <v>0.3495</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3583</v>
+        <v>0.3495</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3583</v>
+        <v>0.3495</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3583</v>
+        <v>0.3495</v>
       </c>
       <c r="F45" t="n">
-        <v>6200</v>
+        <v>1560497.9998</v>
       </c>
       <c r="G45" t="n">
-        <v>-35080951.5903</v>
+        <v>571148448.5385039</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0.3495</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.3597</v>
+        <v>0.35</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3597</v>
+        <v>0.35</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3597</v>
+        <v>0.35</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3597</v>
+        <v>0.35</v>
       </c>
       <c r="F46" t="n">
-        <v>4387398.8939</v>
+        <v>3733992.3523</v>
       </c>
       <c r="G46" t="n">
-        <v>-30693552.6964</v>
+        <v>574882440.8908039</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0.3495</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.362</v>
+        <v>0.35</v>
       </c>
       <c r="C47" t="n">
-        <v>0.362</v>
+        <v>0.35</v>
       </c>
       <c r="D47" t="n">
-        <v>0.362</v>
+        <v>0.35</v>
       </c>
       <c r="E47" t="n">
-        <v>0.362</v>
+        <v>0.35</v>
       </c>
       <c r="F47" t="n">
-        <v>1412</v>
+        <v>1496991.6026</v>
       </c>
       <c r="G47" t="n">
-        <v>-30692140.6964</v>
+        <v>574882440.8908039</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0.35</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.3619</v>
+        <v>0.35</v>
       </c>
       <c r="C48" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3656</v>
+        <v>0.35</v>
       </c>
       <c r="E48" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="F48" t="n">
-        <v>9061808.064622531</v>
+        <v>4813900.3132</v>
       </c>
       <c r="G48" t="n">
-        <v>-39753948.76102253</v>
+        <v>574882440.8908039</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0.35</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3601</v>
+        <v>0.3473</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3601</v>
+        <v>0.3473</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3601</v>
+        <v>0.3473</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3601</v>
+        <v>0.3473</v>
       </c>
       <c r="F49" t="n">
-        <v>1358806.4828</v>
+        <v>1627123.1507</v>
       </c>
       <c r="G49" t="n">
-        <v>-38395142.27822253</v>
+        <v>573255317.740104</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0.35</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3599</v>
+        <v>0.3476</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3599</v>
+        <v>0.3476</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3599</v>
+        <v>0.3476</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3599</v>
+        <v>0.3476</v>
       </c>
       <c r="F50" t="n">
-        <v>680366.564</v>
+        <v>28450529.3809</v>
       </c>
       <c r="G50" t="n">
-        <v>-39075508.84222253</v>
+        <v>601705847.121004</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0.3473</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.36</v>
+        <v>0.3476</v>
       </c>
       <c r="C51" t="n">
-        <v>0.36</v>
+        <v>0.3476</v>
       </c>
       <c r="D51" t="n">
-        <v>0.36</v>
+        <v>0.3476</v>
       </c>
       <c r="E51" t="n">
-        <v>0.36</v>
+        <v>0.3476</v>
       </c>
       <c r="F51" t="n">
-        <v>196363.012</v>
+        <v>1036664.7042</v>
       </c>
       <c r="G51" t="n">
-        <v>-38879145.83022253</v>
+        <v>601705847.121004</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0.3476</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.36</v>
+        <v>0.3476</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3599</v>
+        <v>0.3476</v>
       </c>
       <c r="D52" t="n">
-        <v>0.36</v>
+        <v>0.3476</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3599</v>
+        <v>0.3476</v>
       </c>
       <c r="F52" t="n">
-        <v>2385566.4921</v>
+        <v>3000000</v>
       </c>
       <c r="G52" t="n">
-        <v>-41264712.32232253</v>
+        <v>601705847.121004</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0.3476</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3601</v>
+        <v>0.347</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3601</v>
+        <v>0.347</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3601</v>
+        <v>0.3476</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3601</v>
+        <v>0.347</v>
       </c>
       <c r="F53" t="n">
-        <v>216685.3583</v>
+        <v>1420265.24</v>
       </c>
       <c r="G53" t="n">
-        <v>-41048026.96402253</v>
+        <v>600285581.881004</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0.3476</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.3591</v>
+        <v>0.347</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3602</v>
+        <v>0.347</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3602</v>
+        <v>0.347</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3588</v>
+        <v>0.3469</v>
       </c>
       <c r="F54" t="n">
-        <v>1266504.2426</v>
+        <v>5942382.9225</v>
       </c>
       <c r="G54" t="n">
-        <v>-39781522.72142253</v>
+        <v>600285581.881004</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0.347</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3602</v>
+        <v>0.347</v>
       </c>
       <c r="C55" t="n">
-        <v>0.361</v>
+        <v>0.347</v>
       </c>
       <c r="D55" t="n">
-        <v>0.361</v>
+        <v>0.347</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3602</v>
+        <v>0.3464</v>
       </c>
       <c r="F55" t="n">
-        <v>984977.1268</v>
+        <v>4121088.1097</v>
       </c>
       <c r="G55" t="n">
-        <v>-38796545.59462253</v>
+        <v>600285581.881004</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0.347</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.361</v>
+        <v>0.347</v>
       </c>
       <c r="C56" t="n">
-        <v>0.361</v>
+        <v>0.347</v>
       </c>
       <c r="D56" t="n">
-        <v>0.361</v>
+        <v>0.347</v>
       </c>
       <c r="E56" t="n">
-        <v>0.361</v>
+        <v>0.347</v>
       </c>
       <c r="F56" t="n">
-        <v>89964.4111</v>
+        <v>6361380.8397</v>
       </c>
       <c r="G56" t="n">
-        <v>-38796545.59462253</v>
+        <v>600285581.881004</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0.347</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.361</v>
+        <v>0.347</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3606</v>
+        <v>0.347</v>
       </c>
       <c r="D57" t="n">
-        <v>0.361</v>
+        <v>0.347</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3606</v>
+        <v>0.347</v>
       </c>
       <c r="F57" t="n">
-        <v>6613124.1622</v>
+        <v>8939812.758199999</v>
       </c>
       <c r="G57" t="n">
-        <v>-45409669.75682253</v>
+        <v>600285581.881004</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0.347</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3602</v>
+        <v>0.347</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3602</v>
+        <v>0.347</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3602</v>
+        <v>0.347</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3602</v>
+        <v>0.347</v>
       </c>
       <c r="F58" t="n">
-        <v>9362.257799999999</v>
+        <v>3106193</v>
       </c>
       <c r="G58" t="n">
-        <v>-45419032.01462252</v>
+        <v>600285581.881004</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0.347</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.3604</v>
+        <v>0.347</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3605</v>
+        <v>0.3514</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3605</v>
+        <v>0.3514</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3604</v>
+        <v>0.347</v>
       </c>
       <c r="F59" t="n">
-        <v>2136398.4312</v>
+        <v>747979.67898229</v>
       </c>
       <c r="G59" t="n">
-        <v>-43282633.58342253</v>
+        <v>601033561.5599862</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0.347</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.3607</v>
+        <v>0.347</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3607</v>
+        <v>0.347</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3607</v>
+        <v>0.347</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3607</v>
+        <v>0.347</v>
       </c>
       <c r="F60" t="n">
-        <v>8814.07</v>
+        <v>230211.9753</v>
       </c>
       <c r="G60" t="n">
-        <v>-43273819.51342253</v>
+        <v>600803349.5846863</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0.3514</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3611</v>
+        <v>0.347</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3611</v>
+        <v>0.347</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3611</v>
+        <v>0.347</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3611</v>
+        <v>0.347</v>
       </c>
       <c r="F61" t="n">
-        <v>27693.1598</v>
+        <v>1124389.6449</v>
       </c>
       <c r="G61" t="n">
-        <v>-43246126.35362253</v>
+        <v>600803349.5846863</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0.347</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.3612</v>
+        <v>0.347</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3612</v>
+        <v>0.352</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3612</v>
+        <v>0.3521</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3612</v>
+        <v>0.347</v>
       </c>
       <c r="F62" t="n">
-        <v>27685.4929</v>
+        <v>4892010.6526</v>
       </c>
       <c r="G62" t="n">
-        <v>-43218440.86072253</v>
+        <v>605695360.2372863</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0.347</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3605</v>
+        <v>0.3503</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3605</v>
+        <v>0.346</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3605</v>
+        <v>0.3504</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3605</v>
+        <v>0.346</v>
       </c>
       <c r="F63" t="n">
-        <v>31437.7307</v>
+        <v>1854960.4944</v>
       </c>
       <c r="G63" t="n">
-        <v>-43249878.59142253</v>
+        <v>603840399.7428863</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0.352</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.3601</v>
+        <v>0.3494</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3601</v>
+        <v>0.3468</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3601</v>
+        <v>0.3494</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3601</v>
+        <v>0.3468</v>
       </c>
       <c r="F64" t="n">
-        <v>37640.155</v>
+        <v>15042055.3768</v>
       </c>
       <c r="G64" t="n">
-        <v>-43287518.74642253</v>
+        <v>618882455.1196864</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0.346</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.36</v>
+        <v>0.3501</v>
       </c>
       <c r="C65" t="n">
-        <v>0.36</v>
+        <v>0.3502</v>
       </c>
       <c r="D65" t="n">
-        <v>0.36</v>
+        <v>0.3502</v>
       </c>
       <c r="E65" t="n">
-        <v>0.36</v>
+        <v>0.3501</v>
       </c>
       <c r="F65" t="n">
-        <v>38078.6478</v>
+        <v>1884726.1494</v>
       </c>
       <c r="G65" t="n">
-        <v>-43325597.39422253</v>
+        <v>620767181.2690864</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2683,32 +2923,37 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.36</v>
+        <v>0.3504</v>
       </c>
       <c r="C66" t="n">
-        <v>0.36</v>
+        <v>0.3458</v>
       </c>
       <c r="D66" t="n">
-        <v>0.36</v>
+        <v>0.3504</v>
       </c>
       <c r="E66" t="n">
-        <v>0.36</v>
+        <v>0.3458</v>
       </c>
       <c r="F66" t="n">
-        <v>145000</v>
+        <v>2910.959</v>
       </c>
       <c r="G66" t="n">
-        <v>-43325597.39422253</v>
+        <v>620764270.3100864</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2718,32 +2963,37 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3605</v>
+        <v>0.349</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3605</v>
+        <v>0.3492</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3605</v>
+        <v>0.3492</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3605</v>
+        <v>0.349</v>
       </c>
       <c r="F67" t="n">
-        <v>276699.02912621</v>
+        <v>276875.6725</v>
       </c>
       <c r="G67" t="n">
-        <v>-43048898.36509632</v>
+        <v>621041145.9825864</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2753,32 +3003,37 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.359</v>
+        <v>0.3494</v>
       </c>
       <c r="C68" t="n">
-        <v>0.359</v>
+        <v>0.3494</v>
       </c>
       <c r="D68" t="n">
-        <v>0.359</v>
+        <v>0.3494</v>
       </c>
       <c r="E68" t="n">
-        <v>0.359</v>
+        <v>0.3494</v>
       </c>
       <c r="F68" t="n">
-        <v>1500</v>
+        <v>154196.9575</v>
       </c>
       <c r="G68" t="n">
-        <v>-43050398.36509632</v>
+        <v>621195342.9400864</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2788,32 +3043,37 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.358</v>
+        <v>0.3493</v>
       </c>
       <c r="C69" t="n">
-        <v>0.358</v>
+        <v>0.3493</v>
       </c>
       <c r="D69" t="n">
-        <v>0.358</v>
+        <v>0.3493</v>
       </c>
       <c r="E69" t="n">
-        <v>0.358</v>
+        <v>0.3493</v>
       </c>
       <c r="F69" t="n">
-        <v>800921.6226999999</v>
+        <v>177885.1468</v>
       </c>
       <c r="G69" t="n">
-        <v>-43851319.98779631</v>
+        <v>621017457.7932863</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2823,32 +3083,37 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.358</v>
+        <v>0.3493</v>
       </c>
       <c r="C70" t="n">
-        <v>0.358</v>
+        <v>0.3493</v>
       </c>
       <c r="D70" t="n">
-        <v>0.358</v>
+        <v>0.3493</v>
       </c>
       <c r="E70" t="n">
-        <v>0.358</v>
+        <v>0.3493</v>
       </c>
       <c r="F70" t="n">
-        <v>6501810.5049</v>
+        <v>443011.3736</v>
       </c>
       <c r="G70" t="n">
-        <v>-43851319.98779631</v>
+        <v>621017457.7932863</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2858,32 +3123,37 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.358</v>
+        <v>0.3493</v>
       </c>
       <c r="C71" t="n">
-        <v>0.358</v>
+        <v>0.3493</v>
       </c>
       <c r="D71" t="n">
-        <v>0.358</v>
+        <v>0.3493</v>
       </c>
       <c r="E71" t="n">
-        <v>0.358</v>
+        <v>0.3493</v>
       </c>
       <c r="F71" t="n">
-        <v>1408245.6592</v>
+        <v>664519.9197</v>
       </c>
       <c r="G71" t="n">
-        <v>-43851319.98779631</v>
+        <v>621017457.7932863</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2893,32 +3163,37 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.358</v>
+        <v>0.3466</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3578</v>
+        <v>0.3466</v>
       </c>
       <c r="D72" t="n">
-        <v>0.358</v>
+        <v>0.3466</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3578</v>
+        <v>0.3466</v>
       </c>
       <c r="F72" t="n">
-        <v>1030084.8866</v>
+        <v>25083.0131</v>
       </c>
       <c r="G72" t="n">
-        <v>-44881404.87439632</v>
+        <v>620992374.7801863</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2928,32 +3203,37 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3578</v>
+        <v>0.3486</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3578</v>
+        <v>0.3484</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3578</v>
+        <v>0.3486</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3578</v>
+        <v>0.3484</v>
       </c>
       <c r="F73" t="n">
-        <v>790289.4398000001</v>
+        <v>291380.4161</v>
       </c>
       <c r="G73" t="n">
-        <v>-44881404.87439632</v>
+        <v>621283755.1962863</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2963,32 +3243,37 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3578</v>
+        <v>0.3482</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3578</v>
+        <v>0.3482</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3578</v>
+        <v>0.3482</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3578</v>
+        <v>0.3482</v>
       </c>
       <c r="F74" t="n">
-        <v>2467891.1525</v>
+        <v>93742.52469999999</v>
       </c>
       <c r="G74" t="n">
-        <v>-44881404.87439632</v>
+        <v>621190012.6715863</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2998,32 +3283,37 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3576</v>
+        <v>0.3482</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3572</v>
+        <v>0.3482</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3576</v>
+        <v>0.3482</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3572</v>
+        <v>0.3482</v>
       </c>
       <c r="F75" t="n">
-        <v>127195.1428</v>
+        <v>1474955.9329</v>
       </c>
       <c r="G75" t="n">
-        <v>-45008600.01719632</v>
+        <v>621190012.6715863</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3033,32 +3323,37 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.3565</v>
+        <v>0.3483</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3565</v>
+        <v>0.3483</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3565</v>
+        <v>0.3483</v>
       </c>
       <c r="E76" t="n">
-        <v>0.3565</v>
+        <v>0.3483</v>
       </c>
       <c r="F76" t="n">
-        <v>1500</v>
+        <v>552948.9510999999</v>
       </c>
       <c r="G76" t="n">
-        <v>-45010100.01719632</v>
+        <v>621742961.6226863</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3068,32 +3363,37 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3554</v>
+        <v>0.3483</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3546</v>
+        <v>0.3483</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3554</v>
+        <v>0.3483</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3546</v>
+        <v>0.3483</v>
       </c>
       <c r="F77" t="n">
-        <v>1653812.7615</v>
+        <v>276474.4755</v>
       </c>
       <c r="G77" t="n">
-        <v>-46663912.77869632</v>
+        <v>621742961.6226863</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3103,32 +3403,37 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.3555</v>
+        <v>0.3487</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3547</v>
+        <v>0.3487</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3555</v>
+        <v>0.3487</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3502</v>
+        <v>0.3487</v>
       </c>
       <c r="F78" t="n">
-        <v>623761286.62</v>
+        <v>276160.216</v>
       </c>
       <c r="G78" t="n">
-        <v>577097373.8413037</v>
+        <v>622019121.8386862</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3138,32 +3443,37 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.35</v>
+        <v>0.3465</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3498</v>
+        <v>0.3465</v>
       </c>
       <c r="D79" t="n">
-        <v>0.35</v>
+        <v>0.3465</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3498</v>
+        <v>0.3465</v>
       </c>
       <c r="F79" t="n">
-        <v>5485227.2606</v>
+        <v>408573.8428</v>
       </c>
       <c r="G79" t="n">
-        <v>571612146.5807037</v>
+        <v>621610547.9958862</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3173,32 +3483,37 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.3498</v>
+        <v>0.349</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3456</v>
+        <v>0.349</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3498</v>
+        <v>0.349</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3456</v>
+        <v>0.349</v>
       </c>
       <c r="F80" t="n">
-        <v>1834763.9094</v>
+        <v>11982.3364</v>
       </c>
       <c r="G80" t="n">
-        <v>569777382.6713037</v>
+        <v>621622530.3322862</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3208,114 +3523,117 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3482</v>
+        <v>0.3504</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3482</v>
+        <v>0.3504</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3482</v>
+        <v>0.3504</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3482</v>
+        <v>0.3504</v>
       </c>
       <c r="F81" t="n">
-        <v>678958</v>
+        <v>1416514.446</v>
       </c>
       <c r="G81" t="n">
-        <v>570456340.6713037</v>
+        <v>623039044.7782862</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.3456</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.3456</v>
-      </c>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3481</v>
+        <v>0.3504</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3554</v>
+        <v>0.3504</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3555</v>
+        <v>0.3504</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3469</v>
+        <v>0.3504</v>
       </c>
       <c r="F82" t="n">
-        <v>5074216</v>
+        <v>1328177.1028</v>
       </c>
       <c r="G82" t="n">
-        <v>575530556.6713037</v>
+        <v>623039044.7782862</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.3482</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.3456</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.35</v>
+        <v>0.3504</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3495</v>
+        <v>0.3504</v>
       </c>
       <c r="D83" t="n">
-        <v>0.35</v>
+        <v>0.3504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3495</v>
+        <v>0.3504</v>
       </c>
       <c r="F83" t="n">
-        <v>2378062.2217</v>
+        <v>1439359.0011</v>
       </c>
       <c r="G83" t="n">
-        <v>573152494.4496038</v>
+        <v>623039044.7782862</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3324,39 +3642,38 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>0.3456</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3495</v>
+        <v>0.3504</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3495</v>
+        <v>0.3504</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3495</v>
+        <v>0.3504</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3495</v>
+        <v>0.3504</v>
       </c>
       <c r="F84" t="n">
-        <v>373345.14</v>
+        <v>0.0001</v>
       </c>
       <c r="G84" t="n">
-        <v>573152494.4496038</v>
+        <v>623039044.7782862</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3366,32 +3683,37 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.35</v>
+        <v>0.3526</v>
       </c>
       <c r="C85" t="n">
-        <v>0.35</v>
+        <v>0.3526</v>
       </c>
       <c r="D85" t="n">
-        <v>0.35</v>
+        <v>0.3526</v>
       </c>
       <c r="E85" t="n">
-        <v>0.35</v>
+        <v>0.3526</v>
       </c>
       <c r="F85" t="n">
-        <v>11153.0887</v>
+        <v>28360.74872376</v>
       </c>
       <c r="G85" t="n">
-        <v>573163647.5383039</v>
+        <v>623067405.52701</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3401,32 +3723,37 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.3495</v>
+        <v>0.3528</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3495</v>
+        <v>0.3528</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3495</v>
+        <v>0.3528</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3495</v>
+        <v>0.3528</v>
       </c>
       <c r="F86" t="n">
-        <v>2015198.9998</v>
+        <v>234109.9066</v>
       </c>
       <c r="G86" t="n">
-        <v>571148448.5385039</v>
+        <v>623301515.43361</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3436,32 +3763,37 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.3495</v>
+        <v>0.3528</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3495</v>
+        <v>0.3528</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3495</v>
+        <v>0.3528</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3495</v>
+        <v>0.3528</v>
       </c>
       <c r="F87" t="n">
-        <v>1560497.9998</v>
+        <v>262167.8877</v>
       </c>
       <c r="G87" t="n">
-        <v>571148448.5385039</v>
+        <v>623301515.43361</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3471,364 +3803,327 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.35</v>
+        <v>0.3517</v>
       </c>
       <c r="C88" t="n">
-        <v>0.35</v>
+        <v>0.3519</v>
       </c>
       <c r="D88" t="n">
-        <v>0.35</v>
+        <v>0.3519</v>
       </c>
       <c r="E88" t="n">
-        <v>0.35</v>
+        <v>0.3517</v>
       </c>
       <c r="F88" t="n">
-        <v>3733992.3523</v>
+        <v>2387107</v>
       </c>
       <c r="G88" t="n">
-        <v>574882440.8908039</v>
+        <v>620914408.43361</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.3495</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.3495</v>
-      </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.35</v>
+        <v>0.3517</v>
       </c>
       <c r="C89" t="n">
-        <v>0.35</v>
+        <v>0.3517</v>
       </c>
       <c r="D89" t="n">
-        <v>0.35</v>
+        <v>0.3517</v>
       </c>
       <c r="E89" t="n">
-        <v>0.35</v>
+        <v>0.3517</v>
       </c>
       <c r="F89" t="n">
-        <v>1496991.6026</v>
+        <v>5451.1717</v>
       </c>
       <c r="G89" t="n">
-        <v>574882440.8908039</v>
+        <v>620908957.26191</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.3495</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.35</v>
+        <v>0.3495</v>
       </c>
       <c r="C90" t="n">
-        <v>0.35</v>
+        <v>0.3548</v>
       </c>
       <c r="D90" t="n">
-        <v>0.35</v>
+        <v>0.3548</v>
       </c>
       <c r="E90" t="n">
-        <v>0.35</v>
+        <v>0.3495</v>
       </c>
       <c r="F90" t="n">
-        <v>4813900.3132</v>
+        <v>394809.1163</v>
       </c>
       <c r="G90" t="n">
-        <v>574882440.8908039</v>
+        <v>621303766.3782099</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.3495</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.3473</v>
+        <v>0.3546</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3473</v>
+        <v>0.3545</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3473</v>
+        <v>0.3546</v>
       </c>
       <c r="E91" t="n">
-        <v>0.3473</v>
+        <v>0.3545</v>
       </c>
       <c r="F91" t="n">
-        <v>1627123.1507</v>
+        <v>1207673.3758</v>
       </c>
       <c r="G91" t="n">
-        <v>573255317.740104</v>
+        <v>620096093.0024099</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.35</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.3476</v>
+        <v>0.3545</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3476</v>
+        <v>0.3545</v>
       </c>
       <c r="D92" t="n">
-        <v>0.3476</v>
+        <v>0.3545</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3476</v>
+        <v>0.3545</v>
       </c>
       <c r="F92" t="n">
-        <v>28450529.3809</v>
+        <v>303033.9755</v>
       </c>
       <c r="G92" t="n">
-        <v>601705847.121004</v>
+        <v>620096093.0024099</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.3473</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3476</v>
+        <v>0.3521</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3476</v>
+        <v>0.3521</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3476</v>
+        <v>0.3521</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3476</v>
+        <v>0.3521</v>
       </c>
       <c r="F93" t="n">
-        <v>1036664.7042</v>
+        <v>1154904.1414</v>
       </c>
       <c r="G93" t="n">
-        <v>601705847.121004</v>
+        <v>618941188.86101</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3476</v>
+        <v>0.3516</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3476</v>
+        <v>0.3516</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3476</v>
+        <v>0.3516</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3476</v>
+        <v>0.3516</v>
       </c>
       <c r="F94" t="n">
-        <v>3000000</v>
+        <v>19500</v>
       </c>
       <c r="G94" t="n">
-        <v>601705847.121004</v>
+        <v>618921688.86101</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.3476</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.347</v>
+        <v>0.3494</v>
       </c>
       <c r="C95" t="n">
-        <v>0.347</v>
+        <v>0.3489</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3476</v>
+        <v>0.3494</v>
       </c>
       <c r="E95" t="n">
-        <v>0.347</v>
+        <v>0.3489</v>
       </c>
       <c r="F95" t="n">
-        <v>1420265.24</v>
+        <v>2695125.6303</v>
       </c>
       <c r="G95" t="n">
-        <v>600285581.881004</v>
+        <v>616226563.2307099</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.347</v>
+        <v>0.3494</v>
       </c>
       <c r="C96" t="n">
-        <v>0.347</v>
+        <v>0.3494</v>
       </c>
       <c r="D96" t="n">
-        <v>0.347</v>
+        <v>0.3494</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3469</v>
+        <v>0.3494</v>
       </c>
       <c r="F96" t="n">
-        <v>5942382.9225</v>
+        <v>242516.6264</v>
       </c>
       <c r="G96" t="n">
-        <v>600285581.881004</v>
+        <v>616469079.8571099</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3837,39 +4132,34 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.347</v>
+        <v>0.3497</v>
       </c>
       <c r="C97" t="n">
-        <v>0.347</v>
+        <v>0.3497</v>
       </c>
       <c r="D97" t="n">
-        <v>0.347</v>
+        <v>0.3497</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3464</v>
+        <v>0.3497</v>
       </c>
       <c r="F97" t="n">
-        <v>4121088.1097</v>
+        <v>215981.5447</v>
       </c>
       <c r="G97" t="n">
-        <v>600285581.881004</v>
+        <v>616685061.4018099</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3878,39 +4168,34 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.347</v>
+        <v>0.3598</v>
       </c>
       <c r="C98" t="n">
-        <v>0.347</v>
+        <v>0.3598</v>
       </c>
       <c r="D98" t="n">
-        <v>0.347</v>
+        <v>0.3598</v>
       </c>
       <c r="E98" t="n">
-        <v>0.347</v>
+        <v>0.3598</v>
       </c>
       <c r="F98" t="n">
-        <v>6361380.8397</v>
+        <v>2827</v>
       </c>
       <c r="G98" t="n">
-        <v>600285581.881004</v>
+        <v>616687888.4018099</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3919,121 +4204,106 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.347</v>
+        <v>0.3497</v>
       </c>
       <c r="C99" t="n">
-        <v>0.347</v>
+        <v>0.3497</v>
       </c>
       <c r="D99" t="n">
-        <v>0.347</v>
+        <v>0.3497</v>
       </c>
       <c r="E99" t="n">
-        <v>0.347</v>
+        <v>0.3497</v>
       </c>
       <c r="F99" t="n">
-        <v>8939812.758199999</v>
+        <v>231654.4569</v>
       </c>
       <c r="G99" t="n">
-        <v>600285581.881004</v>
+        <v>616456233.9449099</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.347</v>
+        <v>0.3592</v>
       </c>
       <c r="C100" t="n">
-        <v>0.347</v>
+        <v>0.3464</v>
       </c>
       <c r="D100" t="n">
-        <v>0.347</v>
+        <v>0.3592</v>
       </c>
       <c r="E100" t="n">
-        <v>0.347</v>
+        <v>0.3464</v>
       </c>
       <c r="F100" t="n">
-        <v>3106193</v>
+        <v>3062.361</v>
       </c>
       <c r="G100" t="n">
-        <v>600285581.881004</v>
+        <v>616453171.58391</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.347</v>
+        <v>0.3464</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3514</v>
+        <v>0.345</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3514</v>
+        <v>0.3464</v>
       </c>
       <c r="E101" t="n">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="F101" t="n">
-        <v>747979.67898229</v>
+        <v>13532442.0799</v>
       </c>
       <c r="G101" t="n">
-        <v>601033561.5599862</v>
+        <v>602920729.50401</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4042,39 +4312,34 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.347</v>
+        <v>0.3444</v>
       </c>
       <c r="C102" t="n">
-        <v>0.347</v>
+        <v>0.34</v>
       </c>
       <c r="D102" t="n">
-        <v>0.347</v>
+        <v>0.3444</v>
       </c>
       <c r="E102" t="n">
-        <v>0.347</v>
+        <v>0.34</v>
       </c>
       <c r="F102" t="n">
-        <v>230211.9753</v>
+        <v>10293063.8673</v>
       </c>
       <c r="G102" t="n">
-        <v>600803349.5846863</v>
+        <v>592627665.6367099</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4083,39 +4348,34 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.347</v>
+        <v>0.3401</v>
       </c>
       <c r="C103" t="n">
-        <v>0.347</v>
+        <v>0.34</v>
       </c>
       <c r="D103" t="n">
-        <v>0.347</v>
+        <v>0.3401</v>
       </c>
       <c r="E103" t="n">
-        <v>0.347</v>
+        <v>0.34</v>
       </c>
       <c r="F103" t="n">
-        <v>1124389.6449</v>
+        <v>2992804.8403</v>
       </c>
       <c r="G103" t="n">
-        <v>600803349.5846863</v>
+        <v>592627665.6367099</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4124,39 +4384,34 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.347</v>
+        <v>0.3436</v>
       </c>
       <c r="C104" t="n">
-        <v>0.352</v>
+        <v>0.3436</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3521</v>
+        <v>0.3436</v>
       </c>
       <c r="E104" t="n">
-        <v>0.347</v>
+        <v>0.3436</v>
       </c>
       <c r="F104" t="n">
-        <v>4892010.6526</v>
+        <v>10000</v>
       </c>
       <c r="G104" t="n">
-        <v>605695360.2372863</v>
+        <v>592637665.6367099</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4165,39 +4420,34 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3503</v>
+        <v>0.3399</v>
       </c>
       <c r="C105" t="n">
-        <v>0.346</v>
+        <v>0.3425</v>
       </c>
       <c r="D105" t="n">
-        <v>0.3504</v>
+        <v>0.3425</v>
       </c>
       <c r="E105" t="n">
-        <v>0.346</v>
+        <v>0.3399</v>
       </c>
       <c r="F105" t="n">
-        <v>1854960.4944</v>
+        <v>1593015.8779</v>
       </c>
       <c r="G105" t="n">
-        <v>603840399.7428863</v>
+        <v>591044649.7588099</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4206,39 +4456,34 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.3494</v>
+        <v>0.3423</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3468</v>
+        <v>0.3423</v>
       </c>
       <c r="D106" t="n">
-        <v>0.3494</v>
+        <v>0.3423</v>
       </c>
       <c r="E106" t="n">
-        <v>0.3468</v>
+        <v>0.3423</v>
       </c>
       <c r="F106" t="n">
-        <v>15042055.3768</v>
+        <v>77362.6844</v>
       </c>
       <c r="G106" t="n">
-        <v>618882455.1196864</v>
+        <v>590967287.07441</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4247,39 +4492,34 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.3501</v>
+        <v>0.3423</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3502</v>
+        <v>0.3423</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3502</v>
+        <v>0.3423</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3501</v>
+        <v>0.3423</v>
       </c>
       <c r="F107" t="n">
-        <v>1884726.1494</v>
+        <v>224914.9522</v>
       </c>
       <c r="G107" t="n">
-        <v>620767181.2690864</v>
+        <v>590967287.07441</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4288,39 +4528,34 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.3504</v>
+        <v>0.3454</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3458</v>
+        <v>0.3409</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3504</v>
+        <v>0.3466</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3458</v>
+        <v>0.3409</v>
       </c>
       <c r="F108" t="n">
-        <v>2910.959</v>
+        <v>267353.3603</v>
       </c>
       <c r="G108" t="n">
-        <v>620764270.3100864</v>
+        <v>590699933.71411</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4329,39 +4564,34 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.349</v>
+        <v>0.3466</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3492</v>
+        <v>0.3468</v>
       </c>
       <c r="D109" t="n">
-        <v>0.3492</v>
+        <v>0.3468</v>
       </c>
       <c r="E109" t="n">
-        <v>0.349</v>
+        <v>0.3466</v>
       </c>
       <c r="F109" t="n">
-        <v>276875.6725</v>
+        <v>7503077.3718</v>
       </c>
       <c r="G109" t="n">
-        <v>621041145.9825864</v>
+        <v>598203011.08591</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4370,39 +4600,34 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3494</v>
+        <v>0.3547</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3494</v>
+        <v>0.3547</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3494</v>
+        <v>0.3547</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3494</v>
+        <v>0.3547</v>
       </c>
       <c r="F110" t="n">
-        <v>154196.9575</v>
+        <v>5621.6942</v>
       </c>
       <c r="G110" t="n">
-        <v>621195342.9400864</v>
+        <v>598208632.78011</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4411,39 +4636,34 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.3493</v>
+        <v>0.3472</v>
       </c>
       <c r="C111" t="n">
-        <v>0.3493</v>
+        <v>0.3472</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3493</v>
+        <v>0.3545</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3493</v>
+        <v>0.3472</v>
       </c>
       <c r="F111" t="n">
-        <v>177885.1468</v>
+        <v>6286.8837</v>
       </c>
       <c r="G111" t="n">
-        <v>621017457.7932863</v>
+        <v>598202345.89641</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4452,39 +4672,34 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.3493</v>
+        <v>0.347</v>
       </c>
       <c r="C112" t="n">
-        <v>0.3493</v>
+        <v>0.347</v>
       </c>
       <c r="D112" t="n">
-        <v>0.3493</v>
+        <v>0.347</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3493</v>
+        <v>0.347</v>
       </c>
       <c r="F112" t="n">
-        <v>443011.3736</v>
+        <v>39639.5284</v>
       </c>
       <c r="G112" t="n">
-        <v>621017457.7932863</v>
+        <v>598162706.36801</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4493,39 +4708,34 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.3493</v>
+        <v>0.3473</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3493</v>
+        <v>0.3473</v>
       </c>
       <c r="D113" t="n">
-        <v>0.3493</v>
+        <v>0.3473</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3493</v>
+        <v>0.3473</v>
       </c>
       <c r="F113" t="n">
-        <v>664519.9197</v>
+        <v>1944.9572</v>
       </c>
       <c r="G113" t="n">
-        <v>621017457.7932863</v>
+        <v>598164651.3252101</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4534,39 +4744,34 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.3466</v>
+        <v>0.3473</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3466</v>
+        <v>0.347</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3466</v>
+        <v>0.3473</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3466</v>
+        <v>0.347</v>
       </c>
       <c r="F114" t="n">
-        <v>25083.0131</v>
+        <v>46603.7253</v>
       </c>
       <c r="G114" t="n">
-        <v>620992374.7801863</v>
+        <v>598118047.5999101</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4575,39 +4780,34 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.3486</v>
+        <v>0.3471</v>
       </c>
       <c r="C115" t="n">
-        <v>0.3484</v>
+        <v>0.3468</v>
       </c>
       <c r="D115" t="n">
-        <v>0.3486</v>
+        <v>0.3471</v>
       </c>
       <c r="E115" t="n">
-        <v>0.3484</v>
+        <v>0.3468</v>
       </c>
       <c r="F115" t="n">
-        <v>291380.4161</v>
+        <v>4894892.4026</v>
       </c>
       <c r="G115" t="n">
-        <v>621283755.1962863</v>
+        <v>593223155.1973101</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4616,39 +4816,34 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.3482</v>
+        <v>0.3507</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3482</v>
+        <v>0.3469</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3482</v>
+        <v>0.3507</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3482</v>
+        <v>0.3469</v>
       </c>
       <c r="F116" t="n">
-        <v>93742.52469999999</v>
+        <v>48283.485</v>
       </c>
       <c r="G116" t="n">
-        <v>621190012.6715863</v>
+        <v>593271438.6823101</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4657,39 +4852,34 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.3482</v>
+        <v>0.3539</v>
       </c>
       <c r="C117" t="n">
-        <v>0.3482</v>
+        <v>0.349</v>
       </c>
       <c r="D117" t="n">
-        <v>0.3482</v>
+        <v>0.3539</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3482</v>
+        <v>0.349</v>
       </c>
       <c r="F117" t="n">
-        <v>1474955.9329</v>
+        <v>4540.8875</v>
       </c>
       <c r="G117" t="n">
-        <v>621190012.6715863</v>
+        <v>593275979.5698102</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4698,39 +4888,34 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.3483</v>
+        <v>0.3491</v>
       </c>
       <c r="C118" t="n">
-        <v>0.3483</v>
+        <v>0.3491</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3483</v>
+        <v>0.3491</v>
       </c>
       <c r="E118" t="n">
-        <v>0.3483</v>
+        <v>0.3491</v>
       </c>
       <c r="F118" t="n">
-        <v>552948.9510999999</v>
+        <v>1675.5579</v>
       </c>
       <c r="G118" t="n">
-        <v>621742961.6226863</v>
+        <v>593277655.1277101</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4739,39 +4924,34 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.3483</v>
+        <v>0.3525</v>
       </c>
       <c r="C119" t="n">
-        <v>0.3483</v>
+        <v>0.3525</v>
       </c>
       <c r="D119" t="n">
-        <v>0.3483</v>
+        <v>0.3525</v>
       </c>
       <c r="E119" t="n">
-        <v>0.3483</v>
+        <v>0.3525</v>
       </c>
       <c r="F119" t="n">
-        <v>276474.4755</v>
+        <v>1411.6319</v>
       </c>
       <c r="G119" t="n">
-        <v>621742961.6226863</v>
+        <v>593279066.7596101</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4780,39 +4960,34 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3487</v>
+        <v>0.3534</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3487</v>
+        <v>0.3534</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3487</v>
+        <v>0.3534</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3487</v>
+        <v>0.3534</v>
       </c>
       <c r="F120" t="n">
-        <v>276160.216</v>
+        <v>1418.4398</v>
       </c>
       <c r="G120" t="n">
-        <v>622019121.8386862</v>
+        <v>593280485.1994101</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4821,39 +4996,34 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.3465</v>
+        <v>0.353</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3465</v>
+        <v>0.353</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3465</v>
+        <v>0.353</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3465</v>
+        <v>0.353</v>
       </c>
       <c r="F121" t="n">
-        <v>408573.8428</v>
+        <v>1416.4306</v>
       </c>
       <c r="G121" t="n">
-        <v>621610547.9958862</v>
+        <v>593279068.76881</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4862,39 +5032,34 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.349</v>
+        <v>0.3529</v>
       </c>
       <c r="C122" t="n">
-        <v>0.349</v>
+        <v>0.353</v>
       </c>
       <c r="D122" t="n">
-        <v>0.349</v>
+        <v>0.353</v>
       </c>
       <c r="E122" t="n">
-        <v>0.349</v>
+        <v>0.3529</v>
       </c>
       <c r="F122" t="n">
-        <v>11982.3364</v>
+        <v>2821060.9242</v>
       </c>
       <c r="G122" t="n">
-        <v>621622530.3322862</v>
+        <v>593279068.76881</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4903,39 +5068,34 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.3504</v>
+        <v>0.3534</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3504</v>
+        <v>0.3534</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3504</v>
+        <v>0.3534</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3504</v>
+        <v>0.3534</v>
       </c>
       <c r="F123" t="n">
-        <v>1416514.446</v>
+        <v>2441.4346</v>
       </c>
       <c r="G123" t="n">
-        <v>623039044.7782862</v>
+        <v>593281510.20341</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4944,39 +5104,34 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3504</v>
+        <v>0.3539</v>
       </c>
       <c r="C124" t="n">
-        <v>0.3504</v>
+        <v>0.3539</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3504</v>
+        <v>0.3539</v>
       </c>
       <c r="E124" t="n">
-        <v>0.3504</v>
+        <v>0.3539</v>
       </c>
       <c r="F124" t="n">
-        <v>1328177.1028</v>
+        <v>1408.4508</v>
       </c>
       <c r="G124" t="n">
-        <v>623039044.7782862</v>
+        <v>593282918.65421</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4985,39 +5140,34 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3504</v>
+        <v>0.3538</v>
       </c>
       <c r="C125" t="n">
-        <v>0.3504</v>
+        <v>0.3538</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3504</v>
+        <v>0.3538</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3504</v>
+        <v>0.3538</v>
       </c>
       <c r="F125" t="n">
-        <v>1439359.0011</v>
+        <v>1413.2279</v>
       </c>
       <c r="G125" t="n">
-        <v>623039044.7782862</v>
+        <v>593281505.4263099</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5026,39 +5176,34 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.3504</v>
+        <v>0.353</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3504</v>
+        <v>0.353</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3504</v>
+        <v>0.353</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3504</v>
+        <v>0.353</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0001</v>
+        <v>107475.92067988</v>
       </c>
       <c r="G126" t="n">
-        <v>623039044.7782862</v>
+        <v>593174029.50563</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5067,39 +5212,34 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3526</v>
+        <v>0.353</v>
       </c>
       <c r="C127" t="n">
-        <v>0.3526</v>
+        <v>0.353</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3526</v>
+        <v>0.353</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3526</v>
+        <v>0.353</v>
       </c>
       <c r="F127" t="n">
-        <v>28360.74872376</v>
+        <v>98558.5675</v>
       </c>
       <c r="G127" t="n">
-        <v>623067405.52701</v>
+        <v>593174029.50563</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5108,39 +5248,34 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3528</v>
+        <v>0.353</v>
       </c>
       <c r="C128" t="n">
-        <v>0.3528</v>
+        <v>0.353</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3528</v>
+        <v>0.353</v>
       </c>
       <c r="E128" t="n">
-        <v>0.3528</v>
+        <v>0.353</v>
       </c>
       <c r="F128" t="n">
-        <v>234109.9066</v>
+        <v>1578137.1074</v>
       </c>
       <c r="G128" t="n">
-        <v>623301515.43361</v>
+        <v>593174029.50563</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5149,39 +5284,34 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3528</v>
+        <v>0.353</v>
       </c>
       <c r="C129" t="n">
-        <v>0.3528</v>
+        <v>0.353</v>
       </c>
       <c r="D129" t="n">
-        <v>0.3528</v>
+        <v>0.353</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3528</v>
+        <v>0.353</v>
       </c>
       <c r="F129" t="n">
-        <v>262167.8877</v>
+        <v>228557.5672</v>
       </c>
       <c r="G129" t="n">
-        <v>623301515.43361</v>
+        <v>593174029.50563</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5190,39 +5320,34 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.3517</v>
+        <v>0.353</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3519</v>
+        <v>0.353</v>
       </c>
       <c r="D130" t="n">
-        <v>0.3519</v>
+        <v>0.353</v>
       </c>
       <c r="E130" t="n">
-        <v>0.3517</v>
+        <v>0.353</v>
       </c>
       <c r="F130" t="n">
-        <v>2387107</v>
+        <v>2561226.1347</v>
       </c>
       <c r="G130" t="n">
-        <v>620914408.43361</v>
+        <v>593174029.50563</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5231,39 +5356,34 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3517</v>
+        <v>0.353</v>
       </c>
       <c r="C131" t="n">
-        <v>0.3517</v>
+        <v>0.353</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3517</v>
+        <v>0.353</v>
       </c>
       <c r="E131" t="n">
-        <v>0.3517</v>
+        <v>0.353</v>
       </c>
       <c r="F131" t="n">
-        <v>5451.1717</v>
+        <v>1365664.445</v>
       </c>
       <c r="G131" t="n">
-        <v>620908957.26191</v>
+        <v>593174029.50563</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5272,39 +5392,34 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.3495</v>
+        <v>0.3528</v>
       </c>
       <c r="C132" t="n">
-        <v>0.3548</v>
+        <v>0.3504</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3548</v>
+        <v>0.3528</v>
       </c>
       <c r="E132" t="n">
-        <v>0.3495</v>
+        <v>0.3504</v>
       </c>
       <c r="F132" t="n">
-        <v>394809.1163</v>
+        <v>1358806.4828</v>
       </c>
       <c r="G132" t="n">
-        <v>621303766.3782099</v>
+        <v>591815223.02283</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5313,39 +5428,34 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.3546</v>
+        <v>0.3503</v>
       </c>
       <c r="C133" t="n">
-        <v>0.3545</v>
+        <v>0.3503</v>
       </c>
       <c r="D133" t="n">
-        <v>0.3546</v>
+        <v>0.3503</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3545</v>
+        <v>0.3503</v>
       </c>
       <c r="F133" t="n">
-        <v>1207673.3758</v>
+        <v>2039141.0225</v>
       </c>
       <c r="G133" t="n">
-        <v>620096093.0024099</v>
+        <v>589776082.00033</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5354,39 +5464,34 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.3545</v>
+        <v>0.3503</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3545</v>
+        <v>0.3503</v>
       </c>
       <c r="D134" t="n">
-        <v>0.3545</v>
+        <v>0.3503</v>
       </c>
       <c r="E134" t="n">
-        <v>0.3545</v>
+        <v>0.3503</v>
       </c>
       <c r="F134" t="n">
-        <v>303033.9755</v>
+        <v>567871.8626</v>
       </c>
       <c r="G134" t="n">
-        <v>620096093.0024099</v>
+        <v>589776082.00033</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5395,39 +5500,34 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3521</v>
+        <v>0.3503</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3521</v>
+        <v>0.3503</v>
       </c>
       <c r="D135" t="n">
-        <v>0.3521</v>
+        <v>0.3503</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3521</v>
+        <v>0.3503</v>
       </c>
       <c r="F135" t="n">
-        <v>1154904.1414</v>
+        <v>737881.3073</v>
       </c>
       <c r="G135" t="n">
-        <v>618941188.86101</v>
+        <v>589776082.00033</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5436,39 +5536,34 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.3516</v>
+        <v>0.353</v>
       </c>
       <c r="C136" t="n">
-        <v>0.3516</v>
+        <v>0.353</v>
       </c>
       <c r="D136" t="n">
-        <v>0.3516</v>
+        <v>0.353</v>
       </c>
       <c r="E136" t="n">
-        <v>0.3516</v>
+        <v>0.353</v>
       </c>
       <c r="F136" t="n">
-        <v>19500</v>
+        <v>175000</v>
       </c>
       <c r="G136" t="n">
-        <v>618921688.86101</v>
+        <v>589951082.00033</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5477,39 +5572,34 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.3494</v>
+        <v>0.3507</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3489</v>
+        <v>0.3506</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3494</v>
+        <v>0.3507</v>
       </c>
       <c r="E137" t="n">
-        <v>0.3489</v>
+        <v>0.3506</v>
       </c>
       <c r="F137" t="n">
-        <v>2695125.6303</v>
+        <v>6294.4285</v>
       </c>
       <c r="G137" t="n">
-        <v>616226563.2307099</v>
+        <v>589944787.5718299</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5518,39 +5608,34 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.3494</v>
+        <v>0.3538</v>
       </c>
       <c r="C138" t="n">
-        <v>0.3494</v>
+        <v>0.3538</v>
       </c>
       <c r="D138" t="n">
-        <v>0.3494</v>
+        <v>0.3538</v>
       </c>
       <c r="E138" t="n">
-        <v>0.3494</v>
+        <v>0.3538</v>
       </c>
       <c r="F138" t="n">
-        <v>242516.6264</v>
+        <v>660818.99</v>
       </c>
       <c r="G138" t="n">
-        <v>616469079.8571099</v>
+        <v>590605606.5618299</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5559,39 +5644,34 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3497</v>
+        <v>0.354</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3497</v>
+        <v>0.354</v>
       </c>
       <c r="D139" t="n">
-        <v>0.3497</v>
+        <v>0.354</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3497</v>
+        <v>0.354</v>
       </c>
       <c r="F139" t="n">
-        <v>215981.5447</v>
+        <v>1106854.1922</v>
       </c>
       <c r="G139" t="n">
-        <v>616685061.4018099</v>
+        <v>591712460.7540299</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5600,39 +5680,34 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.3598</v>
+        <v>0.354</v>
       </c>
       <c r="C140" t="n">
-        <v>0.3598</v>
+        <v>0.354</v>
       </c>
       <c r="D140" t="n">
-        <v>0.3598</v>
+        <v>0.354</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3598</v>
+        <v>0.354</v>
       </c>
       <c r="F140" t="n">
-        <v>2827</v>
+        <v>288568.4517</v>
       </c>
       <c r="G140" t="n">
-        <v>616687888.4018099</v>
+        <v>591712460.7540299</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5641,39 +5716,34 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.3497</v>
+        <v>0.3542</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3497</v>
+        <v>0.3542</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3497</v>
+        <v>0.3542</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3497</v>
+        <v>0.3542</v>
       </c>
       <c r="F141" t="n">
-        <v>231654.4569</v>
+        <v>155679.88</v>
       </c>
       <c r="G141" t="n">
-        <v>616456233.9449099</v>
+        <v>591868140.6340299</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5682,39 +5752,34 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.3592</v>
+        <v>0.3507</v>
       </c>
       <c r="C142" t="n">
-        <v>0.3464</v>
+        <v>0.3507</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3592</v>
+        <v>0.3507</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3464</v>
+        <v>0.3507</v>
       </c>
       <c r="F142" t="n">
-        <v>3062.361</v>
+        <v>3140.0629</v>
       </c>
       <c r="G142" t="n">
-        <v>616453171.58391</v>
+        <v>591865000.5711299</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5723,39 +5788,34 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.3464</v>
+        <v>0.3506</v>
       </c>
       <c r="C143" t="n">
-        <v>0.345</v>
+        <v>0.3506</v>
       </c>
       <c r="D143" t="n">
-        <v>0.3464</v>
+        <v>0.3506</v>
       </c>
       <c r="E143" t="n">
-        <v>0.345</v>
+        <v>0.3506</v>
       </c>
       <c r="F143" t="n">
-        <v>13532442.0799</v>
+        <v>1426.1267</v>
       </c>
       <c r="G143" t="n">
-        <v>602920729.50401</v>
+        <v>591863574.4444299</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5764,39 +5824,34 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.3444</v>
+        <v>0.3517</v>
       </c>
       <c r="C144" t="n">
-        <v>0.34</v>
+        <v>0.3517</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3444</v>
+        <v>0.3517</v>
       </c>
       <c r="E144" t="n">
-        <v>0.34</v>
+        <v>0.3517</v>
       </c>
       <c r="F144" t="n">
-        <v>10293063.8673</v>
+        <v>1421.6662</v>
       </c>
       <c r="G144" t="n">
-        <v>592627665.6367099</v>
+        <v>591864996.1106299</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5805,39 +5860,34 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.3401</v>
+        <v>0.3542</v>
       </c>
       <c r="C145" t="n">
-        <v>0.34</v>
+        <v>0.3542</v>
       </c>
       <c r="D145" t="n">
-        <v>0.3401</v>
+        <v>0.3542</v>
       </c>
       <c r="E145" t="n">
-        <v>0.34</v>
+        <v>0.3542</v>
       </c>
       <c r="F145" t="n">
-        <v>2992804.8403</v>
+        <v>8825.6875</v>
       </c>
       <c r="G145" t="n">
-        <v>592627665.6367099</v>
+        <v>591873821.7981299</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5846,80 +5896,70 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.3436</v>
+        <v>0.3543</v>
       </c>
       <c r="C146" t="n">
-        <v>0.3436</v>
+        <v>0.3543</v>
       </c>
       <c r="D146" t="n">
-        <v>0.3436</v>
+        <v>0.3543</v>
       </c>
       <c r="E146" t="n">
-        <v>0.3436</v>
+        <v>0.3543</v>
       </c>
       <c r="F146" t="n">
-        <v>10000</v>
+        <v>11630.7733</v>
       </c>
       <c r="G146" t="n">
-        <v>592637665.6367099</v>
+        <v>591885452.57143</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.3399</v>
+        <v>0.3543</v>
       </c>
       <c r="C147" t="n">
-        <v>0.3425</v>
+        <v>0.3543</v>
       </c>
       <c r="D147" t="n">
-        <v>0.3425</v>
+        <v>0.3543</v>
       </c>
       <c r="E147" t="n">
-        <v>0.3399</v>
+        <v>0.3543</v>
       </c>
       <c r="F147" t="n">
-        <v>1593015.8779</v>
+        <v>288568.4517</v>
       </c>
       <c r="G147" t="n">
-        <v>591044649.7588099</v>
+        <v>591885452.57143</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5928,39 +5968,34 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.3423</v>
+        <v>0.355</v>
       </c>
       <c r="C148" t="n">
-        <v>0.3423</v>
+        <v>0.3551</v>
       </c>
       <c r="D148" t="n">
-        <v>0.3423</v>
+        <v>0.3574</v>
       </c>
       <c r="E148" t="n">
-        <v>0.3423</v>
+        <v>0.355</v>
       </c>
       <c r="F148" t="n">
-        <v>77362.6844</v>
+        <v>3833655.83440416</v>
       </c>
       <c r="G148" t="n">
-        <v>590967287.07441</v>
+        <v>595719108.4058341</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5969,39 +6004,34 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.3423</v>
+        <v>0.3573</v>
       </c>
       <c r="C149" t="n">
-        <v>0.3423</v>
+        <v>0.3574</v>
       </c>
       <c r="D149" t="n">
-        <v>0.3423</v>
+        <v>0.3574</v>
       </c>
       <c r="E149" t="n">
-        <v>0.3423</v>
+        <v>0.3573</v>
       </c>
       <c r="F149" t="n">
-        <v>224914.9522</v>
+        <v>8707975.193695839</v>
       </c>
       <c r="G149" t="n">
-        <v>590967287.07441</v>
+        <v>604427083.5995299</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6010,2054 +6040,336 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.3454</v>
+        <v>0.3574</v>
       </c>
       <c r="C150" t="n">
-        <v>0.3409</v>
+        <v>0.3574</v>
       </c>
       <c r="D150" t="n">
-        <v>0.3466</v>
+        <v>0.3574</v>
       </c>
       <c r="E150" t="n">
-        <v>0.3409</v>
+        <v>0.3574</v>
       </c>
       <c r="F150" t="n">
-        <v>267353.3603</v>
+        <v>144757.4443</v>
       </c>
       <c r="G150" t="n">
-        <v>590699933.71411</v>
+        <v>604427083.5995299</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.3466</v>
+        <v>0.3598</v>
       </c>
       <c r="C151" t="n">
-        <v>0.3468</v>
+        <v>0.3598</v>
       </c>
       <c r="D151" t="n">
-        <v>0.3468</v>
+        <v>0.3598</v>
       </c>
       <c r="E151" t="n">
-        <v>0.3466</v>
+        <v>0.3598</v>
       </c>
       <c r="F151" t="n">
-        <v>7503077.3718</v>
+        <v>296274.6274</v>
       </c>
       <c r="G151" t="n">
-        <v>598203011.08591</v>
+        <v>604723358.2269299</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.3547</v>
+        <v>0.3574</v>
       </c>
       <c r="C152" t="n">
-        <v>0.3547</v>
+        <v>0.3574</v>
       </c>
       <c r="D152" t="n">
-        <v>0.3547</v>
+        <v>0.3574</v>
       </c>
       <c r="E152" t="n">
-        <v>0.3547</v>
+        <v>0.3574</v>
       </c>
       <c r="F152" t="n">
-        <v>5621.6942</v>
+        <v>4.16e-06</v>
       </c>
       <c r="G152" t="n">
-        <v>598208632.78011</v>
+        <v>604723358.2269257</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.3472</v>
+        <v>0.3574</v>
       </c>
       <c r="C153" t="n">
-        <v>0.3472</v>
+        <v>0.3574</v>
       </c>
       <c r="D153" t="n">
-        <v>0.3545</v>
+        <v>0.3574</v>
       </c>
       <c r="E153" t="n">
-        <v>0.3472</v>
+        <v>0.3574</v>
       </c>
       <c r="F153" t="n">
-        <v>6286.8837</v>
+        <v>3406876.8481</v>
       </c>
       <c r="G153" t="n">
-        <v>598202345.89641</v>
+        <v>604723358.2269257</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.347</v>
+        <v>0.3599</v>
       </c>
       <c r="C154" t="n">
-        <v>0.347</v>
+        <v>0.3561</v>
       </c>
       <c r="D154" t="n">
-        <v>0.347</v>
+        <v>0.3599</v>
       </c>
       <c r="E154" t="n">
-        <v>0.347</v>
+        <v>0.3561</v>
       </c>
       <c r="F154" t="n">
-        <v>39639.5284</v>
+        <v>2834.1206</v>
       </c>
       <c r="G154" t="n">
-        <v>598162706.36801</v>
+        <v>604720524.1063257</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.3473</v>
+        <v>0.3562</v>
       </c>
       <c r="C155" t="n">
-        <v>0.3473</v>
+        <v>0.3562</v>
       </c>
       <c r="D155" t="n">
-        <v>0.3473</v>
+        <v>0.3562</v>
       </c>
       <c r="E155" t="n">
-        <v>0.3473</v>
+        <v>0.3562</v>
       </c>
       <c r="F155" t="n">
-        <v>1944.9572</v>
+        <v>733356.9579</v>
       </c>
       <c r="G155" t="n">
-        <v>598164651.3252101</v>
+        <v>605453881.0642258</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.3473</v>
+        <v>0.3561</v>
       </c>
       <c r="C156" t="n">
-        <v>0.347</v>
+        <v>0.3561</v>
       </c>
       <c r="D156" t="n">
-        <v>0.3473</v>
+        <v>0.3561</v>
       </c>
       <c r="E156" t="n">
-        <v>0.347</v>
+        <v>0.3561</v>
       </c>
       <c r="F156" t="n">
-        <v>46603.7253</v>
+        <v>30210.6508</v>
       </c>
       <c r="G156" t="n">
-        <v>598118047.5999101</v>
+        <v>605423670.4134258</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.3471</v>
+        <v>0.3561</v>
       </c>
       <c r="C157" t="n">
-        <v>0.3468</v>
+        <v>0.3561</v>
       </c>
       <c r="D157" t="n">
-        <v>0.3471</v>
+        <v>0.3561</v>
       </c>
       <c r="E157" t="n">
-        <v>0.3468</v>
+        <v>0.3561</v>
       </c>
       <c r="F157" t="n">
-        <v>4894892.4026</v>
+        <v>2100177.216</v>
       </c>
       <c r="G157" t="n">
-        <v>593223155.1973101</v>
+        <v>605423670.4134258</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.3507</v>
+        <v>0.3561</v>
       </c>
       <c r="C158" t="n">
-        <v>0.3469</v>
+        <v>0.3561</v>
       </c>
       <c r="D158" t="n">
-        <v>0.3507</v>
+        <v>0.3561</v>
       </c>
       <c r="E158" t="n">
-        <v>0.3469</v>
+        <v>0.3561</v>
       </c>
       <c r="F158" t="n">
-        <v>48283.485</v>
+        <v>320702.9999</v>
       </c>
       <c r="G158" t="n">
-        <v>593271438.6823101</v>
+        <v>605423670.4134258</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>0.3539</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0.349</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0.3539</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0.349</v>
-      </c>
-      <c r="F159" t="n">
-        <v>4540.8875</v>
-      </c>
-      <c r="G159" t="n">
-        <v>593275979.5698102</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>0.3491</v>
-      </c>
-      <c r="C160" t="n">
-        <v>0.3491</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0.3491</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0.3491</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1675.5579</v>
-      </c>
-      <c r="G160" t="n">
-        <v>593277655.1277101</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>0.3525</v>
-      </c>
-      <c r="C161" t="n">
-        <v>0.3525</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0.3525</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0.3525</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1411.6319</v>
-      </c>
-      <c r="G161" t="n">
-        <v>593279066.7596101</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>0.3534</v>
-      </c>
-      <c r="C162" t="n">
-        <v>0.3534</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0.3534</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0.3534</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1418.4398</v>
-      </c>
-      <c r="G162" t="n">
-        <v>593280485.1994101</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1416.4306</v>
-      </c>
-      <c r="G163" t="n">
-        <v>593279068.76881</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>0.3529</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.3529</v>
-      </c>
-      <c r="F164" t="n">
-        <v>2821060.9242</v>
-      </c>
-      <c r="G164" t="n">
-        <v>593279068.76881</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>0.3534</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0.3534</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0.3534</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.3534</v>
-      </c>
-      <c r="F165" t="n">
-        <v>2441.4346</v>
-      </c>
-      <c r="G165" t="n">
-        <v>593281510.20341</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>0.3539</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0.3539</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.3539</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.3539</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1408.4508</v>
-      </c>
-      <c r="G166" t="n">
-        <v>593282918.65421</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1413.2279</v>
-      </c>
-      <c r="G167" t="n">
-        <v>593281505.4263099</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="F168" t="n">
-        <v>107475.92067988</v>
-      </c>
-      <c r="G168" t="n">
-        <v>593174029.50563</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="F169" t="n">
-        <v>98558.5675</v>
-      </c>
-      <c r="G169" t="n">
-        <v>593174029.50563</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1578137.1074</v>
-      </c>
-      <c r="G170" t="n">
-        <v>593174029.50563</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="F171" t="n">
-        <v>228557.5672</v>
-      </c>
-      <c r="G171" t="n">
-        <v>593174029.50563</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="F172" t="n">
-        <v>2561226.1347</v>
-      </c>
-      <c r="G172" t="n">
-        <v>593174029.50563</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1365664.445</v>
-      </c>
-      <c r="G173" t="n">
-        <v>593174029.50563</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>0.3528</v>
-      </c>
-      <c r="C174" t="n">
-        <v>0.3504</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.3528</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0.3504</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1358806.4828</v>
-      </c>
-      <c r="G174" t="n">
-        <v>591815223.02283</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>0.3503</v>
-      </c>
-      <c r="C175" t="n">
-        <v>0.3503</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0.3503</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0.3503</v>
-      </c>
-      <c r="F175" t="n">
-        <v>2039141.0225</v>
-      </c>
-      <c r="G175" t="n">
-        <v>589776082.00033</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>0.3503</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0.3503</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.3503</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0.3503</v>
-      </c>
-      <c r="F176" t="n">
-        <v>567871.8626</v>
-      </c>
-      <c r="G176" t="n">
-        <v>589776082.00033</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>0.3503</v>
-      </c>
-      <c r="C177" t="n">
-        <v>0.3503</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.3503</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0.3503</v>
-      </c>
-      <c r="F177" t="n">
-        <v>737881.3073</v>
-      </c>
-      <c r="G177" t="n">
-        <v>589776082.00033</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="F178" t="n">
-        <v>175000</v>
-      </c>
-      <c r="G178" t="n">
-        <v>589951082.00033</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>0.3507</v>
-      </c>
-      <c r="C179" t="n">
-        <v>0.3506</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0.3507</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0.3506</v>
-      </c>
-      <c r="F179" t="n">
-        <v>6294.4285</v>
-      </c>
-      <c r="G179" t="n">
-        <v>589944787.5718299</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0.3538</v>
-      </c>
-      <c r="F180" t="n">
-        <v>660818.99</v>
-      </c>
-      <c r="G180" t="n">
-        <v>590605606.5618299</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1106854.1922</v>
-      </c>
-      <c r="G181" t="n">
-        <v>591712460.7540299</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="C182" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="F182" t="n">
-        <v>288568.4517</v>
-      </c>
-      <c r="G182" t="n">
-        <v>591712460.7540299</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.3542</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.3542</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.3542</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0.3542</v>
-      </c>
-      <c r="F183" t="n">
-        <v>155679.88</v>
-      </c>
-      <c r="G183" t="n">
-        <v>591868140.6340299</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>0.3507</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0.3507</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0.3507</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0.3507</v>
-      </c>
-      <c r="F184" t="n">
-        <v>3140.0629</v>
-      </c>
-      <c r="G184" t="n">
-        <v>591865000.5711299</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>0.3506</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0.3506</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0.3506</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0.3506</v>
-      </c>
-      <c r="F185" t="n">
-        <v>1426.1267</v>
-      </c>
-      <c r="G185" t="n">
-        <v>591863574.4444299</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>0.3517</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0.3517</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0.3517</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0.3517</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1421.6662</v>
-      </c>
-      <c r="G186" t="n">
-        <v>591864996.1106299</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>0.3542</v>
-      </c>
-      <c r="C187" t="n">
-        <v>0.3542</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0.3542</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0.3542</v>
-      </c>
-      <c r="F187" t="n">
-        <v>8825.6875</v>
-      </c>
-      <c r="G187" t="n">
-        <v>591873821.7981299</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>0.3543</v>
-      </c>
-      <c r="C188" t="n">
-        <v>0.3543</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0.3543</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0.3543</v>
-      </c>
-      <c r="F188" t="n">
-        <v>11630.7733</v>
-      </c>
-      <c r="G188" t="n">
-        <v>591885452.57143</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>0.3543</v>
-      </c>
-      <c r="C189" t="n">
-        <v>0.3543</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0.3543</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0.3543</v>
-      </c>
-      <c r="F189" t="n">
-        <v>288568.4517</v>
-      </c>
-      <c r="G189" t="n">
-        <v>591885452.57143</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>0.355</v>
-      </c>
-      <c r="C190" t="n">
-        <v>0.3551</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0.3574</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0.355</v>
-      </c>
-      <c r="F190" t="n">
-        <v>3833655.83440416</v>
-      </c>
-      <c r="G190" t="n">
-        <v>595719108.4058341</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>0.3573</v>
-      </c>
-      <c r="C191" t="n">
-        <v>0.3574</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0.3574</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0.3573</v>
-      </c>
-      <c r="F191" t="n">
-        <v>8707975.193695839</v>
-      </c>
-      <c r="G191" t="n">
-        <v>604427083.5995299</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>0.3476</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1.02319332566168</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>0.3574</v>
-      </c>
-      <c r="C192" t="n">
-        <v>0.3574</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0.3574</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0.3574</v>
-      </c>
-      <c r="F192" t="n">
-        <v>144757.4443</v>
-      </c>
-      <c r="G192" t="n">
-        <v>604427083.5995299</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>0.3598</v>
-      </c>
-      <c r="C193" t="n">
-        <v>0.3598</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0.3598</v>
-      </c>
-      <c r="E193" t="n">
-        <v>0.3598</v>
-      </c>
-      <c r="F193" t="n">
-        <v>296274.6274</v>
-      </c>
-      <c r="G193" t="n">
-        <v>604723358.2269299</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>0.3574</v>
-      </c>
-      <c r="C194" t="n">
-        <v>0.3574</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0.3574</v>
-      </c>
-      <c r="E194" t="n">
-        <v>0.3574</v>
-      </c>
-      <c r="F194" t="n">
-        <v>4.16e-06</v>
-      </c>
-      <c r="G194" t="n">
-        <v>604723358.2269257</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>0.3574</v>
-      </c>
-      <c r="C195" t="n">
-        <v>0.3574</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0.3574</v>
-      </c>
-      <c r="E195" t="n">
-        <v>0.3574</v>
-      </c>
-      <c r="F195" t="n">
-        <v>3406876.8481</v>
-      </c>
-      <c r="G195" t="n">
-        <v>604723358.2269257</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>0.3599</v>
-      </c>
-      <c r="C196" t="n">
-        <v>0.3561</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0.3599</v>
-      </c>
-      <c r="E196" t="n">
-        <v>0.3561</v>
-      </c>
-      <c r="F196" t="n">
-        <v>2834.1206</v>
-      </c>
-      <c r="G196" t="n">
-        <v>604720524.1063257</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>0.3562</v>
-      </c>
-      <c r="C197" t="n">
-        <v>0.3562</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0.3562</v>
-      </c>
-      <c r="E197" t="n">
-        <v>0.3562</v>
-      </c>
-      <c r="F197" t="n">
-        <v>733356.9579</v>
-      </c>
-      <c r="G197" t="n">
-        <v>605453881.0642258</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>0.3561</v>
-      </c>
-      <c r="C198" t="n">
-        <v>0.3561</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0.3561</v>
-      </c>
-      <c r="E198" t="n">
-        <v>0.3561</v>
-      </c>
-      <c r="F198" t="n">
-        <v>30210.6508</v>
-      </c>
-      <c r="G198" t="n">
-        <v>605423670.4134258</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>0.3561</v>
-      </c>
-      <c r="C199" t="n">
-        <v>0.3561</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0.3561</v>
-      </c>
-      <c r="E199" t="n">
-        <v>0.3561</v>
-      </c>
-      <c r="F199" t="n">
-        <v>2100177.216</v>
-      </c>
-      <c r="G199" t="n">
-        <v>605423670.4134258</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>0.3561</v>
-      </c>
-      <c r="C200" t="n">
-        <v>0.3561</v>
-      </c>
-      <c r="D200" t="n">
-        <v>0.3561</v>
-      </c>
-      <c r="E200" t="n">
-        <v>0.3561</v>
-      </c>
-      <c r="F200" t="n">
-        <v>320702.9999</v>
-      </c>
-      <c r="G200" t="n">
-        <v>605423670.4134258</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
+      <c r="N158" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-14 BackTest BTT.xlsx
+++ b/BackTest/2020-01-14 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N158"/>
+  <dimension ref="A1:N229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3601</v>
+        <v>0.3647</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3583</v>
+        <v>0.3647</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3601</v>
+        <v>0.3647</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3583</v>
+        <v>0.3647</v>
       </c>
       <c r="F2" t="n">
-        <v>12000</v>
+        <v>373345.14</v>
       </c>
       <c r="G2" t="n">
-        <v>-35080951.5903</v>
+        <v>-53678486.6542</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3583</v>
+        <v>0.3608</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3583</v>
+        <v>0.3608</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3583</v>
+        <v>0.3608</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3583</v>
+        <v>0.3608</v>
       </c>
       <c r="F3" t="n">
-        <v>6200</v>
+        <v>173820</v>
       </c>
       <c r="G3" t="n">
-        <v>-35080951.5903</v>
+        <v>-53852306.6542</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3597</v>
+        <v>0.3646</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3597</v>
+        <v>0.3646</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3597</v>
+        <v>0.3646</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3597</v>
+        <v>0.3646</v>
       </c>
       <c r="F4" t="n">
-        <v>4387398.8939</v>
+        <v>1381</v>
       </c>
       <c r="G4" t="n">
-        <v>-30693552.6964</v>
+        <v>-53850925.6542</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.362</v>
+        <v>0.3646</v>
       </c>
       <c r="C5" t="n">
-        <v>0.362</v>
+        <v>0.3648</v>
       </c>
       <c r="D5" t="n">
-        <v>0.362</v>
+        <v>0.3648</v>
       </c>
       <c r="E5" t="n">
-        <v>0.362</v>
+        <v>0.3646</v>
       </c>
       <c r="F5" t="n">
-        <v>1412</v>
+        <v>311325.5179</v>
       </c>
       <c r="G5" t="n">
-        <v>-30692140.6964</v>
+        <v>-53539600.1363</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3619</v>
+        <v>0.3648</v>
       </c>
       <c r="C6" t="n">
-        <v>0.36</v>
+        <v>0.365</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3656</v>
+        <v>0.365</v>
       </c>
       <c r="E6" t="n">
-        <v>0.36</v>
+        <v>0.3648</v>
       </c>
       <c r="F6" t="n">
-        <v>9061808.064622531</v>
+        <v>5192498.2065</v>
       </c>
       <c r="G6" t="n">
-        <v>-39753948.76102253</v>
+        <v>-48347101.9298</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3601</v>
+        <v>0.3649</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3601</v>
+        <v>0.3649</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3601</v>
+        <v>0.3649</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3601</v>
+        <v>0.3649</v>
       </c>
       <c r="F7" t="n">
-        <v>1358806.4828</v>
+        <v>3000</v>
       </c>
       <c r="G7" t="n">
-        <v>-38395142.27822253</v>
+        <v>-48350101.9298</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3599</v>
+        <v>0.3605</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3599</v>
+        <v>0.3605</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3599</v>
+        <v>0.3605</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3599</v>
+        <v>0.3605</v>
       </c>
       <c r="F8" t="n">
-        <v>680366.564</v>
+        <v>94700</v>
       </c>
       <c r="G8" t="n">
-        <v>-39075508.84222253</v>
+        <v>-48444801.9298</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.36</v>
+        <v>0.3602</v>
       </c>
       <c r="C9" t="n">
-        <v>0.36</v>
+        <v>0.3602</v>
       </c>
       <c r="D9" t="n">
-        <v>0.36</v>
+        <v>0.3602</v>
       </c>
       <c r="E9" t="n">
-        <v>0.36</v>
+        <v>0.3602</v>
       </c>
       <c r="F9" t="n">
-        <v>196363.012</v>
+        <v>94221</v>
       </c>
       <c r="G9" t="n">
-        <v>-38879145.83022253</v>
+        <v>-48539022.9298</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.36</v>
+        <v>0.3603</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3599</v>
+        <v>0.3602</v>
       </c>
       <c r="D10" t="n">
-        <v>0.36</v>
+        <v>0.3603</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3599</v>
+        <v>0.3602</v>
       </c>
       <c r="F10" t="n">
-        <v>2385566.4921</v>
+        <v>253347.8349</v>
       </c>
       <c r="G10" t="n">
-        <v>-41264712.32232253</v>
+        <v>-48539022.9298</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3601</v>
+        <v>0.359</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3601</v>
+        <v>0.359</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3601</v>
+        <v>0.359</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3601</v>
+        <v>0.359</v>
       </c>
       <c r="F11" t="n">
-        <v>216685.3583</v>
+        <v>247981.3558</v>
       </c>
       <c r="G11" t="n">
-        <v>-41048026.96402253</v>
+        <v>-48787004.2856</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3591</v>
+        <v>0.359</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3602</v>
+        <v>0.359</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3602</v>
+        <v>0.359</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3588</v>
+        <v>0.359</v>
       </c>
       <c r="F12" t="n">
-        <v>1266504.2426</v>
+        <v>711159.2542</v>
       </c>
       <c r="G12" t="n">
-        <v>-39781522.72142253</v>
+        <v>-48787004.2856</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3602</v>
+        <v>0.3598</v>
       </c>
       <c r="C13" t="n">
-        <v>0.361</v>
+        <v>0.3598</v>
       </c>
       <c r="D13" t="n">
-        <v>0.361</v>
+        <v>0.3598</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3602</v>
+        <v>0.3598</v>
       </c>
       <c r="F13" t="n">
-        <v>984977.1268</v>
+        <v>459415.5769</v>
       </c>
       <c r="G13" t="n">
-        <v>-38796545.59462253</v>
+        <v>-48327588.7087</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0.361</v>
       </c>
       <c r="C14" t="n">
-        <v>0.361</v>
+        <v>0.3612</v>
       </c>
       <c r="D14" t="n">
-        <v>0.361</v>
+        <v>0.3612</v>
       </c>
       <c r="E14" t="n">
         <v>0.361</v>
       </c>
       <c r="F14" t="n">
-        <v>89964.4111</v>
+        <v>5523290.3345</v>
       </c>
       <c r="G14" t="n">
-        <v>-38796545.59462253</v>
+        <v>-42804298.3742</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.361</v>
+        <v>0.3598</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3606</v>
+        <v>0.3598</v>
       </c>
       <c r="D15" t="n">
-        <v>0.361</v>
+        <v>0.3598</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3606</v>
+        <v>0.3598</v>
       </c>
       <c r="F15" t="n">
-        <v>6613124.1622</v>
+        <v>1392</v>
       </c>
       <c r="G15" t="n">
-        <v>-45409669.75682253</v>
+        <v>-42805690.3742</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3602</v>
+        <v>0.3596</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3602</v>
+        <v>0.3596</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3602</v>
+        <v>0.3596</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3602</v>
+        <v>0.3596</v>
       </c>
       <c r="F16" t="n">
-        <v>9362.257799999999</v>
+        <v>641449.1304</v>
       </c>
       <c r="G16" t="n">
-        <v>-45419032.01462252</v>
+        <v>-43447139.5046</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3604</v>
+        <v>0.3598</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3605</v>
+        <v>0.3598</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3605</v>
+        <v>0.3598</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3604</v>
+        <v>0.3598</v>
       </c>
       <c r="F17" t="n">
-        <v>2136398.4312</v>
+        <v>3587591.1006</v>
       </c>
       <c r="G17" t="n">
-        <v>-43282633.58342253</v>
+        <v>-39859548.40400001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3607</v>
+        <v>0.3598</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3607</v>
+        <v>0.3598</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3607</v>
+        <v>0.3598</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3607</v>
+        <v>0.3598</v>
       </c>
       <c r="F18" t="n">
-        <v>8814.07</v>
+        <v>110322</v>
       </c>
       <c r="G18" t="n">
-        <v>-43273819.51342253</v>
+        <v>-39859548.40400001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3611</v>
+        <v>0.3598</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3611</v>
+        <v>0.3598</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3611</v>
+        <v>0.3598</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3611</v>
+        <v>0.3598</v>
       </c>
       <c r="F19" t="n">
-        <v>27693.1598</v>
+        <v>1201469.0828</v>
       </c>
       <c r="G19" t="n">
-        <v>-43246126.35362253</v>
+        <v>-39859548.40400001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3612</v>
+        <v>0.3598</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3612</v>
+        <v>0.3598</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3612</v>
+        <v>0.3598</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3612</v>
+        <v>0.3598</v>
       </c>
       <c r="F20" t="n">
-        <v>27685.4929</v>
+        <v>1332368.4801</v>
       </c>
       <c r="G20" t="n">
-        <v>-43218440.86072253</v>
+        <v>-39859548.40400001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3605</v>
+        <v>0.3598</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3605</v>
+        <v>0.3598</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3605</v>
+        <v>0.3598</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3605</v>
+        <v>0.3598</v>
       </c>
       <c r="F21" t="n">
-        <v>31437.7307</v>
+        <v>852242</v>
       </c>
       <c r="G21" t="n">
-        <v>-43249878.59142253</v>
+        <v>-39859548.40400001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3601</v>
+        <v>0.3598</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3601</v>
+        <v>0.3598</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3601</v>
+        <v>0.3598</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3601</v>
+        <v>0.3598</v>
       </c>
       <c r="F22" t="n">
-        <v>37640.155</v>
+        <v>1016574.2072</v>
       </c>
       <c r="G22" t="n">
-        <v>-43287518.74642253</v>
+        <v>-39859548.40400001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.36</v>
+        <v>0.3596</v>
       </c>
       <c r="C23" t="n">
-        <v>0.36</v>
+        <v>0.3596</v>
       </c>
       <c r="D23" t="n">
-        <v>0.36</v>
+        <v>0.3596</v>
       </c>
       <c r="E23" t="n">
-        <v>0.36</v>
+        <v>0.3596</v>
       </c>
       <c r="F23" t="n">
-        <v>38078.6478</v>
+        <v>95038.8968</v>
       </c>
       <c r="G23" t="n">
-        <v>-43325597.39422253</v>
+        <v>-39954587.3008</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.36</v>
+        <v>0.3596</v>
       </c>
       <c r="C24" t="n">
-        <v>0.36</v>
+        <v>0.3596</v>
       </c>
       <c r="D24" t="n">
-        <v>0.36</v>
+        <v>0.3596</v>
       </c>
       <c r="E24" t="n">
-        <v>0.36</v>
+        <v>0.3596</v>
       </c>
       <c r="F24" t="n">
-        <v>145000</v>
+        <v>875325</v>
       </c>
       <c r="G24" t="n">
-        <v>-43325597.39422253</v>
+        <v>-39954587.3008</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3605</v>
+        <v>0.3596</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3605</v>
+        <v>0.3596</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3605</v>
+        <v>0.3596</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3605</v>
+        <v>0.3596</v>
       </c>
       <c r="F25" t="n">
-        <v>276699.02912621</v>
+        <v>875325</v>
       </c>
       <c r="G25" t="n">
-        <v>-43048898.36509632</v>
+        <v>-39954587.3008</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.359</v>
+        <v>0.3596</v>
       </c>
       <c r="C26" t="n">
-        <v>0.359</v>
+        <v>0.3596</v>
       </c>
       <c r="D26" t="n">
-        <v>0.359</v>
+        <v>0.3596</v>
       </c>
       <c r="E26" t="n">
-        <v>0.359</v>
+        <v>0.3596</v>
       </c>
       <c r="F26" t="n">
-        <v>1500</v>
+        <v>53717.6373</v>
       </c>
       <c r="G26" t="n">
-        <v>-43050398.36509632</v>
+        <v>-39954587.3008</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.358</v>
+        <v>0.3596</v>
       </c>
       <c r="C27" t="n">
-        <v>0.358</v>
+        <v>0.3596</v>
       </c>
       <c r="D27" t="n">
-        <v>0.358</v>
+        <v>0.3596</v>
       </c>
       <c r="E27" t="n">
-        <v>0.358</v>
+        <v>0.3596</v>
       </c>
       <c r="F27" t="n">
-        <v>800921.6226999999</v>
+        <v>2625975</v>
       </c>
       <c r="G27" t="n">
-        <v>-43851319.98779631</v>
+        <v>-39954587.3008</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.358</v>
+        <v>0.3596</v>
       </c>
       <c r="C28" t="n">
-        <v>0.358</v>
+        <v>0.3596</v>
       </c>
       <c r="D28" t="n">
-        <v>0.358</v>
+        <v>0.3596</v>
       </c>
       <c r="E28" t="n">
-        <v>0.358</v>
+        <v>0.3596</v>
       </c>
       <c r="F28" t="n">
-        <v>6501810.5049</v>
+        <v>1159198.4066</v>
       </c>
       <c r="G28" t="n">
-        <v>-43851319.98779631</v>
+        <v>-39954587.3008</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.358</v>
+        <v>0.3596</v>
       </c>
       <c r="C29" t="n">
-        <v>0.358</v>
+        <v>0.3596</v>
       </c>
       <c r="D29" t="n">
-        <v>0.358</v>
+        <v>0.3596</v>
       </c>
       <c r="E29" t="n">
-        <v>0.358</v>
+        <v>0.3596</v>
       </c>
       <c r="F29" t="n">
-        <v>1408245.6592</v>
+        <v>1984210.9289</v>
       </c>
       <c r="G29" t="n">
-        <v>-43851319.98779631</v>
+        <v>-39954587.3008</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.358</v>
+        <v>0.3591</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3578</v>
+        <v>0.3591</v>
       </c>
       <c r="D30" t="n">
-        <v>0.358</v>
+        <v>0.3591</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3578</v>
+        <v>0.3591</v>
       </c>
       <c r="F30" t="n">
-        <v>1030084.8866</v>
+        <v>7540.9846</v>
       </c>
       <c r="G30" t="n">
-        <v>-44881404.87439632</v>
+        <v>-39962128.2854</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3578</v>
+        <v>0.3591</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3578</v>
+        <v>0.3591</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3578</v>
+        <v>0.3591</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3578</v>
+        <v>0.3591</v>
       </c>
       <c r="F31" t="n">
-        <v>790289.4398000001</v>
+        <v>333274</v>
       </c>
       <c r="G31" t="n">
-        <v>-44881404.87439632</v>
+        <v>-39962128.2854</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3578</v>
+        <v>0.3591</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3578</v>
+        <v>0.3591</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3578</v>
+        <v>0.3591</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3578</v>
+        <v>0.3591</v>
       </c>
       <c r="F32" t="n">
-        <v>2467891.1525</v>
+        <v>3429168.9857</v>
       </c>
       <c r="G32" t="n">
-        <v>-44881404.87439632</v>
+        <v>-39962128.2854</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,38 +1554,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3576</v>
+        <v>0.3591</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3572</v>
+        <v>0.3591</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3576</v>
+        <v>0.3591</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3572</v>
+        <v>0.3591</v>
       </c>
       <c r="F33" t="n">
-        <v>127195.1428</v>
+        <v>3424691.77</v>
       </c>
       <c r="G33" t="n">
-        <v>-45008600.01719632</v>
+        <v>-39962128.2854</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0.3578</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1596,38 +1590,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3565</v>
+        <v>0.3591</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3565</v>
+        <v>0.3596</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3565</v>
+        <v>0.3596</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3565</v>
+        <v>0.3591</v>
       </c>
       <c r="F34" t="n">
-        <v>1500</v>
+        <v>752612</v>
       </c>
       <c r="G34" t="n">
-        <v>-45010100.01719632</v>
+        <v>-39209516.2854</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0.3572</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1638,38 +1626,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.3554</v>
+        <v>0.3596</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3546</v>
+        <v>0.3596</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3554</v>
+        <v>0.3596</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3546</v>
+        <v>0.3596</v>
       </c>
       <c r="F35" t="n">
-        <v>1653812.7615</v>
+        <v>1531061.5234</v>
       </c>
       <c r="G35" t="n">
-        <v>-46663912.77869632</v>
+        <v>-39209516.2854</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0.3565</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1680,38 +1662,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3555</v>
+        <v>0.3596</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3547</v>
+        <v>0.3589</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3555</v>
+        <v>0.3596</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3502</v>
+        <v>0.3589</v>
       </c>
       <c r="F36" t="n">
-        <v>623761286.62</v>
+        <v>591761.9362</v>
       </c>
       <c r="G36" t="n">
-        <v>577097373.8413037</v>
+        <v>-39801278.2216</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0.3546</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1722,38 +1698,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.35</v>
+        <v>0.3596</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3498</v>
+        <v>0.3596</v>
       </c>
       <c r="D37" t="n">
-        <v>0.35</v>
+        <v>0.3596</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3498</v>
+        <v>0.3596</v>
       </c>
       <c r="F37" t="n">
-        <v>5485227.2606</v>
+        <v>113255</v>
       </c>
       <c r="G37" t="n">
-        <v>571612146.5807037</v>
+        <v>-39688023.2216</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0.3547</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1764,38 +1734,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3498</v>
+        <v>0.3596</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3456</v>
+        <v>0.3596</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3498</v>
+        <v>0.3596</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3456</v>
+        <v>0.3596</v>
       </c>
       <c r="F38" t="n">
-        <v>1834763.9094</v>
+        <v>333666.9445</v>
       </c>
       <c r="G38" t="n">
-        <v>569777382.6713037</v>
+        <v>-39688023.2216</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0.3498</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1806,38 +1770,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3482</v>
+        <v>0.3596</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3482</v>
+        <v>0.3596</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3482</v>
+        <v>0.3596</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3482</v>
+        <v>0.3596</v>
       </c>
       <c r="F39" t="n">
-        <v>678958</v>
+        <v>355441.703</v>
       </c>
       <c r="G39" t="n">
-        <v>570456340.6713037</v>
+        <v>-39688023.2216</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0.3456</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1848,38 +1806,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3481</v>
+        <v>0.3589</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3554</v>
+        <v>0.3589</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3555</v>
+        <v>0.3589</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3469</v>
+        <v>0.3589</v>
       </c>
       <c r="F40" t="n">
-        <v>5074216</v>
+        <v>940093.0645</v>
       </c>
       <c r="G40" t="n">
-        <v>575530556.6713037</v>
+        <v>-40628116.2861</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0.3482</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1890,38 +1842,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.35</v>
+        <v>0.3596</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3495</v>
+        <v>0.3596</v>
       </c>
       <c r="D41" t="n">
-        <v>0.35</v>
+        <v>0.3596</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3495</v>
+        <v>0.3596</v>
       </c>
       <c r="F41" t="n">
-        <v>2378062.2217</v>
+        <v>34393</v>
       </c>
       <c r="G41" t="n">
-        <v>573152494.4496038</v>
+        <v>-40593723.2861</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0.3554</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1932,38 +1878,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.3495</v>
+        <v>0.3596</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3495</v>
+        <v>0.3596</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3495</v>
+        <v>0.3596</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3495</v>
+        <v>0.3596</v>
       </c>
       <c r="F42" t="n">
-        <v>373345.14</v>
+        <v>462757.3793</v>
       </c>
       <c r="G42" t="n">
-        <v>573152494.4496038</v>
+        <v>-40593723.2861</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0.3495</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1974,38 +1914,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.35</v>
+        <v>0.3596</v>
       </c>
       <c r="C43" t="n">
-        <v>0.35</v>
+        <v>0.3596</v>
       </c>
       <c r="D43" t="n">
-        <v>0.35</v>
+        <v>0.3596</v>
       </c>
       <c r="E43" t="n">
-        <v>0.35</v>
+        <v>0.3596</v>
       </c>
       <c r="F43" t="n">
-        <v>11153.0887</v>
+        <v>790121</v>
       </c>
       <c r="G43" t="n">
-        <v>573163647.5383039</v>
+        <v>-40593723.2861</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0.3495</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2016,38 +1950,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3495</v>
+        <v>0.3596</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3495</v>
+        <v>0.3596</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3495</v>
+        <v>0.3596</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3495</v>
+        <v>0.3596</v>
       </c>
       <c r="F44" t="n">
-        <v>2015198.9998</v>
+        <v>492693</v>
       </c>
       <c r="G44" t="n">
-        <v>571148448.5385039</v>
+        <v>-40593723.2861</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0.35</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2058,38 +1986,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3495</v>
+        <v>0.3575</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3495</v>
+        <v>0.3575</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3495</v>
+        <v>0.3575</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3495</v>
+        <v>0.3575</v>
       </c>
       <c r="F45" t="n">
-        <v>1560497.9998</v>
+        <v>2371890.5079</v>
       </c>
       <c r="G45" t="n">
-        <v>571148448.5385039</v>
+        <v>-42965613.794</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0.3495</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2100,38 +2022,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.35</v>
+        <v>0.358</v>
       </c>
       <c r="C46" t="n">
-        <v>0.35</v>
+        <v>0.3575</v>
       </c>
       <c r="D46" t="n">
-        <v>0.35</v>
+        <v>0.358</v>
       </c>
       <c r="E46" t="n">
-        <v>0.35</v>
+        <v>0.3575</v>
       </c>
       <c r="F46" t="n">
-        <v>3733992.3523</v>
+        <v>444540.2911</v>
       </c>
       <c r="G46" t="n">
-        <v>574882440.8908039</v>
+        <v>-42965613.794</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0.3495</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2142,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.35</v>
+        <v>0.3575</v>
       </c>
       <c r="C47" t="n">
-        <v>0.35</v>
+        <v>0.3575</v>
       </c>
       <c r="D47" t="n">
-        <v>0.35</v>
+        <v>0.3575</v>
       </c>
       <c r="E47" t="n">
-        <v>0.35</v>
+        <v>0.3575</v>
       </c>
       <c r="F47" t="n">
-        <v>1496991.6026</v>
+        <v>278443.7735</v>
       </c>
       <c r="G47" t="n">
-        <v>574882440.8908039</v>
+        <v>-42965613.794</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -2166,14 +2082,12 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.3575</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.3575</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2184,22 +2098,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.35</v>
+        <v>0.3575</v>
       </c>
       <c r="C48" t="n">
-        <v>0.35</v>
+        <v>0.3575</v>
       </c>
       <c r="D48" t="n">
-        <v>0.35</v>
+        <v>0.3575</v>
       </c>
       <c r="E48" t="n">
-        <v>0.35</v>
+        <v>0.3575</v>
       </c>
       <c r="F48" t="n">
-        <v>4813900.3132</v>
+        <v>483329.5607</v>
       </c>
       <c r="G48" t="n">
-        <v>574882440.8908039</v>
+        <v>-42965613.794</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
@@ -2208,12 +2122,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+        <v>0.3575</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.3575</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M48" t="n">
@@ -2226,22 +2142,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3473</v>
+        <v>0.3596</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3473</v>
+        <v>0.3678</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3473</v>
+        <v>0.3678</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3473</v>
+        <v>0.3596</v>
       </c>
       <c r="F49" t="n">
-        <v>1627123.1507</v>
+        <v>9682430</v>
       </c>
       <c r="G49" t="n">
-        <v>573255317.740104</v>
+        <v>-33283183.794</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
@@ -2250,12 +2166,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+        <v>0.3575</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3575</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M49" t="n">
@@ -2268,38 +2186,32 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3476</v>
+        <v>0.3681</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3476</v>
+        <v>0.3685</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3476</v>
+        <v>0.3685</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3476</v>
+        <v>0.3681</v>
       </c>
       <c r="F50" t="n">
-        <v>28450529.3809</v>
+        <v>4894892.4026</v>
       </c>
       <c r="G50" t="n">
-        <v>601705847.121004</v>
+        <v>-28388291.3914</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0.3473</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2310,38 +2222,32 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3476</v>
+        <v>0.3685</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3476</v>
+        <v>0.3685</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3476</v>
+        <v>0.3685</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3476</v>
+        <v>0.3685</v>
       </c>
       <c r="F51" t="n">
-        <v>1036664.7042</v>
+        <v>829510.1865</v>
       </c>
       <c r="G51" t="n">
-        <v>601705847.121004</v>
+        <v>-28388291.3914</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0.3476</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2352,38 +2258,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3476</v>
+        <v>0.3685</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3476</v>
+        <v>0.3685</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3476</v>
+        <v>0.3685</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3476</v>
+        <v>0.3685</v>
       </c>
       <c r="F52" t="n">
-        <v>3000000</v>
+        <v>4100</v>
       </c>
       <c r="G52" t="n">
-        <v>601705847.121004</v>
+        <v>-28388291.3914</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0.3476</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2394,38 +2294,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347</v>
+        <v>0.3685</v>
       </c>
       <c r="C53" t="n">
-        <v>0.347</v>
+        <v>0.3685</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3476</v>
+        <v>0.3685</v>
       </c>
       <c r="E53" t="n">
-        <v>0.347</v>
+        <v>0.3685</v>
       </c>
       <c r="F53" t="n">
-        <v>1420265.24</v>
+        <v>701172.8983999999</v>
       </c>
       <c r="G53" t="n">
-        <v>600285581.881004</v>
+        <v>-28388291.3914</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0.3476</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2436,38 +2330,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.347</v>
+        <v>0.3664</v>
       </c>
       <c r="C54" t="n">
-        <v>0.347</v>
+        <v>0.3664</v>
       </c>
       <c r="D54" t="n">
-        <v>0.347</v>
+        <v>0.3664</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3469</v>
+        <v>0.3664</v>
       </c>
       <c r="F54" t="n">
-        <v>5942382.9225</v>
+        <v>1390</v>
       </c>
       <c r="G54" t="n">
-        <v>600285581.881004</v>
+        <v>-28389681.3914</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0.347</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2478,38 +2366,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.347</v>
+        <v>0.3641</v>
       </c>
       <c r="C55" t="n">
-        <v>0.347</v>
+        <v>0.3641</v>
       </c>
       <c r="D55" t="n">
-        <v>0.347</v>
+        <v>0.3641</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3464</v>
+        <v>0.3641</v>
       </c>
       <c r="F55" t="n">
-        <v>4121088.1097</v>
+        <v>2710</v>
       </c>
       <c r="G55" t="n">
-        <v>600285581.881004</v>
+        <v>-28392391.3914</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0.347</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2520,38 +2402,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.347</v>
+        <v>0.369</v>
       </c>
       <c r="C56" t="n">
-        <v>0.347</v>
+        <v>0.3621</v>
       </c>
       <c r="D56" t="n">
-        <v>0.347</v>
+        <v>0.369</v>
       </c>
       <c r="E56" t="n">
-        <v>0.347</v>
+        <v>0.3621</v>
       </c>
       <c r="F56" t="n">
-        <v>6361380.8397</v>
+        <v>5723</v>
       </c>
       <c r="G56" t="n">
-        <v>600285581.881004</v>
+        <v>-28398114.3914</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0.347</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2562,38 +2438,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.347</v>
+        <v>0.3626</v>
       </c>
       <c r="C57" t="n">
-        <v>0.347</v>
+        <v>0.3626</v>
       </c>
       <c r="D57" t="n">
-        <v>0.347</v>
+        <v>0.3626</v>
       </c>
       <c r="E57" t="n">
-        <v>0.347</v>
+        <v>0.3626</v>
       </c>
       <c r="F57" t="n">
-        <v>8939812.758199999</v>
+        <v>3961853.9758</v>
       </c>
       <c r="G57" t="n">
-        <v>600285581.881004</v>
+        <v>-24436260.4156</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0.347</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2604,38 +2474,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.347</v>
+        <v>0.3626</v>
       </c>
       <c r="C58" t="n">
-        <v>0.347</v>
+        <v>0.3626</v>
       </c>
       <c r="D58" t="n">
-        <v>0.347</v>
+        <v>0.3626</v>
       </c>
       <c r="E58" t="n">
-        <v>0.347</v>
+        <v>0.3626</v>
       </c>
       <c r="F58" t="n">
-        <v>3106193</v>
+        <v>6888</v>
       </c>
       <c r="G58" t="n">
-        <v>600285581.881004</v>
+        <v>-24436260.4156</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0.347</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2646,38 +2510,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.347</v>
+        <v>0.3626</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3514</v>
+        <v>0.3626</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3514</v>
+        <v>0.3626</v>
       </c>
       <c r="E59" t="n">
-        <v>0.347</v>
+        <v>0.3626</v>
       </c>
       <c r="F59" t="n">
-        <v>747979.67898229</v>
+        <v>12898.1346</v>
       </c>
       <c r="G59" t="n">
-        <v>601033561.5599862</v>
+        <v>-24436260.4156</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0.347</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2688,38 +2546,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.347</v>
+        <v>0.3625</v>
       </c>
       <c r="C60" t="n">
-        <v>0.347</v>
+        <v>0.3625</v>
       </c>
       <c r="D60" t="n">
-        <v>0.347</v>
+        <v>0.3625</v>
       </c>
       <c r="E60" t="n">
-        <v>0.347</v>
+        <v>0.3625</v>
       </c>
       <c r="F60" t="n">
-        <v>230211.9753</v>
+        <v>1471.5</v>
       </c>
       <c r="G60" t="n">
-        <v>600803349.5846863</v>
+        <v>-24437731.9156</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0.3514</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2730,38 +2582,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.347</v>
+        <v>0.3688</v>
       </c>
       <c r="C61" t="n">
-        <v>0.347</v>
+        <v>0.3688</v>
       </c>
       <c r="D61" t="n">
-        <v>0.347</v>
+        <v>0.3688</v>
       </c>
       <c r="E61" t="n">
-        <v>0.347</v>
+        <v>0.3688</v>
       </c>
       <c r="F61" t="n">
-        <v>1124389.6449</v>
+        <v>413782.4094</v>
       </c>
       <c r="G61" t="n">
-        <v>600803349.5846863</v>
+        <v>-24023949.5062</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0.347</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2772,38 +2618,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.347</v>
+        <v>0.3688</v>
       </c>
       <c r="C62" t="n">
-        <v>0.352</v>
+        <v>0.3688</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3521</v>
+        <v>0.3688</v>
       </c>
       <c r="E62" t="n">
-        <v>0.347</v>
+        <v>0.3688</v>
       </c>
       <c r="F62" t="n">
-        <v>4892010.6526</v>
+        <v>40000</v>
       </c>
       <c r="G62" t="n">
-        <v>605695360.2372863</v>
+        <v>-24023949.5062</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0.347</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2814,38 +2654,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3503</v>
+        <v>0.362</v>
       </c>
       <c r="C63" t="n">
-        <v>0.346</v>
+        <v>0.362</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3504</v>
+        <v>0.362</v>
       </c>
       <c r="E63" t="n">
-        <v>0.346</v>
+        <v>0.362</v>
       </c>
       <c r="F63" t="n">
-        <v>1854960.4944</v>
+        <v>1027558.2038</v>
       </c>
       <c r="G63" t="n">
-        <v>603840399.7428863</v>
+        <v>-25051507.71</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0.352</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2856,38 +2690,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.3494</v>
+        <v>0.362</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3468</v>
+        <v>0.3608</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3494</v>
+        <v>0.362</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3468</v>
+        <v>0.3608</v>
       </c>
       <c r="F64" t="n">
-        <v>15042055.3768</v>
+        <v>1812154.0465</v>
       </c>
       <c r="G64" t="n">
-        <v>618882455.1196864</v>
+        <v>-26863661.7565</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0.346</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2898,22 +2726,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.3501</v>
+        <v>0.3601</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3502</v>
+        <v>0.3601</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3502</v>
+        <v>0.3601</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3501</v>
+        <v>0.3601</v>
       </c>
       <c r="F65" t="n">
-        <v>1884726.1494</v>
+        <v>829510.1865</v>
       </c>
       <c r="G65" t="n">
-        <v>620767181.2690864</v>
+        <v>-27693171.943</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2923,11 +2751,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2938,22 +2762,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.3504</v>
+        <v>0.3603</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3458</v>
+        <v>0.36</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3504</v>
+        <v>0.3603</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3458</v>
+        <v>0.36</v>
       </c>
       <c r="F66" t="n">
-        <v>2910.959</v>
+        <v>4243057.7797</v>
       </c>
       <c r="G66" t="n">
-        <v>620764270.3100864</v>
+        <v>-31936229.7227</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2963,11 +2787,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2978,22 +2798,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349</v>
+        <v>0.36</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3492</v>
+        <v>0.36</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3492</v>
+        <v>0.36</v>
       </c>
       <c r="E67" t="n">
-        <v>0.349</v>
+        <v>0.36</v>
       </c>
       <c r="F67" t="n">
-        <v>276875.6725</v>
+        <v>95403.77899999999</v>
       </c>
       <c r="G67" t="n">
-        <v>621041145.9825864</v>
+        <v>-31936229.7227</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3003,11 +2823,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3018,22 +2834,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3494</v>
+        <v>0.36</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3494</v>
+        <v>0.36</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3494</v>
+        <v>0.36</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3494</v>
+        <v>0.36</v>
       </c>
       <c r="F68" t="n">
-        <v>154196.9575</v>
+        <v>192346.3875</v>
       </c>
       <c r="G68" t="n">
-        <v>621195342.9400864</v>
+        <v>-31936229.7227</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3043,11 +2859,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +2870,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3493</v>
+        <v>0.36</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3493</v>
+        <v>0.3583</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3493</v>
+        <v>0.36</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3493</v>
+        <v>0.3583</v>
       </c>
       <c r="F69" t="n">
-        <v>177885.1468</v>
+        <v>667868.8117</v>
       </c>
       <c r="G69" t="n">
-        <v>621017457.7932863</v>
+        <v>-32604098.5344</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3083,11 +2895,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3098,22 +2906,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3493</v>
+        <v>0.361</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3493</v>
+        <v>0.361</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3493</v>
+        <v>0.361</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3493</v>
+        <v>0.361</v>
       </c>
       <c r="F70" t="n">
-        <v>443011.3736</v>
+        <v>138504.1552</v>
       </c>
       <c r="G70" t="n">
-        <v>621017457.7932863</v>
+        <v>-32465594.3792</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3123,11 +2931,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3138,22 +2942,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3493</v>
+        <v>0.3587</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3493</v>
+        <v>0.3587</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3493</v>
+        <v>0.3587</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3493</v>
+        <v>0.3587</v>
       </c>
       <c r="F71" t="n">
-        <v>664519.9197</v>
+        <v>1471.5</v>
       </c>
       <c r="G71" t="n">
-        <v>621017457.7932863</v>
+        <v>-32467065.8792</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3163,11 +2967,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3178,22 +2978,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3466</v>
+        <v>0.3584</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3466</v>
+        <v>0.3584</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3466</v>
+        <v>0.3584</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3466</v>
+        <v>0.3584</v>
       </c>
       <c r="F72" t="n">
-        <v>25083.0131</v>
+        <v>2601885.7111</v>
       </c>
       <c r="G72" t="n">
-        <v>620992374.7801863</v>
+        <v>-35068951.5903</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3203,11 +3003,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3218,22 +3014,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3486</v>
+        <v>0.3601</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3484</v>
+        <v>0.3583</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3486</v>
+        <v>0.3601</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3484</v>
+        <v>0.3583</v>
       </c>
       <c r="F73" t="n">
-        <v>291380.4161</v>
+        <v>12000</v>
       </c>
       <c r="G73" t="n">
-        <v>621283755.1962863</v>
+        <v>-35080951.5903</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3243,11 +3039,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3258,22 +3050,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3482</v>
+        <v>0.3583</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3482</v>
+        <v>0.3583</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3482</v>
+        <v>0.3583</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3482</v>
+        <v>0.3583</v>
       </c>
       <c r="F74" t="n">
-        <v>93742.52469999999</v>
+        <v>6200</v>
       </c>
       <c r="G74" t="n">
-        <v>621190012.6715863</v>
+        <v>-35080951.5903</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3283,11 +3075,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3298,22 +3086,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3482</v>
+        <v>0.3597</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3482</v>
+        <v>0.3597</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3482</v>
+        <v>0.3597</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3482</v>
+        <v>0.3597</v>
       </c>
       <c r="F75" t="n">
-        <v>1474955.9329</v>
+        <v>4387398.8939</v>
       </c>
       <c r="G75" t="n">
-        <v>621190012.6715863</v>
+        <v>-30693552.6964</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3323,11 +3111,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3122,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.3483</v>
+        <v>0.362</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3483</v>
+        <v>0.362</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3483</v>
+        <v>0.362</v>
       </c>
       <c r="E76" t="n">
-        <v>0.3483</v>
+        <v>0.362</v>
       </c>
       <c r="F76" t="n">
-        <v>552948.9510999999</v>
+        <v>1412</v>
       </c>
       <c r="G76" t="n">
-        <v>621742961.6226863</v>
+        <v>-30692140.6964</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3363,11 +3147,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3378,22 +3158,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3483</v>
+        <v>0.3619</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3483</v>
+        <v>0.36</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3483</v>
+        <v>0.3656</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3483</v>
+        <v>0.36</v>
       </c>
       <c r="F77" t="n">
-        <v>276474.4755</v>
+        <v>9061808.064622531</v>
       </c>
       <c r="G77" t="n">
-        <v>621742961.6226863</v>
+        <v>-39753948.76102253</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3403,11 +3183,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3418,22 +3194,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.3487</v>
+        <v>0.3601</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3487</v>
+        <v>0.3601</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3487</v>
+        <v>0.3601</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3487</v>
+        <v>0.3601</v>
       </c>
       <c r="F78" t="n">
-        <v>276160.216</v>
+        <v>1358806.4828</v>
       </c>
       <c r="G78" t="n">
-        <v>622019121.8386862</v>
+        <v>-38395142.27822253</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3443,11 +3219,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3458,22 +3230,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.3465</v>
+        <v>0.3599</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3465</v>
+        <v>0.3599</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3465</v>
+        <v>0.3599</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3465</v>
+        <v>0.3599</v>
       </c>
       <c r="F79" t="n">
-        <v>408573.8428</v>
+        <v>680366.564</v>
       </c>
       <c r="G79" t="n">
-        <v>621610547.9958862</v>
+        <v>-39075508.84222253</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3483,11 +3255,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3498,22 +3266,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.349</v>
+        <v>0.36</v>
       </c>
       <c r="C80" t="n">
-        <v>0.349</v>
+        <v>0.36</v>
       </c>
       <c r="D80" t="n">
-        <v>0.349</v>
+        <v>0.36</v>
       </c>
       <c r="E80" t="n">
-        <v>0.349</v>
+        <v>0.36</v>
       </c>
       <c r="F80" t="n">
-        <v>11982.3364</v>
+        <v>196363.012</v>
       </c>
       <c r="G80" t="n">
-        <v>621622530.3322862</v>
+        <v>-38879145.83022253</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3523,11 +3291,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3538,22 +3302,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3504</v>
+        <v>0.36</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3504</v>
+        <v>0.3599</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3504</v>
+        <v>0.36</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3504</v>
+        <v>0.3599</v>
       </c>
       <c r="F81" t="n">
-        <v>1416514.446</v>
+        <v>2385566.4921</v>
       </c>
       <c r="G81" t="n">
-        <v>623039044.7782862</v>
+        <v>-41264712.32232253</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3563,11 +3327,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3578,22 +3338,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3504</v>
+        <v>0.3601</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3504</v>
+        <v>0.3601</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3504</v>
+        <v>0.3601</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3504</v>
+        <v>0.3601</v>
       </c>
       <c r="F82" t="n">
-        <v>1328177.1028</v>
+        <v>216685.3583</v>
       </c>
       <c r="G82" t="n">
-        <v>623039044.7782862</v>
+        <v>-41048026.96402253</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3603,11 +3363,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3374,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3504</v>
+        <v>0.3591</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3504</v>
+        <v>0.3602</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3504</v>
+        <v>0.3602</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3504</v>
+        <v>0.3588</v>
       </c>
       <c r="F83" t="n">
-        <v>1439359.0011</v>
+        <v>1266504.2426</v>
       </c>
       <c r="G83" t="n">
-        <v>623039044.7782862</v>
+        <v>-39781522.72142253</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3643,11 +3399,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3658,22 +3410,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3504</v>
+        <v>0.3602</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3504</v>
+        <v>0.361</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3504</v>
+        <v>0.361</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3504</v>
+        <v>0.3602</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0001</v>
+        <v>984977.1268</v>
       </c>
       <c r="G84" t="n">
-        <v>623039044.7782862</v>
+        <v>-38796545.59462253</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3683,11 +3435,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3698,22 +3446,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.3526</v>
+        <v>0.361</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3526</v>
+        <v>0.361</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3526</v>
+        <v>0.361</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3526</v>
+        <v>0.361</v>
       </c>
       <c r="F85" t="n">
-        <v>28360.74872376</v>
+        <v>89964.4111</v>
       </c>
       <c r="G85" t="n">
-        <v>623067405.52701</v>
+        <v>-38796545.59462253</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3723,11 +3471,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3738,22 +3482,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.3528</v>
+        <v>0.361</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3528</v>
+        <v>0.3606</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3528</v>
+        <v>0.361</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3528</v>
+        <v>0.3606</v>
       </c>
       <c r="F86" t="n">
-        <v>234109.9066</v>
+        <v>6613124.1622</v>
       </c>
       <c r="G86" t="n">
-        <v>623301515.43361</v>
+        <v>-45409669.75682253</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3763,11 +3507,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3778,22 +3518,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.3528</v>
+        <v>0.3602</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3528</v>
+        <v>0.3602</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3528</v>
+        <v>0.3602</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3528</v>
+        <v>0.3602</v>
       </c>
       <c r="F87" t="n">
-        <v>262167.8877</v>
+        <v>9362.257799999999</v>
       </c>
       <c r="G87" t="n">
-        <v>623301515.43361</v>
+        <v>-45419032.01462252</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3803,11 +3543,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3818,37 +3554,35 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.3517</v>
+        <v>0.3604</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3519</v>
+        <v>0.3605</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3519</v>
+        <v>0.3605</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3517</v>
+        <v>0.3604</v>
       </c>
       <c r="F88" t="n">
-        <v>2387107</v>
+        <v>2136398.4312</v>
       </c>
       <c r="G88" t="n">
-        <v>620914408.43361</v>
+        <v>-43282633.58342253</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
       <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
@@ -3856,22 +3590,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.3517</v>
+        <v>0.3607</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3517</v>
+        <v>0.3607</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3517</v>
+        <v>0.3607</v>
       </c>
       <c r="E89" t="n">
-        <v>0.3517</v>
+        <v>0.3607</v>
       </c>
       <c r="F89" t="n">
-        <v>5451.1717</v>
+        <v>8814.07</v>
       </c>
       <c r="G89" t="n">
-        <v>620908957.26191</v>
+        <v>-43273819.51342253</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3892,22 +3626,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.3495</v>
+        <v>0.3611</v>
       </c>
       <c r="C90" t="n">
-        <v>0.3548</v>
+        <v>0.3611</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3548</v>
+        <v>0.3611</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3495</v>
+        <v>0.3611</v>
       </c>
       <c r="F90" t="n">
-        <v>394809.1163</v>
+        <v>27693.1598</v>
       </c>
       <c r="G90" t="n">
-        <v>621303766.3782099</v>
+        <v>-43246126.35362253</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3928,22 +3662,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.3546</v>
+        <v>0.3612</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3545</v>
+        <v>0.3612</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3546</v>
+        <v>0.3612</v>
       </c>
       <c r="E91" t="n">
-        <v>0.3545</v>
+        <v>0.3612</v>
       </c>
       <c r="F91" t="n">
-        <v>1207673.3758</v>
+        <v>27685.4929</v>
       </c>
       <c r="G91" t="n">
-        <v>620096093.0024099</v>
+        <v>-43218440.86072253</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3964,22 +3698,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.3545</v>
+        <v>0.3605</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3545</v>
+        <v>0.3605</v>
       </c>
       <c r="D92" t="n">
-        <v>0.3545</v>
+        <v>0.3605</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3545</v>
+        <v>0.3605</v>
       </c>
       <c r="F92" t="n">
-        <v>303033.9755</v>
+        <v>31437.7307</v>
       </c>
       <c r="G92" t="n">
-        <v>620096093.0024099</v>
+        <v>-43249878.59142253</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4000,22 +3734,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3521</v>
+        <v>0.3601</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3521</v>
+        <v>0.3601</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3521</v>
+        <v>0.3601</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3521</v>
+        <v>0.3601</v>
       </c>
       <c r="F93" t="n">
-        <v>1154904.1414</v>
+        <v>37640.155</v>
       </c>
       <c r="G93" t="n">
-        <v>618941188.86101</v>
+        <v>-43287518.74642253</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4036,22 +3770,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3516</v>
+        <v>0.36</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3516</v>
+        <v>0.36</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3516</v>
+        <v>0.36</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3516</v>
+        <v>0.36</v>
       </c>
       <c r="F94" t="n">
-        <v>19500</v>
+        <v>38078.6478</v>
       </c>
       <c r="G94" t="n">
-        <v>618921688.86101</v>
+        <v>-43325597.39422253</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4072,22 +3806,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.3494</v>
+        <v>0.36</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3489</v>
+        <v>0.36</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3494</v>
+        <v>0.36</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3489</v>
+        <v>0.36</v>
       </c>
       <c r="F95" t="n">
-        <v>2695125.6303</v>
+        <v>145000</v>
       </c>
       <c r="G95" t="n">
-        <v>616226563.2307099</v>
+        <v>-43325597.39422253</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4108,22 +3842,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3494</v>
+        <v>0.3605</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3494</v>
+        <v>0.3605</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3494</v>
+        <v>0.3605</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3494</v>
+        <v>0.3605</v>
       </c>
       <c r="F96" t="n">
-        <v>242516.6264</v>
+        <v>276699.02912621</v>
       </c>
       <c r="G96" t="n">
-        <v>616469079.8571099</v>
+        <v>-43048898.36509632</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4144,22 +3878,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3497</v>
+        <v>0.359</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3497</v>
+        <v>0.359</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3497</v>
+        <v>0.359</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3497</v>
+        <v>0.359</v>
       </c>
       <c r="F97" t="n">
-        <v>215981.5447</v>
+        <v>1500</v>
       </c>
       <c r="G97" t="n">
-        <v>616685061.4018099</v>
+        <v>-43050398.36509632</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4180,22 +3914,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.3598</v>
+        <v>0.358</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3598</v>
+        <v>0.358</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3598</v>
+        <v>0.358</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3598</v>
+        <v>0.358</v>
       </c>
       <c r="F98" t="n">
-        <v>2827</v>
+        <v>800921.6226999999</v>
       </c>
       <c r="G98" t="n">
-        <v>616687888.4018099</v>
+        <v>-43851319.98779631</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4216,28 +3950,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.3497</v>
+        <v>0.358</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3497</v>
+        <v>0.358</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3497</v>
+        <v>0.358</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3497</v>
+        <v>0.358</v>
       </c>
       <c r="F99" t="n">
-        <v>231654.4569</v>
+        <v>6501810.5049</v>
       </c>
       <c r="G99" t="n">
-        <v>616456233.9449099</v>
+        <v>-43851319.98779631</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4252,28 +3986,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.3592</v>
+        <v>0.358</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3464</v>
+        <v>0.358</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3592</v>
+        <v>0.358</v>
       </c>
       <c r="E100" t="n">
-        <v>0.3464</v>
+        <v>0.358</v>
       </c>
       <c r="F100" t="n">
-        <v>3062.361</v>
+        <v>1408245.6592</v>
       </c>
       <c r="G100" t="n">
-        <v>616453171.58391</v>
+        <v>-43851319.98779631</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4288,22 +4022,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.3464</v>
+        <v>0.358</v>
       </c>
       <c r="C101" t="n">
-        <v>0.345</v>
+        <v>0.3578</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3464</v>
+        <v>0.358</v>
       </c>
       <c r="E101" t="n">
-        <v>0.345</v>
+        <v>0.3578</v>
       </c>
       <c r="F101" t="n">
-        <v>13532442.0799</v>
+        <v>1030084.8866</v>
       </c>
       <c r="G101" t="n">
-        <v>602920729.50401</v>
+        <v>-44881404.87439632</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4324,22 +4058,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.3444</v>
+        <v>0.3578</v>
       </c>
       <c r="C102" t="n">
-        <v>0.34</v>
+        <v>0.3578</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3444</v>
+        <v>0.3578</v>
       </c>
       <c r="E102" t="n">
-        <v>0.34</v>
+        <v>0.3578</v>
       </c>
       <c r="F102" t="n">
-        <v>10293063.8673</v>
+        <v>790289.4398000001</v>
       </c>
       <c r="G102" t="n">
-        <v>592627665.6367099</v>
+        <v>-44881404.87439632</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4360,22 +4094,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.3401</v>
+        <v>0.3578</v>
       </c>
       <c r="C103" t="n">
-        <v>0.34</v>
+        <v>0.3578</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3401</v>
+        <v>0.3578</v>
       </c>
       <c r="E103" t="n">
-        <v>0.34</v>
+        <v>0.3578</v>
       </c>
       <c r="F103" t="n">
-        <v>2992804.8403</v>
+        <v>2467891.1525</v>
       </c>
       <c r="G103" t="n">
-        <v>592627665.6367099</v>
+        <v>-44881404.87439632</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4396,22 +4130,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.3436</v>
+        <v>0.3576</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3436</v>
+        <v>0.3572</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3436</v>
+        <v>0.3576</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3436</v>
+        <v>0.3572</v>
       </c>
       <c r="F104" t="n">
-        <v>10000</v>
+        <v>127195.1428</v>
       </c>
       <c r="G104" t="n">
-        <v>592637665.6367099</v>
+        <v>-45008600.01719632</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4432,22 +4166,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3399</v>
+        <v>0.3565</v>
       </c>
       <c r="C105" t="n">
-        <v>0.3425</v>
+        <v>0.3565</v>
       </c>
       <c r="D105" t="n">
-        <v>0.3425</v>
+        <v>0.3565</v>
       </c>
       <c r="E105" t="n">
-        <v>0.3399</v>
+        <v>0.3565</v>
       </c>
       <c r="F105" t="n">
-        <v>1593015.8779</v>
+        <v>1500</v>
       </c>
       <c r="G105" t="n">
-        <v>591044649.7588099</v>
+        <v>-45010100.01719632</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4468,22 +4202,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.3423</v>
+        <v>0.3554</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3423</v>
+        <v>0.3546</v>
       </c>
       <c r="D106" t="n">
-        <v>0.3423</v>
+        <v>0.3554</v>
       </c>
       <c r="E106" t="n">
-        <v>0.3423</v>
+        <v>0.3546</v>
       </c>
       <c r="F106" t="n">
-        <v>77362.6844</v>
+        <v>1653812.7615</v>
       </c>
       <c r="G106" t="n">
-        <v>590967287.07441</v>
+        <v>-46663912.77869632</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4504,22 +4238,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.3423</v>
+        <v>0.3555</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3423</v>
+        <v>0.3547</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3423</v>
+        <v>0.3555</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3423</v>
+        <v>0.3502</v>
       </c>
       <c r="F107" t="n">
-        <v>224914.9522</v>
+        <v>623761286.62</v>
       </c>
       <c r="G107" t="n">
-        <v>590967287.07441</v>
+        <v>577097373.8413037</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4540,22 +4274,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.3454</v>
+        <v>0.35</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3409</v>
+        <v>0.3498</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3466</v>
+        <v>0.35</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3409</v>
+        <v>0.3498</v>
       </c>
       <c r="F108" t="n">
-        <v>267353.3603</v>
+        <v>5485227.2606</v>
       </c>
       <c r="G108" t="n">
-        <v>590699933.71411</v>
+        <v>571612146.5807037</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4576,22 +4310,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.3466</v>
+        <v>0.3498</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3468</v>
+        <v>0.3456</v>
       </c>
       <c r="D109" t="n">
-        <v>0.3468</v>
+        <v>0.3498</v>
       </c>
       <c r="E109" t="n">
-        <v>0.3466</v>
+        <v>0.3456</v>
       </c>
       <c r="F109" t="n">
-        <v>7503077.3718</v>
+        <v>1834763.9094</v>
       </c>
       <c r="G109" t="n">
-        <v>598203011.08591</v>
+        <v>569777382.6713037</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4612,22 +4346,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3547</v>
+        <v>0.3482</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3547</v>
+        <v>0.3482</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3547</v>
+        <v>0.3482</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3547</v>
+        <v>0.3482</v>
       </c>
       <c r="F110" t="n">
-        <v>5621.6942</v>
+        <v>678958</v>
       </c>
       <c r="G110" t="n">
-        <v>598208632.78011</v>
+        <v>570456340.6713037</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4648,22 +4382,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.3472</v>
+        <v>0.3481</v>
       </c>
       <c r="C111" t="n">
-        <v>0.3472</v>
+        <v>0.3554</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3545</v>
+        <v>0.3555</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3472</v>
+        <v>0.3469</v>
       </c>
       <c r="F111" t="n">
-        <v>6286.8837</v>
+        <v>5074216</v>
       </c>
       <c r="G111" t="n">
-        <v>598202345.89641</v>
+        <v>575530556.6713037</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4684,22 +4418,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.347</v>
+        <v>0.35</v>
       </c>
       <c r="C112" t="n">
-        <v>0.347</v>
+        <v>0.3495</v>
       </c>
       <c r="D112" t="n">
-        <v>0.347</v>
+        <v>0.35</v>
       </c>
       <c r="E112" t="n">
-        <v>0.347</v>
+        <v>0.3495</v>
       </c>
       <c r="F112" t="n">
-        <v>39639.5284</v>
+        <v>2378062.2217</v>
       </c>
       <c r="G112" t="n">
-        <v>598162706.36801</v>
+        <v>573152494.4496038</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4720,22 +4454,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.3473</v>
+        <v>0.3495</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3473</v>
+        <v>0.3495</v>
       </c>
       <c r="D113" t="n">
-        <v>0.3473</v>
+        <v>0.3495</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3473</v>
+        <v>0.3495</v>
       </c>
       <c r="F113" t="n">
-        <v>1944.9572</v>
+        <v>373345.14</v>
       </c>
       <c r="G113" t="n">
-        <v>598164651.3252101</v>
+        <v>573152494.4496038</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4756,22 +4490,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.3473</v>
+        <v>0.35</v>
       </c>
       <c r="C114" t="n">
-        <v>0.347</v>
+        <v>0.35</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3473</v>
+        <v>0.35</v>
       </c>
       <c r="E114" t="n">
-        <v>0.347</v>
+        <v>0.35</v>
       </c>
       <c r="F114" t="n">
-        <v>46603.7253</v>
+        <v>11153.0887</v>
       </c>
       <c r="G114" t="n">
-        <v>598118047.5999101</v>
+        <v>573163647.5383039</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4792,22 +4526,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.3471</v>
+        <v>0.3495</v>
       </c>
       <c r="C115" t="n">
-        <v>0.3468</v>
+        <v>0.3495</v>
       </c>
       <c r="D115" t="n">
-        <v>0.3471</v>
+        <v>0.3495</v>
       </c>
       <c r="E115" t="n">
-        <v>0.3468</v>
+        <v>0.3495</v>
       </c>
       <c r="F115" t="n">
-        <v>4894892.4026</v>
+        <v>2015198.9998</v>
       </c>
       <c r="G115" t="n">
-        <v>593223155.1973101</v>
+        <v>571148448.5385039</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4828,22 +4562,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.3507</v>
+        <v>0.3495</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3469</v>
+        <v>0.3495</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3507</v>
+        <v>0.3495</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3469</v>
+        <v>0.3495</v>
       </c>
       <c r="F116" t="n">
-        <v>48283.485</v>
+        <v>1560497.9998</v>
       </c>
       <c r="G116" t="n">
-        <v>593271438.6823101</v>
+        <v>571148448.5385039</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4864,22 +4598,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.3539</v>
+        <v>0.35</v>
       </c>
       <c r="C117" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="D117" t="n">
-        <v>0.3539</v>
+        <v>0.35</v>
       </c>
       <c r="E117" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="F117" t="n">
-        <v>4540.8875</v>
+        <v>3733992.3523</v>
       </c>
       <c r="G117" t="n">
-        <v>593275979.5698102</v>
+        <v>574882440.8908039</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4900,22 +4634,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.3491</v>
+        <v>0.35</v>
       </c>
       <c r="C118" t="n">
-        <v>0.3491</v>
+        <v>0.35</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3491</v>
+        <v>0.35</v>
       </c>
       <c r="E118" t="n">
-        <v>0.3491</v>
+        <v>0.35</v>
       </c>
       <c r="F118" t="n">
-        <v>1675.5579</v>
+        <v>1496991.6026</v>
       </c>
       <c r="G118" t="n">
-        <v>593277655.1277101</v>
+        <v>574882440.8908039</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4936,22 +4670,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.3525</v>
+        <v>0.35</v>
       </c>
       <c r="C119" t="n">
-        <v>0.3525</v>
+        <v>0.35</v>
       </c>
       <c r="D119" t="n">
-        <v>0.3525</v>
+        <v>0.35</v>
       </c>
       <c r="E119" t="n">
-        <v>0.3525</v>
+        <v>0.35</v>
       </c>
       <c r="F119" t="n">
-        <v>1411.6319</v>
+        <v>4813900.3132</v>
       </c>
       <c r="G119" t="n">
-        <v>593279066.7596101</v>
+        <v>574882440.8908039</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4972,22 +4706,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3534</v>
+        <v>0.3473</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3534</v>
+        <v>0.3473</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3534</v>
+        <v>0.3473</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3534</v>
+        <v>0.3473</v>
       </c>
       <c r="F120" t="n">
-        <v>1418.4398</v>
+        <v>1627123.1507</v>
       </c>
       <c r="G120" t="n">
-        <v>593280485.1994101</v>
+        <v>573255317.740104</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5008,31 +4742,35 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.353</v>
+        <v>0.3476</v>
       </c>
       <c r="C121" t="n">
-        <v>0.353</v>
+        <v>0.3476</v>
       </c>
       <c r="D121" t="n">
-        <v>0.353</v>
+        <v>0.3476</v>
       </c>
       <c r="E121" t="n">
-        <v>0.353</v>
+        <v>0.3476</v>
       </c>
       <c r="F121" t="n">
-        <v>1416.4306</v>
+        <v>28450529.3809</v>
       </c>
       <c r="G121" t="n">
-        <v>593279068.76881</v>
+        <v>601705847.121004</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0.3473</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.3473</v>
+      </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
@@ -5044,22 +4782,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3529</v>
+        <v>0.3476</v>
       </c>
       <c r="C122" t="n">
-        <v>0.353</v>
+        <v>0.3476</v>
       </c>
       <c r="D122" t="n">
-        <v>0.353</v>
+        <v>0.3476</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3529</v>
+        <v>0.3476</v>
       </c>
       <c r="F122" t="n">
-        <v>2821060.9242</v>
+        <v>1036664.7042</v>
       </c>
       <c r="G122" t="n">
-        <v>593279068.76881</v>
+        <v>601705847.121004</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5068,8 +4806,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>0.3473</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5080,22 +4824,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.3534</v>
+        <v>0.3476</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3534</v>
+        <v>0.3476</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3534</v>
+        <v>0.3476</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3534</v>
+        <v>0.3476</v>
       </c>
       <c r="F123" t="n">
-        <v>2441.4346</v>
+        <v>3000000</v>
       </c>
       <c r="G123" t="n">
-        <v>593281510.20341</v>
+        <v>601705847.121004</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5104,8 +4848,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>0.3473</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5116,22 +4866,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3539</v>
+        <v>0.347</v>
       </c>
       <c r="C124" t="n">
-        <v>0.3539</v>
+        <v>0.347</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3539</v>
+        <v>0.3476</v>
       </c>
       <c r="E124" t="n">
-        <v>0.3539</v>
+        <v>0.347</v>
       </c>
       <c r="F124" t="n">
-        <v>1408.4508</v>
+        <v>1420265.24</v>
       </c>
       <c r="G124" t="n">
-        <v>593282918.65421</v>
+        <v>600285581.881004</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5152,32 +4902,38 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3538</v>
+        <v>0.347</v>
       </c>
       <c r="C125" t="n">
-        <v>0.3538</v>
+        <v>0.347</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3538</v>
+        <v>0.347</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3538</v>
+        <v>0.3469</v>
       </c>
       <c r="F125" t="n">
-        <v>1413.2279</v>
+        <v>5942382.9225</v>
       </c>
       <c r="G125" t="n">
-        <v>593281505.4263099</v>
+        <v>600285581.881004</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0.347</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5188,22 +4944,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="C126" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="D126" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="E126" t="n">
-        <v>0.353</v>
+        <v>0.3464</v>
       </c>
       <c r="F126" t="n">
-        <v>107475.92067988</v>
+        <v>4121088.1097</v>
       </c>
       <c r="G126" t="n">
-        <v>593174029.50563</v>
+        <v>600285581.881004</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5213,7 +4969,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5224,32 +4984,38 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="C127" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="D127" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="E127" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="F127" t="n">
-        <v>98558.5675</v>
+        <v>6361380.8397</v>
       </c>
       <c r="G127" t="n">
-        <v>593174029.50563</v>
+        <v>600285581.881004</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0.347</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5260,32 +5026,38 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="C128" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="D128" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="E128" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="F128" t="n">
-        <v>1578137.1074</v>
+        <v>8939812.758199999</v>
       </c>
       <c r="G128" t="n">
-        <v>593174029.50563</v>
+        <v>600285581.881004</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0.347</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5296,32 +5068,38 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="C129" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="D129" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="E129" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="F129" t="n">
-        <v>228557.5672</v>
+        <v>3106193</v>
       </c>
       <c r="G129" t="n">
-        <v>593174029.50563</v>
+        <v>600285581.881004</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0.347</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5332,32 +5110,38 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="C130" t="n">
-        <v>0.353</v>
+        <v>0.3514</v>
       </c>
       <c r="D130" t="n">
-        <v>0.353</v>
+        <v>0.3514</v>
       </c>
       <c r="E130" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="F130" t="n">
-        <v>2561226.1347</v>
+        <v>747979.67898229</v>
       </c>
       <c r="G130" t="n">
-        <v>593174029.50563</v>
+        <v>601033561.5599862</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0.347</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5368,32 +5152,38 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="C131" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="D131" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="E131" t="n">
-        <v>0.353</v>
+        <v>0.347</v>
       </c>
       <c r="F131" t="n">
-        <v>1365664.445</v>
+        <v>230211.9753</v>
       </c>
       <c r="G131" t="n">
-        <v>593174029.50563</v>
+        <v>600803349.5846863</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0.3514</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5404,32 +5194,38 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.3528</v>
+        <v>0.347</v>
       </c>
       <c r="C132" t="n">
-        <v>0.3504</v>
+        <v>0.347</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3528</v>
+        <v>0.347</v>
       </c>
       <c r="E132" t="n">
-        <v>0.3504</v>
+        <v>0.347</v>
       </c>
       <c r="F132" t="n">
-        <v>1358806.4828</v>
+        <v>1124389.6449</v>
       </c>
       <c r="G132" t="n">
-        <v>591815223.02283</v>
+        <v>600803349.5846863</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0.347</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5440,22 +5236,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.3503</v>
+        <v>0.347</v>
       </c>
       <c r="C133" t="n">
-        <v>0.3503</v>
+        <v>0.352</v>
       </c>
       <c r="D133" t="n">
-        <v>0.3503</v>
+        <v>0.3521</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3503</v>
+        <v>0.347</v>
       </c>
       <c r="F133" t="n">
-        <v>2039141.0225</v>
+        <v>4892010.6526</v>
       </c>
       <c r="G133" t="n">
-        <v>589776082.00033</v>
+        <v>605695360.2372863</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5465,7 +5261,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5479,19 +5279,19 @@
         <v>0.3503</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3503</v>
+        <v>0.346</v>
       </c>
       <c r="D134" t="n">
-        <v>0.3503</v>
+        <v>0.3504</v>
       </c>
       <c r="E134" t="n">
-        <v>0.3503</v>
+        <v>0.346</v>
       </c>
       <c r="F134" t="n">
-        <v>567871.8626</v>
+        <v>1854960.4944</v>
       </c>
       <c r="G134" t="n">
-        <v>589776082.00033</v>
+        <v>603840399.7428863</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5501,7 +5301,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5512,22 +5316,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3503</v>
+        <v>0.3494</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3503</v>
+        <v>0.3468</v>
       </c>
       <c r="D135" t="n">
-        <v>0.3503</v>
+        <v>0.3494</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3503</v>
+        <v>0.3468</v>
       </c>
       <c r="F135" t="n">
-        <v>737881.3073</v>
+        <v>15042055.3768</v>
       </c>
       <c r="G135" t="n">
-        <v>589776082.00033</v>
+        <v>618882455.1196864</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5537,7 +5341,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5548,22 +5356,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.353</v>
+        <v>0.3501</v>
       </c>
       <c r="C136" t="n">
-        <v>0.353</v>
+        <v>0.3502</v>
       </c>
       <c r="D136" t="n">
-        <v>0.353</v>
+        <v>0.3502</v>
       </c>
       <c r="E136" t="n">
-        <v>0.353</v>
+        <v>0.3501</v>
       </c>
       <c r="F136" t="n">
-        <v>175000</v>
+        <v>1884726.1494</v>
       </c>
       <c r="G136" t="n">
-        <v>589951082.00033</v>
+        <v>620767181.2690864</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5573,7 +5381,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5584,22 +5396,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.3507</v>
+        <v>0.3504</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3506</v>
+        <v>0.3458</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3507</v>
+        <v>0.3504</v>
       </c>
       <c r="E137" t="n">
-        <v>0.3506</v>
+        <v>0.3458</v>
       </c>
       <c r="F137" t="n">
-        <v>6294.4285</v>
+        <v>2910.959</v>
       </c>
       <c r="G137" t="n">
-        <v>589944787.5718299</v>
+        <v>620764270.3100864</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5609,7 +5421,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5620,22 +5436,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.3538</v>
+        <v>0.349</v>
       </c>
       <c r="C138" t="n">
-        <v>0.3538</v>
+        <v>0.3492</v>
       </c>
       <c r="D138" t="n">
-        <v>0.3538</v>
+        <v>0.3492</v>
       </c>
       <c r="E138" t="n">
-        <v>0.3538</v>
+        <v>0.349</v>
       </c>
       <c r="F138" t="n">
-        <v>660818.99</v>
+        <v>276875.6725</v>
       </c>
       <c r="G138" t="n">
-        <v>590605606.5618299</v>
+        <v>621041145.9825864</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5645,7 +5461,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5656,22 +5476,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.354</v>
+        <v>0.3494</v>
       </c>
       <c r="C139" t="n">
-        <v>0.354</v>
+        <v>0.3494</v>
       </c>
       <c r="D139" t="n">
-        <v>0.354</v>
+        <v>0.3494</v>
       </c>
       <c r="E139" t="n">
-        <v>0.354</v>
+        <v>0.3494</v>
       </c>
       <c r="F139" t="n">
-        <v>1106854.1922</v>
+        <v>154196.9575</v>
       </c>
       <c r="G139" t="n">
-        <v>591712460.7540299</v>
+        <v>621195342.9400864</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5681,7 +5501,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5692,22 +5516,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.354</v>
+        <v>0.3493</v>
       </c>
       <c r="C140" t="n">
-        <v>0.354</v>
+        <v>0.3493</v>
       </c>
       <c r="D140" t="n">
-        <v>0.354</v>
+        <v>0.3493</v>
       </c>
       <c r="E140" t="n">
-        <v>0.354</v>
+        <v>0.3493</v>
       </c>
       <c r="F140" t="n">
-        <v>288568.4517</v>
+        <v>177885.1468</v>
       </c>
       <c r="G140" t="n">
-        <v>591712460.7540299</v>
+        <v>621017457.7932863</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5717,7 +5541,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5728,22 +5556,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.3542</v>
+        <v>0.3493</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3542</v>
+        <v>0.3493</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3542</v>
+        <v>0.3493</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3542</v>
+        <v>0.3493</v>
       </c>
       <c r="F141" t="n">
-        <v>155679.88</v>
+        <v>443011.3736</v>
       </c>
       <c r="G141" t="n">
-        <v>591868140.6340299</v>
+        <v>621017457.7932863</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5753,7 +5581,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5764,22 +5596,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.3507</v>
+        <v>0.3493</v>
       </c>
       <c r="C142" t="n">
-        <v>0.3507</v>
+        <v>0.3493</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3507</v>
+        <v>0.3493</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3507</v>
+        <v>0.3493</v>
       </c>
       <c r="F142" t="n">
-        <v>3140.0629</v>
+        <v>664519.9197</v>
       </c>
       <c r="G142" t="n">
-        <v>591865000.5711299</v>
+        <v>621017457.7932863</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5789,7 +5621,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5800,22 +5636,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.3506</v>
+        <v>0.3466</v>
       </c>
       <c r="C143" t="n">
-        <v>0.3506</v>
+        <v>0.3466</v>
       </c>
       <c r="D143" t="n">
-        <v>0.3506</v>
+        <v>0.3466</v>
       </c>
       <c r="E143" t="n">
-        <v>0.3506</v>
+        <v>0.3466</v>
       </c>
       <c r="F143" t="n">
-        <v>1426.1267</v>
+        <v>25083.0131</v>
       </c>
       <c r="G143" t="n">
-        <v>591863574.4444299</v>
+        <v>620992374.7801863</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5825,7 +5661,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5836,22 +5676,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.3517</v>
+        <v>0.3486</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3517</v>
+        <v>0.3484</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3517</v>
+        <v>0.3486</v>
       </c>
       <c r="E144" t="n">
-        <v>0.3517</v>
+        <v>0.3484</v>
       </c>
       <c r="F144" t="n">
-        <v>1421.6662</v>
+        <v>291380.4161</v>
       </c>
       <c r="G144" t="n">
-        <v>591864996.1106299</v>
+        <v>621283755.1962863</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5861,7 +5701,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5872,22 +5716,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.3542</v>
+        <v>0.3482</v>
       </c>
       <c r="C145" t="n">
-        <v>0.3542</v>
+        <v>0.3482</v>
       </c>
       <c r="D145" t="n">
-        <v>0.3542</v>
+        <v>0.3482</v>
       </c>
       <c r="E145" t="n">
-        <v>0.3542</v>
+        <v>0.3482</v>
       </c>
       <c r="F145" t="n">
-        <v>8825.6875</v>
+        <v>93742.52469999999</v>
       </c>
       <c r="G145" t="n">
-        <v>591873821.7981299</v>
+        <v>621190012.6715863</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5897,7 +5741,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5908,32 +5756,36 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.3543</v>
+        <v>0.3482</v>
       </c>
       <c r="C146" t="n">
-        <v>0.3543</v>
+        <v>0.3482</v>
       </c>
       <c r="D146" t="n">
-        <v>0.3543</v>
+        <v>0.3482</v>
       </c>
       <c r="E146" t="n">
-        <v>0.3543</v>
+        <v>0.3482</v>
       </c>
       <c r="F146" t="n">
-        <v>11630.7733</v>
+        <v>1474955.9329</v>
       </c>
       <c r="G146" t="n">
-        <v>591885452.57143</v>
+        <v>621190012.6715863</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5944,22 +5796,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.3543</v>
+        <v>0.3483</v>
       </c>
       <c r="C147" t="n">
-        <v>0.3543</v>
+        <v>0.3483</v>
       </c>
       <c r="D147" t="n">
-        <v>0.3543</v>
+        <v>0.3483</v>
       </c>
       <c r="E147" t="n">
-        <v>0.3543</v>
+        <v>0.3483</v>
       </c>
       <c r="F147" t="n">
-        <v>288568.4517</v>
+        <v>552948.9510999999</v>
       </c>
       <c r="G147" t="n">
-        <v>591885452.57143</v>
+        <v>621742961.6226863</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5969,7 +5821,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5980,22 +5836,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.355</v>
+        <v>0.3483</v>
       </c>
       <c r="C148" t="n">
-        <v>0.3551</v>
+        <v>0.3483</v>
       </c>
       <c r="D148" t="n">
-        <v>0.3574</v>
+        <v>0.3483</v>
       </c>
       <c r="E148" t="n">
-        <v>0.355</v>
+        <v>0.3483</v>
       </c>
       <c r="F148" t="n">
-        <v>3833655.83440416</v>
+        <v>276474.4755</v>
       </c>
       <c r="G148" t="n">
-        <v>595719108.4058341</v>
+        <v>621742961.6226863</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6005,7 +5861,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6016,22 +5876,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.3573</v>
+        <v>0.3487</v>
       </c>
       <c r="C149" t="n">
-        <v>0.3574</v>
+        <v>0.3487</v>
       </c>
       <c r="D149" t="n">
-        <v>0.3574</v>
+        <v>0.3487</v>
       </c>
       <c r="E149" t="n">
-        <v>0.3573</v>
+        <v>0.3487</v>
       </c>
       <c r="F149" t="n">
-        <v>8707975.193695839</v>
+        <v>276160.216</v>
       </c>
       <c r="G149" t="n">
-        <v>604427083.5995299</v>
+        <v>622019121.8386862</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6041,7 +5901,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6052,32 +5916,36 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.3574</v>
+        <v>0.3465</v>
       </c>
       <c r="C150" t="n">
-        <v>0.3574</v>
+        <v>0.3465</v>
       </c>
       <c r="D150" t="n">
-        <v>0.3574</v>
+        <v>0.3465</v>
       </c>
       <c r="E150" t="n">
-        <v>0.3574</v>
+        <v>0.3465</v>
       </c>
       <c r="F150" t="n">
-        <v>144757.4443</v>
+        <v>408573.8428</v>
       </c>
       <c r="G150" t="n">
-        <v>604427083.5995299</v>
+        <v>621610547.9958862</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6088,32 +5956,36 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.3598</v>
+        <v>0.349</v>
       </c>
       <c r="C151" t="n">
-        <v>0.3598</v>
+        <v>0.349</v>
       </c>
       <c r="D151" t="n">
-        <v>0.3598</v>
+        <v>0.349</v>
       </c>
       <c r="E151" t="n">
-        <v>0.3598</v>
+        <v>0.349</v>
       </c>
       <c r="F151" t="n">
-        <v>296274.6274</v>
+        <v>11982.3364</v>
       </c>
       <c r="G151" t="n">
-        <v>604723358.2269299</v>
+        <v>621622530.3322862</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6124,32 +5996,36 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.3574</v>
+        <v>0.3504</v>
       </c>
       <c r="C152" t="n">
-        <v>0.3574</v>
+        <v>0.3504</v>
       </c>
       <c r="D152" t="n">
-        <v>0.3574</v>
+        <v>0.3504</v>
       </c>
       <c r="E152" t="n">
-        <v>0.3574</v>
+        <v>0.3504</v>
       </c>
       <c r="F152" t="n">
-        <v>4.16e-06</v>
+        <v>1416514.446</v>
       </c>
       <c r="G152" t="n">
-        <v>604723358.2269257</v>
+        <v>623039044.7782862</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6160,32 +6036,36 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.3574</v>
+        <v>0.3504</v>
       </c>
       <c r="C153" t="n">
-        <v>0.3574</v>
+        <v>0.3504</v>
       </c>
       <c r="D153" t="n">
-        <v>0.3574</v>
+        <v>0.3504</v>
       </c>
       <c r="E153" t="n">
-        <v>0.3574</v>
+        <v>0.3504</v>
       </c>
       <c r="F153" t="n">
-        <v>3406876.8481</v>
+        <v>1328177.1028</v>
       </c>
       <c r="G153" t="n">
-        <v>604723358.2269257</v>
+        <v>623039044.7782862</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6196,32 +6076,36 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.3599</v>
+        <v>0.3504</v>
       </c>
       <c r="C154" t="n">
-        <v>0.3561</v>
+        <v>0.3504</v>
       </c>
       <c r="D154" t="n">
-        <v>0.3599</v>
+        <v>0.3504</v>
       </c>
       <c r="E154" t="n">
-        <v>0.3561</v>
+        <v>0.3504</v>
       </c>
       <c r="F154" t="n">
-        <v>2834.1206</v>
+        <v>1439359.0011</v>
       </c>
       <c r="G154" t="n">
-        <v>604720524.1063257</v>
+        <v>623039044.7782862</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6232,32 +6116,36 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.3562</v>
+        <v>0.3504</v>
       </c>
       <c r="C155" t="n">
-        <v>0.3562</v>
+        <v>0.3504</v>
       </c>
       <c r="D155" t="n">
-        <v>0.3562</v>
+        <v>0.3504</v>
       </c>
       <c r="E155" t="n">
-        <v>0.3562</v>
+        <v>0.3504</v>
       </c>
       <c r="F155" t="n">
-        <v>733356.9579</v>
+        <v>0.0001</v>
       </c>
       <c r="G155" t="n">
-        <v>605453881.0642258</v>
+        <v>623039044.7782862</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6268,32 +6156,36 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.3561</v>
+        <v>0.3526</v>
       </c>
       <c r="C156" t="n">
-        <v>0.3561</v>
+        <v>0.3526</v>
       </c>
       <c r="D156" t="n">
-        <v>0.3561</v>
+        <v>0.3526</v>
       </c>
       <c r="E156" t="n">
-        <v>0.3561</v>
+        <v>0.3526</v>
       </c>
       <c r="F156" t="n">
-        <v>30210.6508</v>
+        <v>28360.74872376</v>
       </c>
       <c r="G156" t="n">
-        <v>605423670.4134258</v>
+        <v>623067405.52701</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6304,32 +6196,36 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.3561</v>
+        <v>0.3528</v>
       </c>
       <c r="C157" t="n">
-        <v>0.3561</v>
+        <v>0.3528</v>
       </c>
       <c r="D157" t="n">
-        <v>0.3561</v>
+        <v>0.3528</v>
       </c>
       <c r="E157" t="n">
-        <v>0.3561</v>
+        <v>0.3528</v>
       </c>
       <c r="F157" t="n">
-        <v>2100177.216</v>
+        <v>234109.9066</v>
       </c>
       <c r="G157" t="n">
-        <v>605423670.4134258</v>
+        <v>623301515.43361</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6340,36 +6236,2606 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.3561</v>
+        <v>0.3528</v>
       </c>
       <c r="C158" t="n">
-        <v>0.3561</v>
+        <v>0.3528</v>
       </c>
       <c r="D158" t="n">
-        <v>0.3561</v>
+        <v>0.3528</v>
       </c>
       <c r="E158" t="n">
-        <v>0.3561</v>
+        <v>0.3528</v>
       </c>
       <c r="F158" t="n">
-        <v>320702.9999</v>
+        <v>262167.8877</v>
       </c>
       <c r="G158" t="n">
-        <v>605423670.4134258</v>
+        <v>623301515.43361</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
       <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.3519</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.3519</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2387107</v>
+      </c>
+      <c r="G159" t="n">
+        <v>620914408.43361</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="F160" t="n">
+        <v>5451.1717</v>
+      </c>
+      <c r="G160" t="n">
+        <v>620908957.26191</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.3495</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.3548</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.3548</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.3495</v>
+      </c>
+      <c r="F161" t="n">
+        <v>394809.1163</v>
+      </c>
+      <c r="G161" t="n">
+        <v>621303766.3782099</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.3546</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.3546</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1207673.3758</v>
+      </c>
+      <c r="G162" t="n">
+        <v>620096093.0024099</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="F163" t="n">
+        <v>303033.9755</v>
+      </c>
+      <c r="G163" t="n">
+        <v>620096093.0024099</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.3521</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.3521</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.3521</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.3521</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1154904.1414</v>
+      </c>
+      <c r="G164" t="n">
+        <v>618941188.86101</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.3516</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.3516</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.3516</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.3516</v>
+      </c>
+      <c r="F165" t="n">
+        <v>19500</v>
+      </c>
+      <c r="G165" t="n">
+        <v>618921688.86101</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.3489</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.3489</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2695125.6303</v>
+      </c>
+      <c r="G166" t="n">
+        <v>616226563.2307099</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="F167" t="n">
+        <v>242516.6264</v>
+      </c>
+      <c r="G167" t="n">
+        <v>616469079.8571099</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.3497</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.3497</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.3497</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.3497</v>
+      </c>
+      <c r="F168" t="n">
+        <v>215981.5447</v>
+      </c>
+      <c r="G168" t="n">
+        <v>616685061.4018099</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2827</v>
+      </c>
+      <c r="G169" t="n">
+        <v>616687888.4018099</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.3497</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.3497</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.3497</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.3497</v>
+      </c>
+      <c r="F170" t="n">
+        <v>231654.4569</v>
+      </c>
+      <c r="G170" t="n">
+        <v>616456233.9449099</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.3592</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.3464</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.3592</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.3464</v>
+      </c>
+      <c r="F171" t="n">
+        <v>3062.361</v>
+      </c>
+      <c r="G171" t="n">
+        <v>616453171.58391</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.3464</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.3464</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F172" t="n">
+        <v>13532442.0799</v>
+      </c>
+      <c r="G172" t="n">
+        <v>602920729.50401</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.3444</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.3444</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F173" t="n">
+        <v>10293063.8673</v>
+      </c>
+      <c r="G173" t="n">
+        <v>592627665.6367099</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.3401</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.3401</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2992804.8403</v>
+      </c>
+      <c r="G174" t="n">
+        <v>592627665.6367099</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.3436</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.3436</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.3436</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.3436</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G175" t="n">
+        <v>592637665.6367099</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1593015.8779</v>
+      </c>
+      <c r="G176" t="n">
+        <v>591044649.7588099</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="F177" t="n">
+        <v>77362.6844</v>
+      </c>
+      <c r="G177" t="n">
+        <v>590967287.07441</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="F178" t="n">
+        <v>224914.9522</v>
+      </c>
+      <c r="G178" t="n">
+        <v>590967287.07441</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.3454</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.3409</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.3466</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.3409</v>
+      </c>
+      <c r="F179" t="n">
+        <v>267353.3603</v>
+      </c>
+      <c r="G179" t="n">
+        <v>590699933.71411</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.3466</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.3468</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.3468</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.3466</v>
+      </c>
+      <c r="F180" t="n">
+        <v>7503077.3718</v>
+      </c>
+      <c r="G180" t="n">
+        <v>598203011.08591</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.3547</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.3547</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.3547</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.3547</v>
+      </c>
+      <c r="F181" t="n">
+        <v>5621.6942</v>
+      </c>
+      <c r="G181" t="n">
+        <v>598208632.78011</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.3472</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.3472</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.3472</v>
+      </c>
+      <c r="F182" t="n">
+        <v>6286.8837</v>
+      </c>
+      <c r="G182" t="n">
+        <v>598202345.89641</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="F183" t="n">
+        <v>39639.5284</v>
+      </c>
+      <c r="G183" t="n">
+        <v>598162706.36801</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.3473</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.3473</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.3473</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.3473</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1944.9572</v>
+      </c>
+      <c r="G184" t="n">
+        <v>598164651.3252101</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.3473</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.3473</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="F185" t="n">
+        <v>46603.7253</v>
+      </c>
+      <c r="G185" t="n">
+        <v>598118047.5999101</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.3471</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.3468</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.3471</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.3468</v>
+      </c>
+      <c r="F186" t="n">
+        <v>4894892.4026</v>
+      </c>
+      <c r="G186" t="n">
+        <v>593223155.1973101</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.3469</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.3469</v>
+      </c>
+      <c r="F187" t="n">
+        <v>48283.485</v>
+      </c>
+      <c r="G187" t="n">
+        <v>593271438.6823101</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.3539</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.3539</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="F188" t="n">
+        <v>4540.8875</v>
+      </c>
+      <c r="G188" t="n">
+        <v>593275979.5698102</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.3491</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.3491</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.3491</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.3491</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1675.5579</v>
+      </c>
+      <c r="G189" t="n">
+        <v>593277655.1277101</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.3525</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.3525</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.3525</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.3525</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1411.6319</v>
+      </c>
+      <c r="G190" t="n">
+        <v>593279066.7596101</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.3534</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.3534</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.3534</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.3534</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1418.4398</v>
+      </c>
+      <c r="G191" t="n">
+        <v>593280485.1994101</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1416.4306</v>
+      </c>
+      <c r="G192" t="n">
+        <v>593279068.76881</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.3529</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.3529</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2821060.9242</v>
+      </c>
+      <c r="G193" t="n">
+        <v>593279068.76881</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.3534</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.3534</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.3534</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.3534</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2441.4346</v>
+      </c>
+      <c r="G194" t="n">
+        <v>593281510.20341</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.3539</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.3539</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.3539</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.3539</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1408.4508</v>
+      </c>
+      <c r="G195" t="n">
+        <v>593282918.65421</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1413.2279</v>
+      </c>
+      <c r="G196" t="n">
+        <v>593281505.4263099</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="F197" t="n">
+        <v>107475.92067988</v>
+      </c>
+      <c r="G197" t="n">
+        <v>593174029.50563</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="F198" t="n">
+        <v>98558.5675</v>
+      </c>
+      <c r="G198" t="n">
+        <v>593174029.50563</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1578137.1074</v>
+      </c>
+      <c r="G199" t="n">
+        <v>593174029.50563</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="F200" t="n">
+        <v>228557.5672</v>
+      </c>
+      <c r="G200" t="n">
+        <v>593174029.50563</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2561226.1347</v>
+      </c>
+      <c r="G201" t="n">
+        <v>593174029.50563</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1365664.445</v>
+      </c>
+      <c r="G202" t="n">
+        <v>593174029.50563</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.3528</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.3528</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1358806.4828</v>
+      </c>
+      <c r="G203" t="n">
+        <v>591815223.02283</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.3503</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.3503</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.3503</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.3503</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2039141.0225</v>
+      </c>
+      <c r="G204" t="n">
+        <v>589776082.00033</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.3503</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.3503</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.3503</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.3503</v>
+      </c>
+      <c r="F205" t="n">
+        <v>567871.8626</v>
+      </c>
+      <c r="G205" t="n">
+        <v>589776082.00033</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.3503</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.3503</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.3503</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.3503</v>
+      </c>
+      <c r="F206" t="n">
+        <v>737881.3073</v>
+      </c>
+      <c r="G206" t="n">
+        <v>589776082.00033</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="F207" t="n">
+        <v>175000</v>
+      </c>
+      <c r="G207" t="n">
+        <v>589951082.00033</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.3506</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.3506</v>
+      </c>
+      <c r="F208" t="n">
+        <v>6294.4285</v>
+      </c>
+      <c r="G208" t="n">
+        <v>589944787.5718299</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="F209" t="n">
+        <v>660818.99</v>
+      </c>
+      <c r="G209" t="n">
+        <v>590605606.5618299</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1106854.1922</v>
+      </c>
+      <c r="G210" t="n">
+        <v>591712460.7540299</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="F211" t="n">
+        <v>288568.4517</v>
+      </c>
+      <c r="G211" t="n">
+        <v>591712460.7540299</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="F212" t="n">
+        <v>155679.88</v>
+      </c>
+      <c r="G212" t="n">
+        <v>591868140.6340299</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="F213" t="n">
+        <v>3140.0629</v>
+      </c>
+      <c r="G213" t="n">
+        <v>591865000.5711299</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.3506</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.3506</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.3506</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.3506</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1426.1267</v>
+      </c>
+      <c r="G214" t="n">
+        <v>591863574.4444299</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1421.6662</v>
+      </c>
+      <c r="G215" t="n">
+        <v>591864996.1106299</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="F216" t="n">
+        <v>8825.6875</v>
+      </c>
+      <c r="G216" t="n">
+        <v>591873821.7981299</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.3543</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.3543</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.3543</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.3543</v>
+      </c>
+      <c r="F217" t="n">
+        <v>11630.7733</v>
+      </c>
+      <c r="G217" t="n">
+        <v>591885452.57143</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.3543</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.3543</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.3543</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.3543</v>
+      </c>
+      <c r="F218" t="n">
+        <v>288568.4517</v>
+      </c>
+      <c r="G218" t="n">
+        <v>591885452.57143</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.3551</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F219" t="n">
+        <v>3833655.83440416</v>
+      </c>
+      <c r="G219" t="n">
+        <v>595719108.4058341</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.3573</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.3573</v>
+      </c>
+      <c r="F220" t="n">
+        <v>8707975.193695839</v>
+      </c>
+      <c r="G220" t="n">
+        <v>604427083.5995299</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="F221" t="n">
+        <v>144757.4443</v>
+      </c>
+      <c r="G221" t="n">
+        <v>604427083.5995299</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="F222" t="n">
+        <v>296274.6274</v>
+      </c>
+      <c r="G222" t="n">
+        <v>604723358.2269299</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="F223" t="n">
+        <v>4.16e-06</v>
+      </c>
+      <c r="G223" t="n">
+        <v>604723358.2269257</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="F224" t="n">
+        <v>3406876.8481</v>
+      </c>
+      <c r="G224" t="n">
+        <v>604723358.2269257</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.3599</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.3599</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="F225" t="n">
+        <v>2834.1206</v>
+      </c>
+      <c r="G225" t="n">
+        <v>604720524.1063257</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.3562</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.3562</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.3562</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.3562</v>
+      </c>
+      <c r="F226" t="n">
+        <v>733356.9579</v>
+      </c>
+      <c r="G226" t="n">
+        <v>605453881.0642258</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="F227" t="n">
+        <v>30210.6508</v>
+      </c>
+      <c r="G227" t="n">
+        <v>605423670.4134258</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="F228" t="n">
+        <v>2100177.216</v>
+      </c>
+      <c r="G228" t="n">
+        <v>605423670.4134258</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="F229" t="n">
+        <v>320702.9999</v>
+      </c>
+      <c r="G229" t="n">
+        <v>605423670.4134258</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-14 BackTest BTT.xlsx
+++ b/BackTest/2020-01-14 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N229"/>
+  <dimension ref="A1:M229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,22 +1936,15 @@
         <v>-42965613.794</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2116,26 +1969,15 @@
         <v>-42965613.794</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2160,26 +2002,15 @@
         <v>-33283183.794</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2206,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2242,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2278,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2314,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2348,18 +2167,15 @@
         <v>-28389681.3914</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2384,18 +2200,15 @@
         <v>-28392391.3914</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2420,18 +2233,15 @@
         <v>-28398114.3914</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2456,18 +2266,15 @@
         <v>-24436260.4156</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2494,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2530,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2566,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2602,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2638,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2674,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2710,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2746,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2782,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2818,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2854,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2890,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2926,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2962,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2998,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3034,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3070,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3106,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3142,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3178,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3214,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3250,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3286,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3322,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3358,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3394,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3430,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3466,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3500,18 +3223,15 @@
         <v>-45409669.75682253</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3538,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3574,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3610,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3646,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3682,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3718,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3754,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3788,18 +3487,15 @@
         <v>-43325597.39422253</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3826,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3862,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3898,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3934,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3970,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4006,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4042,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4076,18 +3751,15 @@
         <v>-44881404.87439632</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4114,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4150,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4186,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4220,18 +3883,15 @@
         <v>-46663912.77869632</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4258,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4294,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4330,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4366,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4402,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4438,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4474,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4510,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4546,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4582,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4618,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4654,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4690,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4726,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4760,22 +4378,15 @@
         <v>601705847.121004</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.3473</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.3473</v>
-      </c>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4802,22 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>0.3473</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4844,22 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>0.3473</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4886,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4920,2554 +4510,2283 @@
         <v>600285581.881004</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
         <v>0.347</v>
       </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
+      <c r="C126" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.3464</v>
+      </c>
+      <c r="F126" t="n">
+        <v>4121088.1097</v>
+      </c>
+      <c r="G126" t="n">
+        <v>600285581.881004</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="F127" t="n">
+        <v>6361380.8397</v>
+      </c>
+      <c r="G127" t="n">
+        <v>600285581.881004</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="F128" t="n">
+        <v>8939812.758199999</v>
+      </c>
+      <c r="G128" t="n">
+        <v>600285581.881004</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3106193</v>
+      </c>
+      <c r="G129" t="n">
+        <v>600285581.881004</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.3514</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.3514</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="F130" t="n">
+        <v>747979.67898229</v>
+      </c>
+      <c r="G130" t="n">
+        <v>601033561.5599862</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="F131" t="n">
+        <v>230211.9753</v>
+      </c>
+      <c r="G131" t="n">
+        <v>600803349.5846863</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1124389.6449</v>
+      </c>
+      <c r="G132" t="n">
+        <v>600803349.5846863</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.3521</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4892010.6526</v>
+      </c>
+      <c r="G133" t="n">
+        <v>605695360.2372863</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.3503</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1854960.4944</v>
+      </c>
+      <c r="G134" t="n">
+        <v>603840399.7428863</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.3468</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.3468</v>
+      </c>
+      <c r="F135" t="n">
+        <v>15042055.3768</v>
+      </c>
+      <c r="G135" t="n">
+        <v>618882455.1196864</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.3501</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.3502</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.3502</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.3501</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1884726.1494</v>
+      </c>
+      <c r="G136" t="n">
+        <v>620767181.2690864</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.3458</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.3458</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2910.959</v>
+      </c>
+      <c r="G137" t="n">
+        <v>620764270.3100864</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.3492</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.3492</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="F138" t="n">
+        <v>276875.6725</v>
+      </c>
+      <c r="G138" t="n">
+        <v>621041145.9825864</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="F139" t="n">
+        <v>154196.9575</v>
+      </c>
+      <c r="G139" t="n">
+        <v>621195342.9400864</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="F140" t="n">
+        <v>177885.1468</v>
+      </c>
+      <c r="G140" t="n">
+        <v>621017457.7932863</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="F141" t="n">
+        <v>443011.3736</v>
+      </c>
+      <c r="G141" t="n">
+        <v>621017457.7932863</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="F142" t="n">
+        <v>664519.9197</v>
+      </c>
+      <c r="G142" t="n">
+        <v>621017457.7932863</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.3466</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.3466</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.3466</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.3466</v>
+      </c>
+      <c r="F143" t="n">
+        <v>25083.0131</v>
+      </c>
+      <c r="G143" t="n">
+        <v>620992374.7801863</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.3486</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.3484</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.3486</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.3484</v>
+      </c>
+      <c r="F144" t="n">
+        <v>291380.4161</v>
+      </c>
+      <c r="G144" t="n">
+        <v>621283755.1962863</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.3482</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.3482</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.3482</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.3482</v>
+      </c>
+      <c r="F145" t="n">
+        <v>93742.52469999999</v>
+      </c>
+      <c r="G145" t="n">
+        <v>621190012.6715863</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.3482</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.3482</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.3482</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.3482</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1474955.9329</v>
+      </c>
+      <c r="G146" t="n">
+        <v>621190012.6715863</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.3483</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.3483</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.3483</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.3483</v>
+      </c>
+      <c r="F147" t="n">
+        <v>552948.9510999999</v>
+      </c>
+      <c r="G147" t="n">
+        <v>621742961.6226863</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.3483</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.3483</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.3483</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.3483</v>
+      </c>
+      <c r="F148" t="n">
+        <v>276474.4755</v>
+      </c>
+      <c r="G148" t="n">
+        <v>621742961.6226863</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.3487</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.3487</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.3487</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.3487</v>
+      </c>
+      <c r="F149" t="n">
+        <v>276160.216</v>
+      </c>
+      <c r="G149" t="n">
+        <v>622019121.8386862</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.3465</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.3465</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.3465</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.3465</v>
+      </c>
+      <c r="F150" t="n">
+        <v>408573.8428</v>
+      </c>
+      <c r="G150" t="n">
+        <v>621610547.9958862</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="F151" t="n">
+        <v>11982.3364</v>
+      </c>
+      <c r="G151" t="n">
+        <v>621622530.3322862</v>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1416514.446</v>
+      </c>
+      <c r="G152" t="n">
+        <v>623039044.7782862</v>
+      </c>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1328177.1028</v>
+      </c>
+      <c r="G153" t="n">
+        <v>623039044.7782862</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1439359.0011</v>
+      </c>
+      <c r="G154" t="n">
+        <v>623039044.7782862</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G155" t="n">
+        <v>623039044.7782862</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.3526</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.3526</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.3526</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.3526</v>
+      </c>
+      <c r="F156" t="n">
+        <v>28360.74872376</v>
+      </c>
+      <c r="G156" t="n">
+        <v>623067405.52701</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.3528</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.3528</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.3528</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.3528</v>
+      </c>
+      <c r="F157" t="n">
+        <v>234109.9066</v>
+      </c>
+      <c r="G157" t="n">
+        <v>623301515.43361</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.3528</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.3528</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.3528</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.3528</v>
+      </c>
+      <c r="F158" t="n">
+        <v>262167.8877</v>
+      </c>
+      <c r="G158" t="n">
+        <v>623301515.43361</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.3519</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.3519</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2387107</v>
+      </c>
+      <c r="G159" t="n">
+        <v>620914408.43361</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="F160" t="n">
+        <v>5451.1717</v>
+      </c>
+      <c r="G160" t="n">
+        <v>620908957.26191</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.3495</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.3548</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.3548</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.3495</v>
+      </c>
+      <c r="F161" t="n">
+        <v>394809.1163</v>
+      </c>
+      <c r="G161" t="n">
+        <v>621303766.3782099</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.3546</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.3546</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1207673.3758</v>
+      </c>
+      <c r="G162" t="n">
+        <v>620096093.0024099</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="F163" t="n">
+        <v>303033.9755</v>
+      </c>
+      <c r="G163" t="n">
+        <v>620096093.0024099</v>
+      </c>
+      <c r="H163" t="n">
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.3521</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.3521</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.3521</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.3521</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1154904.1414</v>
+      </c>
+      <c r="G164" t="n">
+        <v>618941188.86101</v>
+      </c>
+      <c r="H164" t="n">
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.3516</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.3516</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.3516</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.3516</v>
+      </c>
+      <c r="F165" t="n">
+        <v>19500</v>
+      </c>
+      <c r="G165" t="n">
+        <v>618921688.86101</v>
+      </c>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.3489</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.3489</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2695125.6303</v>
+      </c>
+      <c r="G166" t="n">
+        <v>616226563.2307099</v>
+      </c>
+      <c r="H166" t="n">
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="F167" t="n">
+        <v>242516.6264</v>
+      </c>
+      <c r="G167" t="n">
+        <v>616469079.8571099</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.3497</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.3497</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.3497</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.3497</v>
+      </c>
+      <c r="F168" t="n">
+        <v>215981.5447</v>
+      </c>
+      <c r="G168" t="n">
+        <v>616685061.4018099</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2827</v>
+      </c>
+      <c r="G169" t="n">
+        <v>616687888.4018099</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.3497</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.3497</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.3497</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.3497</v>
+      </c>
+      <c r="F170" t="n">
+        <v>231654.4569</v>
+      </c>
+      <c r="G170" t="n">
+        <v>616456233.9449099</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.3592</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.3464</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.3592</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.3464</v>
+      </c>
+      <c r="F171" t="n">
+        <v>3062.361</v>
+      </c>
+      <c r="G171" t="n">
+        <v>616453171.58391</v>
+      </c>
+      <c r="H171" t="n">
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.3464</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.3464</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F172" t="n">
+        <v>13532442.0799</v>
+      </c>
+      <c r="G172" t="n">
+        <v>602920729.50401</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.3444</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.3444</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F173" t="n">
+        <v>10293063.8673</v>
+      </c>
+      <c r="G173" t="n">
+        <v>592627665.6367099</v>
+      </c>
+      <c r="H173" t="n">
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.3401</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.3401</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2992804.8403</v>
+      </c>
+      <c r="G174" t="n">
+        <v>592627665.6367099</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.3436</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.3436</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.3436</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.3436</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G175" t="n">
+        <v>592637665.6367099</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1593015.8779</v>
+      </c>
+      <c r="G176" t="n">
+        <v>591044649.7588099</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="F177" t="n">
+        <v>77362.6844</v>
+      </c>
+      <c r="G177" t="n">
+        <v>590967287.07441</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="F178" t="n">
+        <v>224914.9522</v>
+      </c>
+      <c r="G178" t="n">
+        <v>590967287.07441</v>
+      </c>
+      <c r="H178" t="n">
+        <v>2</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.3454</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.3409</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.3466</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.3409</v>
+      </c>
+      <c r="F179" t="n">
+        <v>267353.3603</v>
+      </c>
+      <c r="G179" t="n">
+        <v>590699933.71411</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.3464</v>
-      </c>
-      <c r="F126" t="n">
-        <v>4121088.1097</v>
-      </c>
-      <c r="G126" t="n">
-        <v>600285581.881004</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.3466</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.3468</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.3468</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.3466</v>
+      </c>
+      <c r="F180" t="n">
+        <v>7503077.3718</v>
+      </c>
+      <c r="G180" t="n">
+        <v>598203011.08591</v>
+      </c>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.3409</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="F127" t="n">
-        <v>6361380.8397</v>
-      </c>
-      <c r="G127" t="n">
-        <v>600285581.881004</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.3547</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.3547</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.3547</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.3547</v>
+      </c>
+      <c r="F181" t="n">
+        <v>5621.6942</v>
+      </c>
+      <c r="G181" t="n">
+        <v>598208632.78011</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.3468</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="F128" t="n">
-        <v>8939812.758199999</v>
-      </c>
-      <c r="G128" t="n">
-        <v>600285581.881004</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.3472</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.3472</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.3472</v>
+      </c>
+      <c r="F182" t="n">
+        <v>6286.8837</v>
+      </c>
+      <c r="G182" t="n">
+        <v>598202345.89641</v>
+      </c>
+      <c r="H182" t="n">
+        <v>2</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.3547</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
         <v>0.347</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C183" t="n">
         <v>0.347</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D183" t="n">
         <v>0.347</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E183" t="n">
         <v>0.347</v>
       </c>
-      <c r="F129" t="n">
-        <v>3106193</v>
-      </c>
-      <c r="G129" t="n">
-        <v>600285581.881004</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
+      <c r="F183" t="n">
+        <v>39639.5284</v>
+      </c>
+      <c r="G183" t="n">
+        <v>598162706.36801</v>
+      </c>
+      <c r="H183" t="n">
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.3514</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.3514</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="F130" t="n">
-        <v>747979.67898229</v>
-      </c>
-      <c r="G130" t="n">
-        <v>601033561.5599862</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.3473</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.3473</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.3473</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.3473</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1944.9572</v>
+      </c>
+      <c r="G184" t="n">
+        <v>598164651.3252101</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.3473</v>
+      </c>
+      <c r="C185" t="n">
         <v>0.347</v>
       </c>
-      <c r="C131" t="n">
+      <c r="D185" t="n">
+        <v>0.3473</v>
+      </c>
+      <c r="E185" t="n">
         <v>0.347</v>
       </c>
-      <c r="D131" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="F131" t="n">
-        <v>230211.9753</v>
-      </c>
-      <c r="G131" t="n">
-        <v>600803349.5846863</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0.3514</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
+      <c r="F185" t="n">
+        <v>46603.7253</v>
+      </c>
+      <c r="G185" t="n">
+        <v>598118047.5999101</v>
+      </c>
+      <c r="H185" t="n">
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1124389.6449</v>
-      </c>
-      <c r="G132" t="n">
-        <v>600803349.5846863</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.3471</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.3468</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.3471</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.3468</v>
+      </c>
+      <c r="F186" t="n">
+        <v>4894892.4026</v>
+      </c>
+      <c r="G186" t="n">
+        <v>593223155.1973101</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.352</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.3521</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="F133" t="n">
-        <v>4892010.6526</v>
-      </c>
-      <c r="G133" t="n">
-        <v>605695360.2372863</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.3469</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.3469</v>
+      </c>
+      <c r="F187" t="n">
+        <v>48283.485</v>
+      </c>
+      <c r="G187" t="n">
+        <v>593271438.6823101</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>0.3503</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0.346</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.3504</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.346</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1854960.4944</v>
-      </c>
-      <c r="G134" t="n">
-        <v>603840399.7428863</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.3539</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.3539</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="F188" t="n">
+        <v>4540.8875</v>
+      </c>
+      <c r="G188" t="n">
+        <v>593275979.5698102</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0.3494</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.3468</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.3494</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.3468</v>
-      </c>
-      <c r="F135" t="n">
-        <v>15042055.3768</v>
-      </c>
-      <c r="G135" t="n">
-        <v>618882455.1196864</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.3491</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.3491</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.3491</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.3491</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1675.5579</v>
+      </c>
+      <c r="G189" t="n">
+        <v>593277655.1277101</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>0.3501</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.3502</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.3502</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.3501</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1884726.1494</v>
-      </c>
-      <c r="G136" t="n">
-        <v>620767181.2690864</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.3525</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.3525</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.3525</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.3525</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1411.6319</v>
+      </c>
+      <c r="G190" t="n">
+        <v>593279066.7596101</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>0.3504</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.3458</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.3504</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.3458</v>
-      </c>
-      <c r="F137" t="n">
-        <v>2910.959</v>
-      </c>
-      <c r="G137" t="n">
-        <v>620764270.3100864</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0.349</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.3492</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.3492</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.349</v>
-      </c>
-      <c r="F138" t="n">
-        <v>276875.6725</v>
-      </c>
-      <c r="G138" t="n">
-        <v>621041145.9825864</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0.3494</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.3494</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.3494</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.3494</v>
-      </c>
-      <c r="F139" t="n">
-        <v>154196.9575</v>
-      </c>
-      <c r="G139" t="n">
-        <v>621195342.9400864</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.3493</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.3493</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.3493</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.3493</v>
-      </c>
-      <c r="F140" t="n">
-        <v>177885.1468</v>
-      </c>
-      <c r="G140" t="n">
-        <v>621017457.7932863</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.3493</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.3493</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.3493</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.3493</v>
-      </c>
-      <c r="F141" t="n">
-        <v>443011.3736</v>
-      </c>
-      <c r="G141" t="n">
-        <v>621017457.7932863</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0.3493</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.3493</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.3493</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.3493</v>
-      </c>
-      <c r="F142" t="n">
-        <v>664519.9197</v>
-      </c>
-      <c r="G142" t="n">
-        <v>621017457.7932863</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0.3466</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0.3466</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.3466</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.3466</v>
-      </c>
-      <c r="F143" t="n">
-        <v>25083.0131</v>
-      </c>
-      <c r="G143" t="n">
-        <v>620992374.7801863</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.3486</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.3484</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.3486</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.3484</v>
-      </c>
-      <c r="F144" t="n">
-        <v>291380.4161</v>
-      </c>
-      <c r="G144" t="n">
-        <v>621283755.1962863</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0.3482</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.3482</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.3482</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.3482</v>
-      </c>
-      <c r="F145" t="n">
-        <v>93742.52469999999</v>
-      </c>
-      <c r="G145" t="n">
-        <v>621190012.6715863</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.3482</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0.3482</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.3482</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.3482</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1474955.9329</v>
-      </c>
-      <c r="G146" t="n">
-        <v>621190012.6715863</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0.3483</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0.3483</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.3483</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.3483</v>
-      </c>
-      <c r="F147" t="n">
-        <v>552948.9510999999</v>
-      </c>
-      <c r="G147" t="n">
-        <v>621742961.6226863</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0.3483</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0.3483</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.3483</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.3483</v>
-      </c>
-      <c r="F148" t="n">
-        <v>276474.4755</v>
-      </c>
-      <c r="G148" t="n">
-        <v>621742961.6226863</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>0.3487</v>
-      </c>
-      <c r="C149" t="n">
-        <v>0.3487</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.3487</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.3487</v>
-      </c>
-      <c r="F149" t="n">
-        <v>276160.216</v>
-      </c>
-      <c r="G149" t="n">
-        <v>622019121.8386862</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>0.3465</v>
-      </c>
-      <c r="C150" t="n">
-        <v>0.3465</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.3465</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.3465</v>
-      </c>
-      <c r="F150" t="n">
-        <v>408573.8428</v>
-      </c>
-      <c r="G150" t="n">
-        <v>621610547.9958862</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>0.349</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0.349</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.349</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.349</v>
-      </c>
-      <c r="F151" t="n">
-        <v>11982.3364</v>
-      </c>
-      <c r="G151" t="n">
-        <v>621622530.3322862</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>0.3504</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0.3504</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.3504</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.3504</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1416514.446</v>
-      </c>
-      <c r="G152" t="n">
-        <v>623039044.7782862</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>0.3504</v>
-      </c>
-      <c r="C153" t="n">
-        <v>0.3504</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0.3504</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.3504</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1328177.1028</v>
-      </c>
-      <c r="G153" t="n">
-        <v>623039044.7782862</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>0.3504</v>
-      </c>
-      <c r="C154" t="n">
-        <v>0.3504</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.3504</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0.3504</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1439359.0011</v>
-      </c>
-      <c r="G154" t="n">
-        <v>623039044.7782862</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>0.3504</v>
-      </c>
-      <c r="C155" t="n">
-        <v>0.3504</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.3504</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0.3504</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G155" t="n">
-        <v>623039044.7782862</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>0.3526</v>
-      </c>
-      <c r="C156" t="n">
-        <v>0.3526</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0.3526</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0.3526</v>
-      </c>
-      <c r="F156" t="n">
-        <v>28360.74872376</v>
-      </c>
-      <c r="G156" t="n">
-        <v>623067405.52701</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>0.3528</v>
-      </c>
-      <c r="C157" t="n">
-        <v>0.3528</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.3528</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0.3528</v>
-      </c>
-      <c r="F157" t="n">
-        <v>234109.9066</v>
-      </c>
-      <c r="G157" t="n">
-        <v>623301515.43361</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>0.3528</v>
-      </c>
-      <c r="C158" t="n">
-        <v>0.3528</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0.3528</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0.3528</v>
-      </c>
-      <c r="F158" t="n">
-        <v>262167.8877</v>
-      </c>
-      <c r="G158" t="n">
-        <v>623301515.43361</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>0.3517</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0.3519</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0.3519</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0.3517</v>
-      </c>
-      <c r="F159" t="n">
-        <v>2387107</v>
-      </c>
-      <c r="G159" t="n">
-        <v>620914408.43361</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>0.3517</v>
-      </c>
-      <c r="C160" t="n">
-        <v>0.3517</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0.3517</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0.3517</v>
-      </c>
-      <c r="F160" t="n">
-        <v>5451.1717</v>
-      </c>
-      <c r="G160" t="n">
-        <v>620908957.26191</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>0.3495</v>
-      </c>
-      <c r="C161" t="n">
-        <v>0.3548</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0.3548</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0.3495</v>
-      </c>
-      <c r="F161" t="n">
-        <v>394809.1163</v>
-      </c>
-      <c r="G161" t="n">
-        <v>621303766.3782099</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.3534</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.3534</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.3534</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.3534</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1418.4398</v>
+      </c>
+      <c r="G191" t="n">
+        <v>593280485.1994101</v>
+      </c>
+      <c r="H191" t="n">
+        <v>3</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>0.3546</v>
-      </c>
-      <c r="C162" t="n">
-        <v>0.3545</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0.3546</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0.3545</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1207673.3758</v>
-      </c>
-      <c r="G162" t="n">
-        <v>620096093.0024099</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>0.3545</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0.3545</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0.3545</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0.3545</v>
-      </c>
-      <c r="F163" t="n">
-        <v>303033.9755</v>
-      </c>
-      <c r="G163" t="n">
-        <v>620096093.0024099</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>0.3521</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0.3521</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.3521</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.3521</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1154904.1414</v>
-      </c>
-      <c r="G164" t="n">
-        <v>618941188.86101</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>0.3516</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0.3516</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0.3516</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.3516</v>
-      </c>
-      <c r="F165" t="n">
-        <v>19500</v>
-      </c>
-      <c r="G165" t="n">
-        <v>618921688.86101</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>0.3494</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0.3489</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.3494</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.3489</v>
-      </c>
-      <c r="F166" t="n">
-        <v>2695125.6303</v>
-      </c>
-      <c r="G166" t="n">
-        <v>616226563.2307099</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>0.3494</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.3494</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.3494</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.3494</v>
-      </c>
-      <c r="F167" t="n">
-        <v>242516.6264</v>
-      </c>
-      <c r="G167" t="n">
-        <v>616469079.8571099</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>0.3497</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0.3497</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0.3497</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.3497</v>
-      </c>
-      <c r="F168" t="n">
-        <v>215981.5447</v>
-      </c>
-      <c r="G168" t="n">
-        <v>616685061.4018099</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>0.3598</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0.3598</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.3598</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.3598</v>
-      </c>
-      <c r="F169" t="n">
-        <v>2827</v>
-      </c>
-      <c r="G169" t="n">
-        <v>616687888.4018099</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>0.3497</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0.3497</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.3497</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0.3497</v>
-      </c>
-      <c r="F170" t="n">
-        <v>231654.4569</v>
-      </c>
-      <c r="G170" t="n">
-        <v>616456233.9449099</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0.3592</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0.3464</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.3592</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.3464</v>
-      </c>
-      <c r="F171" t="n">
-        <v>3062.361</v>
-      </c>
-      <c r="G171" t="n">
-        <v>616453171.58391</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>0.3464</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.3464</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="F172" t="n">
-        <v>13532442.0799</v>
-      </c>
-      <c r="G172" t="n">
-        <v>602920729.50401</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>0.3444</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0.3444</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F173" t="n">
-        <v>10293063.8673</v>
-      </c>
-      <c r="G173" t="n">
-        <v>592627665.6367099</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>0.3401</v>
-      </c>
-      <c r="C174" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.3401</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F174" t="n">
-        <v>2992804.8403</v>
-      </c>
-      <c r="G174" t="n">
-        <v>592627665.6367099</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>0.3436</v>
-      </c>
-      <c r="C175" t="n">
-        <v>0.3436</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0.3436</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0.3436</v>
-      </c>
-      <c r="F175" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G175" t="n">
-        <v>592637665.6367099</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0.3425</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.3425</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1593015.8779</v>
-      </c>
-      <c r="G176" t="n">
-        <v>591044649.7588099</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="C177" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="F177" t="n">
-        <v>77362.6844</v>
-      </c>
-      <c r="G177" t="n">
-        <v>590967287.07441</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="F178" t="n">
-        <v>224914.9522</v>
-      </c>
-      <c r="G178" t="n">
-        <v>590967287.07441</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>0.3454</v>
-      </c>
-      <c r="C179" t="n">
-        <v>0.3409</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0.3466</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0.3409</v>
-      </c>
-      <c r="F179" t="n">
-        <v>267353.3603</v>
-      </c>
-      <c r="G179" t="n">
-        <v>590699933.71411</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>0.3466</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0.3468</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0.3468</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0.3466</v>
-      </c>
-      <c r="F180" t="n">
-        <v>7503077.3718</v>
-      </c>
-      <c r="G180" t="n">
-        <v>598203011.08591</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>0.3547</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0.3547</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0.3547</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0.3547</v>
-      </c>
-      <c r="F181" t="n">
-        <v>5621.6942</v>
-      </c>
-      <c r="G181" t="n">
-        <v>598208632.78011</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>0.3472</v>
-      </c>
-      <c r="C182" t="n">
-        <v>0.3472</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0.3545</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0.3472</v>
-      </c>
-      <c r="F182" t="n">
-        <v>6286.8837</v>
-      </c>
-      <c r="G182" t="n">
-        <v>598202345.89641</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="F183" t="n">
-        <v>39639.5284</v>
-      </c>
-      <c r="G183" t="n">
-        <v>598162706.36801</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>0.3473</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0.3473</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0.3473</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0.3473</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1944.9572</v>
-      </c>
-      <c r="G184" t="n">
-        <v>598164651.3252101</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>0.3473</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0.3473</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="F185" t="n">
-        <v>46603.7253</v>
-      </c>
-      <c r="G185" t="n">
-        <v>598118047.5999101</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>0.3471</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0.3468</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0.3471</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0.3468</v>
-      </c>
-      <c r="F186" t="n">
-        <v>4894892.4026</v>
-      </c>
-      <c r="G186" t="n">
-        <v>593223155.1973101</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>0.3507</v>
-      </c>
-      <c r="C187" t="n">
-        <v>0.3469</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0.3507</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0.3469</v>
-      </c>
-      <c r="F187" t="n">
-        <v>48283.485</v>
-      </c>
-      <c r="G187" t="n">
-        <v>593271438.6823101</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>0.3539</v>
-      </c>
-      <c r="C188" t="n">
-        <v>0.349</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0.3539</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0.349</v>
-      </c>
-      <c r="F188" t="n">
-        <v>4540.8875</v>
-      </c>
-      <c r="G188" t="n">
-        <v>593275979.5698102</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>0.3491</v>
-      </c>
-      <c r="C189" t="n">
-        <v>0.3491</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0.3491</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0.3491</v>
-      </c>
-      <c r="F189" t="n">
-        <v>1675.5579</v>
-      </c>
-      <c r="G189" t="n">
-        <v>593277655.1277101</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>0.3525</v>
-      </c>
-      <c r="C190" t="n">
-        <v>0.3525</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0.3525</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0.3525</v>
-      </c>
-      <c r="F190" t="n">
-        <v>1411.6319</v>
-      </c>
-      <c r="G190" t="n">
-        <v>593279066.7596101</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>0.3534</v>
-      </c>
-      <c r="C191" t="n">
-        <v>0.3534</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0.3534</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0.3534</v>
-      </c>
-      <c r="F191" t="n">
-        <v>1418.4398</v>
-      </c>
-      <c r="G191" t="n">
-        <v>593280485.1994101</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1.027427695004382</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7492,18 +6811,15 @@
         <v>593279068.76881</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7530,16 +6846,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7566,16 +6879,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7602,16 +6912,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7638,16 +6945,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7672,18 +6976,15 @@
         <v>593174029.50563</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7710,16 +7011,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7746,16 +7044,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7782,16 +7077,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7818,16 +7110,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7854,16 +7143,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7890,16 +7176,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7926,16 +7209,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7962,16 +7242,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7998,16 +7275,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8034,16 +7308,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8070,16 +7341,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8106,16 +7374,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8142,16 +7407,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8176,18 +7438,15 @@
         <v>591712460.7540299</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8212,18 +7471,15 @@
         <v>591868140.6340299</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8250,16 +7506,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8286,16 +7539,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8322,16 +7572,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8358,16 +7605,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8394,16 +7638,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8430,16 +7671,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8464,18 +7702,15 @@
         <v>595719108.4058341</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8500,18 +7735,15 @@
         <v>604427083.5995299</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8536,18 +7768,15 @@
         <v>604427083.5995299</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8572,18 +7801,15 @@
         <v>604723358.2269299</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8608,18 +7834,15 @@
         <v>604723358.2269257</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8644,18 +7867,15 @@
         <v>604723358.2269257</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8680,18 +7900,15 @@
         <v>604720524.1063257</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8716,18 +7933,15 @@
         <v>605453881.0642258</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8752,18 +7966,15 @@
         <v>605423670.4134258</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8788,18 +7999,15 @@
         <v>605423670.4134258</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8824,20 +8032,17 @@
         <v>605423670.4134258</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest BTT.xlsx
+++ b/BackTest/2020-01-14 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,10 +517,14 @@
         <v>-53850925.6542</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3608</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3608</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -553,8 +557,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0.3608</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -586,8 +596,14 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0.3608</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -715,11 +731,17 @@
         <v>-48539022.9298</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3602</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +770,17 @@
         <v>-48787004.2856</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.3602</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +809,17 @@
         <v>-48787004.2856</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.359</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +848,17 @@
         <v>-48327588.7087</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.359</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +887,17 @@
         <v>-42804298.3742</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.3598</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +926,17 @@
         <v>-42805690.3742</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.3612</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +965,17 @@
         <v>-43447139.5046</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3598</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1004,17 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.3596</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1043,17 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.3598</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1082,17 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.3598</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1121,17 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.3598</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1160,17 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.3598</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1199,17 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.3598</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1238,17 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.3598</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1277,17 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.3596</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1320,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1357,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1394,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1427,17 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.3596</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1466,17 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.3596</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1505,17 @@
         <v>-39962128.2854</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.3596</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1544,17 @@
         <v>-39962128.2854</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.3591</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1583,17 @@
         <v>-39962128.2854</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.3591</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1622,17 @@
         <v>-39962128.2854</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.3591</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1661,17 @@
         <v>-39209516.2854</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.3591</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1700,17 @@
         <v>-39209516.2854</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.3596</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1739,17 @@
         <v>-39801278.2216</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.3596</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1778,17 @@
         <v>-39688023.2216</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.3589</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1817,17 @@
         <v>-39688023.2216</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.3596</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1856,17 @@
         <v>-39688023.2216</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.3596</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1895,17 @@
         <v>-40628116.2861</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.3596</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1934,17 @@
         <v>-40593723.2861</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.3589</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1973,17 @@
         <v>-40593723.2861</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.3596</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2012,17 @@
         <v>-40593723.2861</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.3596</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2051,17 @@
         <v>-40593723.2861</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.3596</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2090,17 @@
         <v>-42965613.794</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.3596</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2129,17 @@
         <v>-42965613.794</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.3575</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2168,17 @@
         <v>-42965613.794</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.3575</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2207,17 @@
         <v>-42965613.794</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.3575</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2246,17 @@
         <v>-33283183.794</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.3575</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2289,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2326,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2363,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2400,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2433,15 @@
         <v>-28389681.3914</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2470,15 @@
         <v>-28392391.3914</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2507,15 @@
         <v>-28398114.3914</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2544,15 @@
         <v>-24436260.4156</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2585,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2622,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2659,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2696,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2733,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2770,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2807,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2844,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2877,17 @@
         <v>-31936229.7227</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.3601</v>
+      </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2916,17 @@
         <v>-31936229.7227</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.36</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2955,17 @@
         <v>-31936229.7227</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.36</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2994,17 @@
         <v>-32604098.5344</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.36</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +3033,17 @@
         <v>-32465594.3792</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.3583</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +3072,17 @@
         <v>-32467065.8792</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.361</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +3111,17 @@
         <v>-35068951.5903</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.3587</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3150,17 @@
         <v>-35080951.5903</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.3584</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +3189,17 @@
         <v>-35080951.5903</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.3583</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +3228,17 @@
         <v>-30693552.6964</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.3583</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +3267,17 @@
         <v>-30692140.6964</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.3597</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3310,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3347,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3384,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3421,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3458,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3495,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3532,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3569,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3606,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3639,15 @@
         <v>-45409669.75682253</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3680,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3717,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3754,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3791,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3828,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3865,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3902,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3935,15 @@
         <v>-43325597.39422253</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3976,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +4013,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +4050,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +4087,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +4124,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +4161,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +4198,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +4231,15 @@
         <v>-44881404.87439632</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4272,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4309,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4346,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4379,15 @@
         <v>-46663912.77869632</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4420,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4457,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4494,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4531,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4568,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4605,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4642,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4679,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4716,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4753,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4790,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4827,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4864,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4901,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4938,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4975,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +5012,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +5049,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +5086,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +5123,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +5160,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +5197,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +5234,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +5271,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +5308,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +5345,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +5382,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5419,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5456,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5493,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5530,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5567,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5604,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5641,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5678,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5715,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5752,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5789,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5826,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5863,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5900,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5937,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5974,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +6011,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +6044,15 @@
         <v>621622530.3322862</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +6081,15 @@
         <v>623039044.7782862</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +6122,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +6159,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +6196,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,14 +6229,16 @@
         <v>623067405.52701</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
@@ -5764,7 +6462,7 @@
         <v>620096093.0024099</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +6495,7 @@
         <v>618941188.86101</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +6528,7 @@
         <v>618921688.86101</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +6561,7 @@
         <v>616226563.2307099</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6028,7 +6726,7 @@
         <v>616453171.58391</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6094,7 +6792,7 @@
         <v>592627665.6367099</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6160,7 +6858,7 @@
         <v>592637665.6367099</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6226,7 +6924,7 @@
         <v>590967287.07441</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6261,12 +6959,8 @@
       <c r="H178" t="n">
         <v>2</v>
       </c>
-      <c r="I178" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="J178" t="n">
-        <v>0.3423</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
@@ -6298,17 +6992,9 @@
       <c r="H179" t="n">
         <v>2</v>
       </c>
-      <c r="I179" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="J179" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6337,19 +7023,11 @@
         <v>598203011.08591</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0.3409</v>
-      </c>
-      <c r="J180" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6380,17 +7058,9 @@
       <c r="H181" t="n">
         <v>2</v>
       </c>
-      <c r="I181" t="n">
-        <v>0.3468</v>
-      </c>
-      <c r="J181" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6421,17 +7091,9 @@
       <c r="H182" t="n">
         <v>2</v>
       </c>
-      <c r="I182" t="n">
-        <v>0.3547</v>
-      </c>
-      <c r="J182" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6460,17 +7122,11 @@
         <v>598162706.36801</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6499,17 +7155,11 @@
         <v>598164651.3252101</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6538,17 +7188,11 @@
         <v>598118047.5999101</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6577,17 +7221,11 @@
         <v>593223155.1973101</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6616,17 +7254,11 @@
         <v>593271438.6823101</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6655,17 +7287,11 @@
         <v>593275979.5698102</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6694,17 +7320,11 @@
         <v>593277655.1277101</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6733,17 +7353,11 @@
         <v>593279066.7596101</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6772,19 +7386,13 @@
         <v>593280485.1994101</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>0.3423</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
-        <v>1.027427695004382</v>
+        <v>1</v>
       </c>
       <c r="M191" t="inlineStr"/>
     </row>
@@ -6811,7 +7419,7 @@
         <v>593279068.76881</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6844,7 +7452,7 @@
         <v>593279068.76881</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6877,7 +7485,7 @@
         <v>593281510.20341</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6910,7 +7518,7 @@
         <v>593282918.65421</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6943,7 +7551,7 @@
         <v>593281505.4263099</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6976,7 +7584,7 @@
         <v>593174029.50563</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7438,7 +8046,7 @@
         <v>591712460.7540299</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7471,7 +8079,7 @@
         <v>591868140.6340299</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7504,7 +8112,7 @@
         <v>591865000.5711299</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7537,7 +8145,7 @@
         <v>591863574.4444299</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7570,7 +8178,7 @@
         <v>591864996.1106299</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7603,7 +8211,7 @@
         <v>591873821.7981299</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7636,7 +8244,7 @@
         <v>591885452.57143</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7669,7 +8277,7 @@
         <v>591885452.57143</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7702,7 +8310,7 @@
         <v>595719108.4058341</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7735,7 +8343,7 @@
         <v>604427083.5995299</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7768,7 +8376,7 @@
         <v>604427083.5995299</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7801,7 +8409,7 @@
         <v>604723358.2269299</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7834,7 +8442,7 @@
         <v>604723358.2269257</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7867,7 +8475,7 @@
         <v>604723358.2269257</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7900,7 +8508,7 @@
         <v>604720524.1063257</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7933,7 +8541,7 @@
         <v>605453881.0642258</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7966,7 +8574,7 @@
         <v>605423670.4134258</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7999,7 +8607,7 @@
         <v>605423670.4134258</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8032,7 +8640,7 @@
         <v>605423670.4134258</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8043,6 +8651,6 @@
       <c r="M229" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest BTT.xlsx
+++ b/BackTest/2020-01-14 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,14 +517,10 @@
         <v>-53850925.6542</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.3608</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.3608</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -557,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>0.3608</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -596,14 +586,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>0.3608</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -731,17 +715,11 @@
         <v>-48539022.9298</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.3602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -770,17 +748,11 @@
         <v>-48787004.2856</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.3602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -809,17 +781,11 @@
         <v>-48787004.2856</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.359</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -848,17 +814,11 @@
         <v>-48327588.7087</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.359</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -887,17 +847,11 @@
         <v>-42804298.3742</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.3598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -926,17 +880,11 @@
         <v>-42805690.3742</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.3612</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -965,17 +913,11 @@
         <v>-43447139.5046</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.3598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1004,17 +946,11 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.3596</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1043,17 +979,11 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.3598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1082,17 +1012,11 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.3598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1121,17 +1045,11 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.3598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1160,17 +1078,11 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.3598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1199,17 +1111,11 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.3598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1238,17 +1144,11 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.3598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1277,17 +1177,11 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.3596</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1320,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1357,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1394,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1427,17 +1309,11 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.3596</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1466,17 +1342,11 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.3596</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1505,17 +1375,11 @@
         <v>-39962128.2854</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.3596</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1544,17 +1408,11 @@
         <v>-39962128.2854</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.3591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1583,17 +1441,11 @@
         <v>-39962128.2854</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.3591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1622,17 +1474,11 @@
         <v>-39962128.2854</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.3591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1661,17 +1507,11 @@
         <v>-39209516.2854</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.3591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1700,17 +1540,11 @@
         <v>-39209516.2854</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.3596</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1739,17 +1573,11 @@
         <v>-39801278.2216</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.3596</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1778,17 +1606,11 @@
         <v>-39688023.2216</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.3589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1817,17 +1639,11 @@
         <v>-39688023.2216</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.3596</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1856,17 +1672,11 @@
         <v>-39688023.2216</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.3596</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1895,17 +1705,11 @@
         <v>-40628116.2861</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.3596</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1934,17 +1738,11 @@
         <v>-40593723.2861</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.3589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1973,17 +1771,11 @@
         <v>-40593723.2861</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.3596</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2012,17 +1804,11 @@
         <v>-40593723.2861</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.3596</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2051,17 +1837,11 @@
         <v>-40593723.2861</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.3596</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2090,17 +1870,11 @@
         <v>-42965613.794</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.3596</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2129,17 +1903,11 @@
         <v>-42965613.794</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.3575</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2168,17 +1936,11 @@
         <v>-42965613.794</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.3575</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2207,17 +1969,11 @@
         <v>-42965613.794</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.3575</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2246,17 +2002,11 @@
         <v>-33283183.794</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.3575</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2289,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2326,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2363,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2400,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2437,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2474,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2511,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2548,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2585,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2622,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2659,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2696,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2733,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2770,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2807,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2844,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2877,17 +2563,11 @@
         <v>-31936229.7227</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.3601</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2916,17 +2596,11 @@
         <v>-31936229.7227</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2955,17 +2629,11 @@
         <v>-31936229.7227</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2994,17 +2662,11 @@
         <v>-32604098.5344</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3033,17 +2695,11 @@
         <v>-32465594.3792</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.3583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3072,17 +2728,11 @@
         <v>-32467065.8792</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.361</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3111,17 +2761,11 @@
         <v>-35068951.5903</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.3587</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3150,17 +2794,11 @@
         <v>-35080951.5903</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.3584</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3189,17 +2827,11 @@
         <v>-35080951.5903</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.3583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3228,17 +2860,11 @@
         <v>-30693552.6964</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.3583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3267,17 +2893,11 @@
         <v>-30692140.6964</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.3597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3310,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3347,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3384,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3458,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3495,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3532,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3569,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3606,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3643,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3680,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3717,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3754,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3791,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3828,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3865,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3902,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3939,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3976,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4013,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4050,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4087,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4124,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4161,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4198,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4235,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4272,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4309,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4346,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4383,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4420,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4457,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4494,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4531,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4568,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4605,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4679,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4716,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4753,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4790,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4827,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4864,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4901,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4938,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4975,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5012,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5045,13 +4477,15 @@
         <v>600285581.881004</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.3476</v>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L124" t="n">
@@ -5193,9 +4627,11 @@
         <v>600285581.881004</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.347</v>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -6229,16 +5665,18 @@
         <v>623067405.52701</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
       <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
@@ -6268,7 +5706,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6301,7 +5743,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6334,7 +5780,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6367,7 +5817,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6400,7 +5854,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6433,7 +5891,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6462,11 +5924,15 @@
         <v>620096093.0024099</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6499,7 +5965,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6532,7 +6002,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6565,7 +6039,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6598,7 +6076,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6631,7 +6113,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6664,7 +6150,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6693,14 +6183,16 @@
         <v>616456233.9449099</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
@@ -6726,7 +6218,7 @@
         <v>616453171.58391</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6858,7 +6350,7 @@
         <v>592637665.6367099</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6924,7 +6416,7 @@
         <v>590967287.07441</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6957,7 +6449,7 @@
         <v>590967287.07441</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6990,7 +6482,7 @@
         <v>590699933.71411</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7056,7 +6548,7 @@
         <v>598208632.78011</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7089,7 +6581,7 @@
         <v>598202345.89641</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7122,7 +6614,7 @@
         <v>598162706.36801</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7155,7 +6647,7 @@
         <v>598164651.3252101</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7188,7 +6680,7 @@
         <v>598118047.5999101</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7221,7 +6713,7 @@
         <v>593223155.1973101</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7254,7 +6746,7 @@
         <v>593271438.6823101</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7287,7 +6779,7 @@
         <v>593275979.5698102</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7320,7 +6812,7 @@
         <v>593277655.1277101</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7353,7 +6845,7 @@
         <v>593279066.7596101</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7617,7 +7109,7 @@
         <v>593174029.50563</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7650,7 +7142,7 @@
         <v>593174029.50563</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7716,7 +7208,7 @@
         <v>593174029.50563</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7749,7 +7241,7 @@
         <v>593174029.50563</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7782,7 +7274,7 @@
         <v>591815223.02283</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7848,7 +7340,7 @@
         <v>589776082.00033</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7881,7 +7373,7 @@
         <v>589776082.00033</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8013,7 +7505,7 @@
         <v>591712460.7540299</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8046,7 +7538,7 @@
         <v>591712460.7540299</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8112,7 +7604,7 @@
         <v>591865000.5711299</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8145,7 +7637,7 @@
         <v>591863574.4444299</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8178,7 +7670,7 @@
         <v>591864996.1106299</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8211,7 +7703,7 @@
         <v>591873821.7981299</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8310,7 +7802,7 @@
         <v>595719108.4058341</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8376,7 +7868,7 @@
         <v>604427083.5995299</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8475,7 +7967,7 @@
         <v>604723358.2269257</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8508,7 +8000,7 @@
         <v>604720524.1063257</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8574,7 +8066,7 @@
         <v>605423670.4134258</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8651,6 +8143,6 @@
       <c r="M229" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest BTT.xlsx
+++ b/BackTest/2020-01-14 BackTest BTT.xlsx
@@ -451,7 +451,7 @@
         <v>-53678486.6542</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-53852306.6542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.3647</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-53850925.6542</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3608</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -553,8 +565,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>-48347101.9298</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>-48350101.9298</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>-48444801.9298</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +721,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +760,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +796,19 @@
         <v>-48787004.2856</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.3602</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +837,19 @@
         <v>-48787004.2856</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +878,19 @@
         <v>-48327588.7087</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +919,19 @@
         <v>-42804298.3742</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +960,19 @@
         <v>-42805690.3742</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.3612</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1001,19 @@
         <v>-43447139.5046</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1042,19 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1083,19 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1124,19 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1165,19 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1206,19 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1247,19 @@
         <v>-39859548.40400001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1288,19 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1329,19 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1370,19 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1411,19 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1452,19 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1493,19 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1534,19 @@
         <v>-39954587.3008</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1575,19 @@
         <v>-39962128.2854</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1616,19 @@
         <v>-39962128.2854</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.3591</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1657,19 @@
         <v>-39962128.2854</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.3591</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1698,19 @@
         <v>-39962128.2854</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.3591</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1739,19 @@
         <v>-39209516.2854</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.3591</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1780,19 @@
         <v>-39209516.2854</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1821,19 @@
         <v>-39801278.2216</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1862,19 @@
         <v>-39688023.2216</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.3589</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1903,19 @@
         <v>-39688023.2216</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1944,19 @@
         <v>-39688023.2216</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1985,19 @@
         <v>-40628116.2861</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +2026,19 @@
         <v>-40593723.2861</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.3589</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +2067,19 @@
         <v>-40593723.2861</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2108,19 @@
         <v>-40593723.2861</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2149,19 @@
         <v>-40593723.2861</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2190,19 @@
         <v>-42965613.794</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2231,19 @@
         <v>-42965613.794</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.3575</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2272,19 @@
         <v>-42965613.794</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.3575</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2313,19 @@
         <v>-42965613.794</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.3575</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2354,19 @@
         <v>-33283183.794</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.3575</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2395,19 @@
         <v>-28388291.3914</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.3678</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,13 +2436,19 @@
         <v>-28388291.3914</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>1.00541952289553</v>
       </c>
       <c r="M51" t="inlineStr"/>
     </row>
@@ -2101,11 +2475,17 @@
         <v>-28388291.3914</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0.3678</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,7 +2514,7 @@
         <v>-28388291.3914</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2547,7 @@
         <v>-28389681.3914</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2580,7 @@
         <v>-28392391.3914</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2266,10 +2646,14 @@
         <v>-24436260.4156</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.3621</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.3621</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
@@ -2302,8 +2686,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0.3621</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2722,19 @@
         <v>-24436260.4156</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.3626</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.3621</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,10 +2763,14 @@
         <v>-24437731.9156</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.3626</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.3626</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
@@ -2398,11 +2800,19 @@
         <v>-24023949.5062</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.3625</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.3626</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2841,17 @@
         <v>-24023949.5062</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0.3626</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,7 +2880,7 @@
         <v>-25051507.71</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,11 +2913,17 @@
         <v>-26863661.7565</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.362</v>
+      </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2952,17 @@
         <v>-27693171.943</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.3608</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2991,17 @@
         <v>-31936229.7227</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.3601</v>
+      </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +3030,17 @@
         <v>-31936229.7227</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.36</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +3069,17 @@
         <v>-31936229.7227</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.36</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +3108,17 @@
         <v>-32604098.5344</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.36</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +3147,17 @@
         <v>-32465594.3792</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.3583</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +3186,15 @@
         <v>-32467065.8792</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +3223,17 @@
         <v>-35068951.5903</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.3587</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3262,17 @@
         <v>-35080951.5903</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.3584</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3305,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +3338,17 @@
         <v>-30693552.6964</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.3583</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +3377,17 @@
         <v>-30692140.6964</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.3597</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3420,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3457,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3494,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3531,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3568,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3605,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3642,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3679,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3716,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3753,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3790,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3827,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3864,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3901,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3938,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3975,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +4012,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +4049,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +4086,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +4119,17 @@
         <v>-43048898.36509632</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.36</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +4158,17 @@
         <v>-43050398.36509632</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.3605</v>
+      </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +4197,17 @@
         <v>-43851319.98779631</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.359</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +4236,17 @@
         <v>-43851319.98779631</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.358</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +4275,17 @@
         <v>-43851319.98779631</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.358</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +4314,17 @@
         <v>-44881404.87439632</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.358</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +4353,17 @@
         <v>-44881404.87439632</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.3578</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +4392,17 @@
         <v>-44881404.87439632</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.3578</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4435,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4472,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4505,17 @@
         <v>-46663912.77869632</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.3565</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4544,17 @@
         <v>577097373.8413037</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.3546</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4587,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4624,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4661,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4698,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4735,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4772,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4809,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4846,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4883,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4920,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4957,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4994,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +5031,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +5068,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +5105,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +5142,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,15 +5175,13 @@
         <v>600285581.881004</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.3476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L124" t="n">
@@ -4627,11 +5323,9 @@
         <v>600285581.881004</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.347</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -6183,16 +6877,18 @@
         <v>616456233.9449099</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L170" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
       <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
@@ -6218,11 +6914,15 @@
         <v>616453171.58391</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6255,7 +6955,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6288,7 +6992,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6321,7 +7029,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6354,7 +7066,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6387,7 +7103,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6420,7 +7140,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6453,7 +7177,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6486,7 +7214,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6519,7 +7251,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6552,7 +7288,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6585,7 +7325,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6618,7 +7362,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6651,7 +7399,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6684,7 +7436,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6717,7 +7473,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6750,7 +7510,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6783,7 +7547,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6816,7 +7584,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6849,7 +7621,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6878,11 +7654,15 @@
         <v>593280485.1994101</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6911,11 +7691,15 @@
         <v>593279068.76881</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6944,11 +7728,15 @@
         <v>593279068.76881</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6977,11 +7765,15 @@
         <v>593281510.20341</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7010,11 +7802,15 @@
         <v>593282918.65421</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7043,11 +7839,15 @@
         <v>593281505.4263099</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7076,11 +7876,15 @@
         <v>593174029.50563</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7109,11 +7913,15 @@
         <v>593174029.50563</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7142,11 +7950,15 @@
         <v>593174029.50563</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7179,7 +7991,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7208,11 +8024,15 @@
         <v>593174029.50563</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7241,11 +8061,15 @@
         <v>593174029.50563</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7274,11 +8098,15 @@
         <v>591815223.02283</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7311,7 +8139,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7340,11 +8172,15 @@
         <v>589776082.00033</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7373,11 +8209,15 @@
         <v>589776082.00033</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7410,7 +8250,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7443,7 +8287,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7476,7 +8324,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7505,11 +8357,15 @@
         <v>591712460.7540299</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7538,11 +8394,15 @@
         <v>591712460.7540299</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7575,7 +8435,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7608,7 +8472,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7641,7 +8509,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7674,7 +8546,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7707,7 +8583,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7736,11 +8616,15 @@
         <v>591885452.57143</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7769,11 +8653,15 @@
         <v>591885452.57143</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7806,7 +8694,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7839,7 +8731,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7872,7 +8768,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7901,11 +8801,15 @@
         <v>604723358.2269299</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7934,11 +8838,15 @@
         <v>604723358.2269257</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7967,11 +8875,15 @@
         <v>604723358.2269257</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8000,11 +8912,15 @@
         <v>604720524.1063257</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8033,11 +8949,15 @@
         <v>605453881.0642258</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8066,11 +8986,15 @@
         <v>605423670.4134258</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8103,7 +9027,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8132,11 +9060,15 @@
         <v>605423670.4134258</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-14 BackTest BTT.xlsx
+++ b/BackTest/2020-01-14 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M229"/>
+  <dimension ref="A1:L229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>373345.14</v>
       </c>
       <c r="G2" t="n">
-        <v>-53678486.6542</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>173820</v>
       </c>
       <c r="G3" t="n">
-        <v>-53852306.6542</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +503,15 @@
         <v>1381</v>
       </c>
       <c r="G4" t="n">
-        <v>-53850925.6542</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.3608</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +533,15 @@
         <v>311325.5179</v>
       </c>
       <c r="G5" t="n">
-        <v>-53539600.1363</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,24 +563,15 @@
         <v>5192498.2065</v>
       </c>
       <c r="G6" t="n">
-        <v>-48347101.9298</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,24 +593,15 @@
         <v>3000</v>
       </c>
       <c r="G7" t="n">
-        <v>-48350101.9298</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,24 +623,15 @@
         <v>94700</v>
       </c>
       <c r="G8" t="n">
-        <v>-48444801.9298</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -715,24 +653,15 @@
         <v>94221</v>
       </c>
       <c r="G9" t="n">
-        <v>-48539022.9298</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -754,24 +683,15 @@
         <v>253347.8349</v>
       </c>
       <c r="G10" t="n">
-        <v>-48539022.9298</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -793,26 +713,15 @@
         <v>247981.3558</v>
       </c>
       <c r="G11" t="n">
-        <v>-48787004.2856</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.3602</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -834,26 +743,15 @@
         <v>711159.2542</v>
       </c>
       <c r="G12" t="n">
-        <v>-48787004.2856</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.359</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -875,26 +773,15 @@
         <v>459415.5769</v>
       </c>
       <c r="G13" t="n">
-        <v>-48327588.7087</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.359</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -916,26 +803,15 @@
         <v>5523290.3345</v>
       </c>
       <c r="G14" t="n">
-        <v>-42804298.3742</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.3598</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -957,26 +833,15 @@
         <v>1392</v>
       </c>
       <c r="G15" t="n">
-        <v>-42805690.3742</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.3612</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -998,26 +863,15 @@
         <v>641449.1304</v>
       </c>
       <c r="G16" t="n">
-        <v>-43447139.5046</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.3598</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1039,26 +893,15 @@
         <v>3587591.1006</v>
       </c>
       <c r="G17" t="n">
-        <v>-39859548.40400001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.3596</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1080,26 +923,15 @@
         <v>110322</v>
       </c>
       <c r="G18" t="n">
-        <v>-39859548.40400001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.3598</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1121,26 +953,15 @@
         <v>1201469.0828</v>
       </c>
       <c r="G19" t="n">
-        <v>-39859548.40400001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.3598</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1162,26 +983,15 @@
         <v>1332368.4801</v>
       </c>
       <c r="G20" t="n">
-        <v>-39859548.40400001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.3598</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1203,26 +1013,15 @@
         <v>852242</v>
       </c>
       <c r="G21" t="n">
-        <v>-39859548.40400001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.3598</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1244,26 +1043,15 @@
         <v>1016574.2072</v>
       </c>
       <c r="G22" t="n">
-        <v>-39859548.40400001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.3598</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1285,26 +1073,15 @@
         <v>95038.8968</v>
       </c>
       <c r="G23" t="n">
-        <v>-39954587.3008</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.3598</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1326,26 +1103,15 @@
         <v>875325</v>
       </c>
       <c r="G24" t="n">
-        <v>-39954587.3008</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.3596</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1367,26 +1133,15 @@
         <v>875325</v>
       </c>
       <c r="G25" t="n">
-        <v>-39954587.3008</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.3596</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1408,26 +1163,15 @@
         <v>53717.6373</v>
       </c>
       <c r="G26" t="n">
-        <v>-39954587.3008</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.3596</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1449,26 +1193,15 @@
         <v>2625975</v>
       </c>
       <c r="G27" t="n">
-        <v>-39954587.3008</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.3596</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1490,26 +1223,15 @@
         <v>1159198.4066</v>
       </c>
       <c r="G28" t="n">
-        <v>-39954587.3008</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.3596</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1531,26 +1253,15 @@
         <v>1984210.9289</v>
       </c>
       <c r="G29" t="n">
-        <v>-39954587.3008</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.3596</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1572,26 +1283,15 @@
         <v>7540.9846</v>
       </c>
       <c r="G30" t="n">
-        <v>-39962128.2854</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.3596</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1613,26 +1313,15 @@
         <v>333274</v>
       </c>
       <c r="G31" t="n">
-        <v>-39962128.2854</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.3591</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1654,26 +1343,15 @@
         <v>3429168.9857</v>
       </c>
       <c r="G32" t="n">
-        <v>-39962128.2854</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.3591</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1695,26 +1373,15 @@
         <v>3424691.77</v>
       </c>
       <c r="G33" t="n">
-        <v>-39962128.2854</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.3591</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1736,26 +1403,15 @@
         <v>752612</v>
       </c>
       <c r="G34" t="n">
-        <v>-39209516.2854</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.3591</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1777,26 +1433,15 @@
         <v>1531061.5234</v>
       </c>
       <c r="G35" t="n">
-        <v>-39209516.2854</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.3596</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1818,26 +1463,15 @@
         <v>591761.9362</v>
       </c>
       <c r="G36" t="n">
-        <v>-39801278.2216</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.3596</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1859,26 +1493,15 @@
         <v>113255</v>
       </c>
       <c r="G37" t="n">
-        <v>-39688023.2216</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.3589</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1900,26 +1523,15 @@
         <v>333666.9445</v>
       </c>
       <c r="G38" t="n">
-        <v>-39688023.2216</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.3596</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1941,26 +1553,15 @@
         <v>355441.703</v>
       </c>
       <c r="G39" t="n">
-        <v>-39688023.2216</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.3596</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1982,26 +1583,15 @@
         <v>940093.0645</v>
       </c>
       <c r="G40" t="n">
-        <v>-40628116.2861</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.3596</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2023,26 +1613,15 @@
         <v>34393</v>
       </c>
       <c r="G41" t="n">
-        <v>-40593723.2861</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.3589</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2064,26 +1643,15 @@
         <v>462757.3793</v>
       </c>
       <c r="G42" t="n">
-        <v>-40593723.2861</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.3596</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2105,26 +1673,15 @@
         <v>790121</v>
       </c>
       <c r="G43" t="n">
-        <v>-40593723.2861</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.3596</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2146,26 +1703,15 @@
         <v>492693</v>
       </c>
       <c r="G44" t="n">
-        <v>-40593723.2861</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.3596</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2187,26 +1733,15 @@
         <v>2371890.5079</v>
       </c>
       <c r="G45" t="n">
-        <v>-42965613.794</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.3596</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2228,26 +1763,15 @@
         <v>444540.2911</v>
       </c>
       <c r="G46" t="n">
-        <v>-42965613.794</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2269,26 +1793,15 @@
         <v>278443.7735</v>
       </c>
       <c r="G47" t="n">
-        <v>-42965613.794</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2310,26 +1823,15 @@
         <v>483329.5607</v>
       </c>
       <c r="G48" t="n">
-        <v>-42965613.794</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2351,26 +1853,15 @@
         <v>9682430</v>
       </c>
       <c r="G49" t="n">
-        <v>-33283183.794</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2392,26 +1883,15 @@
         <v>4894892.4026</v>
       </c>
       <c r="G50" t="n">
-        <v>-28388291.3914</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.3678</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2433,24 +1913,15 @@
         <v>829510.1865</v>
       </c>
       <c r="G51" t="n">
-        <v>-28388291.3914</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1.00541952289553</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2472,24 +1943,15 @@
         <v>4100</v>
       </c>
       <c r="G52" t="n">
-        <v>-28388291.3914</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>0.3678</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2511,18 +1973,15 @@
         <v>701172.8983999999</v>
       </c>
       <c r="G53" t="n">
-        <v>-28388291.3914</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2544,18 +2003,15 @@
         <v>1390</v>
       </c>
       <c r="G54" t="n">
-        <v>-28389681.3914</v>
-      </c>
-      <c r="H54" t="n">
         <v>2</v>
       </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2577,18 +2033,15 @@
         <v>2710</v>
       </c>
       <c r="G55" t="n">
-        <v>-28392391.3914</v>
-      </c>
-      <c r="H55" t="n">
         <v>2</v>
       </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2610,18 +2063,15 @@
         <v>5723</v>
       </c>
       <c r="G56" t="n">
-        <v>-28398114.3914</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2643,22 +2093,15 @@
         <v>3961853.9758</v>
       </c>
       <c r="G57" t="n">
-        <v>-24436260.4156</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.3621</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.3621</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2680,24 +2123,15 @@
         <v>6888</v>
       </c>
       <c r="G58" t="n">
-        <v>-24436260.4156</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>0.3621</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2719,26 +2153,15 @@
         <v>12898.1346</v>
       </c>
       <c r="G59" t="n">
-        <v>-24436260.4156</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.3626</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.3621</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2760,22 +2183,15 @@
         <v>1471.5</v>
       </c>
       <c r="G60" t="n">
-        <v>-24437731.9156</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.3626</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.3626</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2797,26 +2213,15 @@
         <v>413782.4094</v>
       </c>
       <c r="G61" t="n">
-        <v>-24023949.5062</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.3625</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.3626</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2838,24 +2243,15 @@
         <v>40000</v>
       </c>
       <c r="G62" t="n">
-        <v>-24023949.5062</v>
-      </c>
-      <c r="H62" t="n">
         <v>2</v>
       </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>0.3626</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2877,18 +2273,15 @@
         <v>1027558.2038</v>
       </c>
       <c r="G63" t="n">
-        <v>-25051507.71</v>
-      </c>
-      <c r="H63" t="n">
         <v>2</v>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2910,24 +2303,15 @@
         <v>1812154.0465</v>
       </c>
       <c r="G64" t="n">
-        <v>-26863661.7565</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.362</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2949,24 +2333,15 @@
         <v>829510.1865</v>
       </c>
       <c r="G65" t="n">
-        <v>-27693171.943</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.3608</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2988,24 +2363,15 @@
         <v>4243057.7797</v>
       </c>
       <c r="G66" t="n">
-        <v>-31936229.7227</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.3601</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3027,24 +2393,15 @@
         <v>95403.77899999999</v>
       </c>
       <c r="G67" t="n">
-        <v>-31936229.7227</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3066,24 +2423,15 @@
         <v>192346.3875</v>
       </c>
       <c r="G68" t="n">
-        <v>-31936229.7227</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3105,24 +2453,15 @@
         <v>667868.8117</v>
       </c>
       <c r="G69" t="n">
-        <v>-32604098.5344</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3144,24 +2483,15 @@
         <v>138504.1552</v>
       </c>
       <c r="G70" t="n">
-        <v>-32465594.3792</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.3583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3183,22 +2513,15 @@
         <v>1471.5</v>
       </c>
       <c r="G71" t="n">
-        <v>-32467065.8792</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3220,24 +2543,15 @@
         <v>2601885.7111</v>
       </c>
       <c r="G72" t="n">
-        <v>-35068951.5903</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.3587</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3259,24 +2573,15 @@
         <v>12000</v>
       </c>
       <c r="G73" t="n">
-        <v>-35080951.5903</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.3584</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3298,22 +2603,15 @@
         <v>6200</v>
       </c>
       <c r="G74" t="n">
-        <v>-35080951.5903</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3335,24 +2633,15 @@
         <v>4387398.8939</v>
       </c>
       <c r="G75" t="n">
-        <v>-30693552.6964</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.3583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3374,24 +2663,15 @@
         <v>1412</v>
       </c>
       <c r="G76" t="n">
-        <v>-30692140.6964</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.3597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3413,22 +2693,15 @@
         <v>9061808.064622531</v>
       </c>
       <c r="G77" t="n">
-        <v>-39753948.76102253</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3450,22 +2723,15 @@
         <v>1358806.4828</v>
       </c>
       <c r="G78" t="n">
-        <v>-38395142.27822253</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3487,22 +2753,15 @@
         <v>680366.564</v>
       </c>
       <c r="G79" t="n">
-        <v>-39075508.84222253</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3524,22 +2783,15 @@
         <v>196363.012</v>
       </c>
       <c r="G80" t="n">
-        <v>-38879145.83022253</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3561,22 +2813,15 @@
         <v>2385566.4921</v>
       </c>
       <c r="G81" t="n">
-        <v>-41264712.32232253</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3598,22 +2843,15 @@
         <v>216685.3583</v>
       </c>
       <c r="G82" t="n">
-        <v>-41048026.96402253</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3635,22 +2873,15 @@
         <v>1266504.2426</v>
       </c>
       <c r="G83" t="n">
-        <v>-39781522.72142253</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3672,22 +2903,15 @@
         <v>984977.1268</v>
       </c>
       <c r="G84" t="n">
-        <v>-38796545.59462253</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3709,22 +2933,15 @@
         <v>89964.4111</v>
       </c>
       <c r="G85" t="n">
-        <v>-38796545.59462253</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3746,22 +2963,15 @@
         <v>6613124.1622</v>
       </c>
       <c r="G86" t="n">
-        <v>-45409669.75682253</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3783,22 +2993,15 @@
         <v>9362.257799999999</v>
       </c>
       <c r="G87" t="n">
-        <v>-45419032.01462252</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3820,22 +3023,15 @@
         <v>2136398.4312</v>
       </c>
       <c r="G88" t="n">
-        <v>-43282633.58342253</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3857,22 +3053,15 @@
         <v>8814.07</v>
       </c>
       <c r="G89" t="n">
-        <v>-43273819.51342253</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3894,22 +3083,15 @@
         <v>27693.1598</v>
       </c>
       <c r="G90" t="n">
-        <v>-43246126.35362253</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3931,22 +3113,15 @@
         <v>27685.4929</v>
       </c>
       <c r="G91" t="n">
-        <v>-43218440.86072253</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3968,22 +3143,15 @@
         <v>31437.7307</v>
       </c>
       <c r="G92" t="n">
-        <v>-43249878.59142253</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4005,22 +3173,15 @@
         <v>37640.155</v>
       </c>
       <c r="G93" t="n">
-        <v>-43287518.74642253</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4042,22 +3203,15 @@
         <v>38078.6478</v>
       </c>
       <c r="G94" t="n">
-        <v>-43325597.39422253</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4079,22 +3233,15 @@
         <v>145000</v>
       </c>
       <c r="G95" t="n">
-        <v>-43325597.39422253</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4116,24 +3263,15 @@
         <v>276699.02912621</v>
       </c>
       <c r="G96" t="n">
-        <v>-43048898.36509632</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4155,24 +3293,15 @@
         <v>1500</v>
       </c>
       <c r="G97" t="n">
-        <v>-43050398.36509632</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.3605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4194,24 +3323,15 @@
         <v>800921.6226999999</v>
       </c>
       <c r="G98" t="n">
-        <v>-43851319.98779631</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.359</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4233,24 +3353,15 @@
         <v>6501810.5049</v>
       </c>
       <c r="G99" t="n">
-        <v>-43851319.98779631</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0.358</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4272,24 +3383,15 @@
         <v>1408245.6592</v>
       </c>
       <c r="G100" t="n">
-        <v>-43851319.98779631</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.358</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4311,24 +3413,15 @@
         <v>1030084.8866</v>
       </c>
       <c r="G101" t="n">
-        <v>-44881404.87439632</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.358</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4350,24 +3443,15 @@
         <v>790289.4398000001</v>
       </c>
       <c r="G102" t="n">
-        <v>-44881404.87439632</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.3578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4389,24 +3473,15 @@
         <v>2467891.1525</v>
       </c>
       <c r="G103" t="n">
-        <v>-44881404.87439632</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.3578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4428,22 +3503,15 @@
         <v>127195.1428</v>
       </c>
       <c r="G104" t="n">
-        <v>-45008600.01719632</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4465,22 +3533,15 @@
         <v>1500</v>
       </c>
       <c r="G105" t="n">
-        <v>-45010100.01719632</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4502,24 +3563,15 @@
         <v>1653812.7615</v>
       </c>
       <c r="G106" t="n">
-        <v>-46663912.77869632</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.3565</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4541,24 +3593,15 @@
         <v>623761286.62</v>
       </c>
       <c r="G107" t="n">
-        <v>577097373.8413037</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0.3546</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4580,22 +3623,15 @@
         <v>5485227.2606</v>
       </c>
       <c r="G108" t="n">
-        <v>571612146.5807037</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4617,22 +3653,15 @@
         <v>1834763.9094</v>
       </c>
       <c r="G109" t="n">
-        <v>569777382.6713037</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4654,22 +3683,15 @@
         <v>678958</v>
       </c>
       <c r="G110" t="n">
-        <v>570456340.6713037</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4691,22 +3713,15 @@
         <v>5074216</v>
       </c>
       <c r="G111" t="n">
-        <v>575530556.6713037</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4728,22 +3743,15 @@
         <v>2378062.2217</v>
       </c>
       <c r="G112" t="n">
-        <v>573152494.4496038</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4765,22 +3773,15 @@
         <v>373345.14</v>
       </c>
       <c r="G113" t="n">
-        <v>573152494.4496038</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4802,22 +3803,15 @@
         <v>11153.0887</v>
       </c>
       <c r="G114" t="n">
-        <v>573163647.5383039</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4839,22 +3833,15 @@
         <v>2015198.9998</v>
       </c>
       <c r="G115" t="n">
-        <v>571148448.5385039</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4876,22 +3863,15 @@
         <v>1560497.9998</v>
       </c>
       <c r="G116" t="n">
-        <v>571148448.5385039</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4913,22 +3893,15 @@
         <v>3733992.3523</v>
       </c>
       <c r="G117" t="n">
-        <v>574882440.8908039</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4950,22 +3923,15 @@
         <v>1496991.6026</v>
       </c>
       <c r="G118" t="n">
-        <v>574882440.8908039</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4987,22 +3953,15 @@
         <v>4813900.3132</v>
       </c>
       <c r="G119" t="n">
-        <v>574882440.8908039</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5024,22 +3983,15 @@
         <v>1627123.1507</v>
       </c>
       <c r="G120" t="n">
-        <v>573255317.740104</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5061,22 +4013,15 @@
         <v>28450529.3809</v>
       </c>
       <c r="G121" t="n">
-        <v>601705847.121004</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5098,22 +4043,15 @@
         <v>1036664.7042</v>
       </c>
       <c r="G122" t="n">
-        <v>601705847.121004</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5135,22 +4073,15 @@
         <v>3000000</v>
       </c>
       <c r="G123" t="n">
-        <v>601705847.121004</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5172,22 +4103,15 @@
         <v>1420265.24</v>
       </c>
       <c r="G124" t="n">
-        <v>600285581.881004</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5209,22 +4133,15 @@
         <v>5942382.9225</v>
       </c>
       <c r="G125" t="n">
-        <v>600285581.881004</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5246,22 +4163,21 @@
         <v>4121088.1097</v>
       </c>
       <c r="G126" t="n">
-        <v>600285581.881004</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>0.347</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5283,22 +4199,19 @@
         <v>6361380.8397</v>
       </c>
       <c r="G127" t="n">
-        <v>600285581.881004</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5320,22 +4233,19 @@
         <v>8939812.758199999</v>
       </c>
       <c r="G128" t="n">
-        <v>600285581.881004</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5357,22 +4267,21 @@
         <v>3106193</v>
       </c>
       <c r="G129" t="n">
-        <v>600285581.881004</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>0.347</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5394,22 +4303,21 @@
         <v>747979.67898229</v>
       </c>
       <c r="G130" t="n">
-        <v>601033561.5599862</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>0.347</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5431,22 +4339,21 @@
         <v>230211.9753</v>
       </c>
       <c r="G131" t="n">
-        <v>600803349.5846863</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>0.3514</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5468,22 +4375,21 @@
         <v>1124389.6449</v>
       </c>
       <c r="G132" t="n">
-        <v>600803349.5846863</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>0.347</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5505,22 +4411,21 @@
         <v>4892010.6526</v>
       </c>
       <c r="G133" t="n">
-        <v>605695360.2372863</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>0.347</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5542,22 +4447,21 @@
         <v>1854960.4944</v>
       </c>
       <c r="G134" t="n">
-        <v>603840399.7428863</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>0.352</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5579,22 +4483,19 @@
         <v>15042055.3768</v>
       </c>
       <c r="G135" t="n">
-        <v>618882455.1196864</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5616,22 +4517,19 @@
         <v>1884726.1494</v>
       </c>
       <c r="G136" t="n">
-        <v>620767181.2690864</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5653,22 +4551,19 @@
         <v>2910.959</v>
       </c>
       <c r="G137" t="n">
-        <v>620764270.3100864</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5690,22 +4585,19 @@
         <v>276875.6725</v>
       </c>
       <c r="G138" t="n">
-        <v>621041145.9825864</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5727,22 +4619,19 @@
         <v>154196.9575</v>
       </c>
       <c r="G139" t="n">
-        <v>621195342.9400864</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5764,22 +4653,19 @@
         <v>177885.1468</v>
       </c>
       <c r="G140" t="n">
-        <v>621017457.7932863</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5801,22 +4687,19 @@
         <v>443011.3736</v>
       </c>
       <c r="G141" t="n">
-        <v>621017457.7932863</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5838,22 +4721,19 @@
         <v>664519.9197</v>
       </c>
       <c r="G142" t="n">
-        <v>621017457.7932863</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5875,22 +4755,19 @@
         <v>25083.0131</v>
       </c>
       <c r="G143" t="n">
-        <v>620992374.7801863</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5912,22 +4789,19 @@
         <v>291380.4161</v>
       </c>
       <c r="G144" t="n">
-        <v>621283755.1962863</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5949,22 +4823,19 @@
         <v>93742.52469999999</v>
       </c>
       <c r="G145" t="n">
-        <v>621190012.6715863</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5986,22 +4857,19 @@
         <v>1474955.9329</v>
       </c>
       <c r="G146" t="n">
-        <v>621190012.6715863</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6023,22 +4891,19 @@
         <v>552948.9510999999</v>
       </c>
       <c r="G147" t="n">
-        <v>621742961.6226863</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6060,22 +4925,19 @@
         <v>276474.4755</v>
       </c>
       <c r="G148" t="n">
-        <v>621742961.6226863</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6097,22 +4959,19 @@
         <v>276160.216</v>
       </c>
       <c r="G149" t="n">
-        <v>622019121.8386862</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6134,22 +4993,19 @@
         <v>408573.8428</v>
       </c>
       <c r="G150" t="n">
-        <v>621610547.9958862</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6171,22 +5027,19 @@
         <v>11982.3364</v>
       </c>
       <c r="G151" t="n">
-        <v>621622530.3322862</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6208,22 +5061,19 @@
         <v>1416514.446</v>
       </c>
       <c r="G152" t="n">
-        <v>623039044.7782862</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6245,22 +5095,19 @@
         <v>1328177.1028</v>
       </c>
       <c r="G153" t="n">
-        <v>623039044.7782862</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6282,22 +5129,19 @@
         <v>1439359.0011</v>
       </c>
       <c r="G154" t="n">
-        <v>623039044.7782862</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6319,22 +5163,19 @@
         <v>0.0001</v>
       </c>
       <c r="G155" t="n">
-        <v>623039044.7782862</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6356,22 +5197,19 @@
         <v>28360.74872376</v>
       </c>
       <c r="G156" t="n">
-        <v>623067405.52701</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6393,22 +5231,19 @@
         <v>234109.9066</v>
       </c>
       <c r="G157" t="n">
-        <v>623301515.43361</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6430,22 +5265,19 @@
         <v>262167.8877</v>
       </c>
       <c r="G158" t="n">
-        <v>623301515.43361</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6467,22 +5299,19 @@
         <v>2387107</v>
       </c>
       <c r="G159" t="n">
-        <v>620914408.43361</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6504,22 +5333,19 @@
         <v>5451.1717</v>
       </c>
       <c r="G160" t="n">
-        <v>620908957.26191</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6541,22 +5367,19 @@
         <v>394809.1163</v>
       </c>
       <c r="G161" t="n">
-        <v>621303766.3782099</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6578,22 +5401,19 @@
         <v>1207673.3758</v>
       </c>
       <c r="G162" t="n">
-        <v>620096093.0024099</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6615,22 +5435,19 @@
         <v>303033.9755</v>
       </c>
       <c r="G163" t="n">
-        <v>620096093.0024099</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6652,22 +5469,19 @@
         <v>1154904.1414</v>
       </c>
       <c r="G164" t="n">
-        <v>618941188.86101</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6689,22 +5503,19 @@
         <v>19500</v>
       </c>
       <c r="G165" t="n">
-        <v>618921688.86101</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6726,22 +5537,19 @@
         <v>2695125.6303</v>
       </c>
       <c r="G166" t="n">
-        <v>616226563.2307099</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6763,22 +5571,19 @@
         <v>242516.6264</v>
       </c>
       <c r="G167" t="n">
-        <v>616469079.8571099</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6800,22 +5605,19 @@
         <v>215981.5447</v>
       </c>
       <c r="G168" t="n">
-        <v>616685061.4018099</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6837,22 +5639,19 @@
         <v>2827</v>
       </c>
       <c r="G169" t="n">
-        <v>616687888.4018099</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6874,22 +5673,19 @@
         <v>231654.4569</v>
       </c>
       <c r="G170" t="n">
-        <v>616456233.9449099</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6911,22 +5707,19 @@
         <v>3062.361</v>
       </c>
       <c r="G171" t="n">
-        <v>616453171.58391</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6948,22 +5741,19 @@
         <v>13532442.0799</v>
       </c>
       <c r="G172" t="n">
-        <v>602920729.50401</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6985,22 +5775,19 @@
         <v>10293063.8673</v>
       </c>
       <c r="G173" t="n">
-        <v>592627665.6367099</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7022,22 +5809,19 @@
         <v>2992804.8403</v>
       </c>
       <c r="G174" t="n">
-        <v>592627665.6367099</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7059,22 +5843,19 @@
         <v>10000</v>
       </c>
       <c r="G175" t="n">
-        <v>592637665.6367099</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7096,22 +5877,19 @@
         <v>1593015.8779</v>
       </c>
       <c r="G176" t="n">
-        <v>591044649.7588099</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7133,22 +5911,19 @@
         <v>77362.6844</v>
       </c>
       <c r="G177" t="n">
-        <v>590967287.07441</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7170,22 +5945,19 @@
         <v>224914.9522</v>
       </c>
       <c r="G178" t="n">
-        <v>590967287.07441</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7207,22 +5979,19 @@
         <v>267353.3603</v>
       </c>
       <c r="G179" t="n">
-        <v>590699933.71411</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7244,22 +6013,19 @@
         <v>7503077.3718</v>
       </c>
       <c r="G180" t="n">
-        <v>598203011.08591</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7281,22 +6047,19 @@
         <v>5621.6942</v>
       </c>
       <c r="G181" t="n">
-        <v>598208632.78011</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7318,22 +6081,19 @@
         <v>6286.8837</v>
       </c>
       <c r="G182" t="n">
-        <v>598202345.89641</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7355,22 +6115,19 @@
         <v>39639.5284</v>
       </c>
       <c r="G183" t="n">
-        <v>598162706.36801</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7392,22 +6149,19 @@
         <v>1944.9572</v>
       </c>
       <c r="G184" t="n">
-        <v>598164651.3252101</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7429,22 +6183,19 @@
         <v>46603.7253</v>
       </c>
       <c r="G185" t="n">
-        <v>598118047.5999101</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7466,22 +6217,19 @@
         <v>4894892.4026</v>
       </c>
       <c r="G186" t="n">
-        <v>593223155.1973101</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7503,22 +6251,19 @@
         <v>48283.485</v>
       </c>
       <c r="G187" t="n">
-        <v>593271438.6823101</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7540,22 +6285,19 @@
         <v>4540.8875</v>
       </c>
       <c r="G188" t="n">
-        <v>593275979.5698102</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7577,22 +6319,19 @@
         <v>1675.5579</v>
       </c>
       <c r="G189" t="n">
-        <v>593277655.1277101</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7614,22 +6353,19 @@
         <v>1411.6319</v>
       </c>
       <c r="G190" t="n">
-        <v>593279066.7596101</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7651,22 +6387,19 @@
         <v>1418.4398</v>
       </c>
       <c r="G191" t="n">
-        <v>593280485.1994101</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7688,22 +6421,19 @@
         <v>1416.4306</v>
       </c>
       <c r="G192" t="n">
-        <v>593279068.76881</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7725,22 +6455,19 @@
         <v>2821060.9242</v>
       </c>
       <c r="G193" t="n">
-        <v>593279068.76881</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7762,22 +6489,19 @@
         <v>2441.4346</v>
       </c>
       <c r="G194" t="n">
-        <v>593281510.20341</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7799,22 +6523,19 @@
         <v>1408.4508</v>
       </c>
       <c r="G195" t="n">
-        <v>593282918.65421</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7836,22 +6557,19 @@
         <v>1413.2279</v>
       </c>
       <c r="G196" t="n">
-        <v>593281505.4263099</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7873,22 +6591,19 @@
         <v>107475.92067988</v>
       </c>
       <c r="G197" t="n">
-        <v>593174029.50563</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7910,22 +6625,19 @@
         <v>98558.5675</v>
       </c>
       <c r="G198" t="n">
-        <v>593174029.50563</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7947,22 +6659,19 @@
         <v>1578137.1074</v>
       </c>
       <c r="G199" t="n">
-        <v>593174029.50563</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7984,22 +6693,19 @@
         <v>228557.5672</v>
       </c>
       <c r="G200" t="n">
-        <v>593174029.50563</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8021,22 +6727,19 @@
         <v>2561226.1347</v>
       </c>
       <c r="G201" t="n">
-        <v>593174029.50563</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8058,22 +6761,19 @@
         <v>1365664.445</v>
       </c>
       <c r="G202" t="n">
-        <v>593174029.50563</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8095,22 +6795,19 @@
         <v>1358806.4828</v>
       </c>
       <c r="G203" t="n">
-        <v>591815223.02283</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8132,22 +6829,19 @@
         <v>2039141.0225</v>
       </c>
       <c r="G204" t="n">
-        <v>589776082.00033</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8169,22 +6863,19 @@
         <v>567871.8626</v>
       </c>
       <c r="G205" t="n">
-        <v>589776082.00033</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8206,22 +6897,19 @@
         <v>737881.3073</v>
       </c>
       <c r="G206" t="n">
-        <v>589776082.00033</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8243,22 +6931,19 @@
         <v>175000</v>
       </c>
       <c r="G207" t="n">
-        <v>589951082.00033</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8280,22 +6965,19 @@
         <v>6294.4285</v>
       </c>
       <c r="G208" t="n">
-        <v>589944787.5718299</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8317,22 +6999,19 @@
         <v>660818.99</v>
       </c>
       <c r="G209" t="n">
-        <v>590605606.5618299</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8354,22 +7033,19 @@
         <v>1106854.1922</v>
       </c>
       <c r="G210" t="n">
-        <v>591712460.7540299</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8391,22 +7067,19 @@
         <v>288568.4517</v>
       </c>
       <c r="G211" t="n">
-        <v>591712460.7540299</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8428,22 +7101,19 @@
         <v>155679.88</v>
       </c>
       <c r="G212" t="n">
-        <v>591868140.6340299</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8465,22 +7135,19 @@
         <v>3140.0629</v>
       </c>
       <c r="G213" t="n">
-        <v>591865000.5711299</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8502,22 +7169,19 @@
         <v>1426.1267</v>
       </c>
       <c r="G214" t="n">
-        <v>591863574.4444299</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8539,22 +7203,19 @@
         <v>1421.6662</v>
       </c>
       <c r="G215" t="n">
-        <v>591864996.1106299</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8576,22 +7237,19 @@
         <v>8825.6875</v>
       </c>
       <c r="G216" t="n">
-        <v>591873821.7981299</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8613,22 +7271,19 @@
         <v>11630.7733</v>
       </c>
       <c r="G217" t="n">
-        <v>591885452.57143</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8650,22 +7305,19 @@
         <v>288568.4517</v>
       </c>
       <c r="G218" t="n">
-        <v>591885452.57143</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8687,22 +7339,19 @@
         <v>3833655.83440416</v>
       </c>
       <c r="G219" t="n">
-        <v>595719108.4058341</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8724,22 +7373,19 @@
         <v>8707975.193695839</v>
       </c>
       <c r="G220" t="n">
-        <v>604427083.5995299</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8761,22 +7407,19 @@
         <v>144757.4443</v>
       </c>
       <c r="G221" t="n">
-        <v>604427083.5995299</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8798,22 +7441,19 @@
         <v>296274.6274</v>
       </c>
       <c r="G222" t="n">
-        <v>604723358.2269299</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8835,22 +7475,19 @@
         <v>4.16e-06</v>
       </c>
       <c r="G223" t="n">
-        <v>604723358.2269257</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8872,22 +7509,19 @@
         <v>3406876.8481</v>
       </c>
       <c r="G224" t="n">
-        <v>604723358.2269257</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8909,22 +7543,19 @@
         <v>2834.1206</v>
       </c>
       <c r="G225" t="n">
-        <v>604720524.1063257</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8946,22 +7577,19 @@
         <v>733356.9579</v>
       </c>
       <c r="G226" t="n">
-        <v>605453881.0642258</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8983,22 +7611,19 @@
         <v>30210.6508</v>
       </c>
       <c r="G227" t="n">
-        <v>605423670.4134258</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9020,22 +7645,19 @@
         <v>2100177.216</v>
       </c>
       <c r="G228" t="n">
-        <v>605423670.4134258</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9057,22 +7679,19 @@
         <v>320702.9999</v>
       </c>
       <c r="G229" t="n">
-        <v>605423670.4134258</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
